--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070"/>
+    <workbookView windowWidth="18530" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,10 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Williandy</t>
-  </si>
-  <si>
-    <t>Edgar</t>
+    <t>WILLIANDY</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
   </si>
   <si>
     <t>Industry</t>
@@ -107,10 +107,10 @@
     <t>Jabatan</t>
   </si>
   <si>
-    <t>Section Head</t>
-  </si>
-  <si>
-    <t>Section Leg</t>
+    <t>SECTION HEAD</t>
+  </si>
+  <si>
+    <t>SECTION LEG</t>
   </si>
   <si>
     <t>Value DDL</t>
@@ -121,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -150,15 +150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,45 +164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -219,6 +172,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -234,6 +218,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -249,31 +265,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,15 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -554,6 +545,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,17 +586,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -595,152 +595,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -751,7 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1074,7 +1073,7 @@
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1173,8 +1172,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:1">
-      <c r="A12" s="7"/>
+    <row r="12" s="3" customFormat="1" spans="1:1">
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="3"/>
@@ -1220,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Status</t>
   </si>
@@ -41,22 +41,37 @@
     <t>$Email registrasi</t>
   </si>
   <si>
-    <t>kevin.edgar@ad-ins.com</t>
+    <t>KVNEDGAR@GGG.COM</t>
+  </si>
+  <si>
+    <t>BOCCHITHERCK@ANIME.COM</t>
   </si>
   <si>
     <t>$Username registrasi</t>
   </si>
   <si>
-    <t>KevinKevini</t>
+    <t>PenggunaTrail</t>
+  </si>
+  <si>
+    <t>Bocchi</t>
   </si>
   <si>
     <t>$Pass registrasi</t>
   </si>
   <si>
-    <t>Xavier123!</t>
+    <t>Xavier1234!</t>
+  </si>
+  <si>
+    <t>GuitarHero111!!</t>
   </si>
   <si>
     <t>$Pass_confirm registrasi</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Done well</t>
   </si>
   <si>
     <t>Data Edit Profile</t>
@@ -121,9 +136,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -142,6 +157,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,8 +165,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +219,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -172,17 +272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,92 +286,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,9 +512,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +541,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,26 +584,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,7 +610,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,127 +631,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,14 +1088,15 @@
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
-    <col min="2" max="3" width="21.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="28.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1136,40 +1152,40 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:1">
@@ -1219,7 +1235,7 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1234,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1245,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1271,67 +1287,67 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4">
         <v>123456789012</v>
@@ -1342,18 +1358,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5">
         <v>99</v>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,28 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070"/>
+    <workbookView activeTab="1" windowHeight="7070" windowWidth="18530"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit Profile" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" r:id="rId1" sheetId="1"/>
+    <sheet name="Edit Profile" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Unexecuted</t>
   </si>
   <si>
     <t>Reason failed</t>
   </si>
   <si>
+    <t>-;Submit Gagal</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -65,70 +71,70 @@
     <t>GuitarHero111!!</t>
   </si>
   <si>
-    <t>$Pass_confirm registrasi</t>
+    <t>Data Edit Profile</t>
+  </si>
+  <si>
+    <t>Username Login</t>
+  </si>
+  <si>
+    <t>willis.wy@ad-ins.com</t>
+  </si>
+  <si>
+    <t>Password Login</t>
+  </si>
+  <si>
+    <t>P@ssw0rd123</t>
+  </si>
+  <si>
+    <t>Nama Tenant</t>
+  </si>
+  <si>
+    <t>AD-INS</t>
+  </si>
+  <si>
+    <t>ADIN</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>WILLIANDY</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>QE</t>
+  </si>
+  <si>
+    <t>Nomor Telepon</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>SECTION HEAD</t>
+  </si>
+  <si>
+    <t>SECTION LEG</t>
+  </si>
+  <si>
+    <t>Value DDL</t>
+  </si>
+  <si>
+    <t>;Submit Gagal</t>
   </si>
   <si>
     <t>Success</t>
   </si>
   <si>
     <t>Done well</t>
-  </si>
-  <si>
-    <t>Data Edit Profile</t>
-  </si>
-  <si>
-    <t>Username Login</t>
-  </si>
-  <si>
-    <t>willis.wy@ad-ins.com</t>
-  </si>
-  <si>
-    <t>Password Login</t>
-  </si>
-  <si>
-    <t>P@ssw0rd123</t>
-  </si>
-  <si>
-    <t>Nama Tenant</t>
-  </si>
-  <si>
-    <t>AD-INS</t>
-  </si>
-  <si>
-    <t>ADIN</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>WILLIANDY</t>
-  </si>
-  <si>
-    <t>EDGAR</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>QE</t>
-  </si>
-  <si>
-    <t>Nomor Telepon</t>
-  </si>
-  <si>
-    <t>Jabatan</t>
-  </si>
-  <si>
-    <t>SECTION HEAD</t>
-  </si>
-  <si>
-    <t>SECTION LEG</t>
-  </si>
-  <si>
-    <t>Value DDL</t>
   </si>
 </sst>
 </file>
@@ -136,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -157,16 +163,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -174,14 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,39 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +247,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -280,22 +264,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,103 +322,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,79 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,26 +513,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,6 +555,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -580,6 +575,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,217 +615,217 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="13" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="22" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="21" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="21" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
+    <cellStyle builtinId="10" name="Note" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -833,10 +839,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1000,21 +1006,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1031,7 +1037,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1084,19 +1090,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="28.8181818181818" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.8181818181818" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1104,31 +1110,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
@@ -1139,56 +1145,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row customFormat="1" r="12" s="3" spans="1:1">
       <c r="A12" s="6"/>
     </row>
     <row r="13" spans="2:3">
@@ -1224,25 +1219,25 @@
       <c r="C20" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
-    <col min="2" max="3" width="20.8181818181818" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="20.8181818181818" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1250,31 +1245,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
@@ -1285,69 +1280,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4">
         <v>123456789012</v>
@@ -1358,18 +1353,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5">
         <v>99</v>
@@ -1379,7 +1374,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,71 +4,74 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7070" windowWidth="18530"/>
+    <workbookView windowWidth="18530" windowHeight="7070"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" r:id="rId1" sheetId="1"/>
-    <sheet name="Edit Profile" r:id="rId2" sheetId="2"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
+    <sheet name="Edit Profile" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Unexecuted</t>
+  </si>
+  <si>
+    <t>Reason failed</t>
+  </si>
+  <si>
+    <t>Done well</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Mandatory Complete</t>
+  </si>
+  <si>
+    <t>Data Register &amp; Login</t>
+  </si>
+  <si>
+    <t>$Email registrasi</t>
+  </si>
+  <si>
+    <t>KVNEDGAR@GGG.COM</t>
+  </si>
+  <si>
+    <t>LISTMYCAR@GGG.COM</t>
+  </si>
+  <si>
+    <t>$Username registrasi</t>
+  </si>
+  <si>
+    <t>PenggunaTrail</t>
+  </si>
+  <si>
+    <t>Xenia</t>
+  </si>
+  <si>
+    <t>$Pass registrasi</t>
+  </si>
+  <si>
+    <t>Xavier1234!</t>
+  </si>
+  <si>
+    <t>AiJustWantDaihatsu11!</t>
+  </si>
+  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>Unexecuted</t>
-  </si>
-  <si>
-    <t>Reason failed</t>
-  </si>
-  <si>
-    <t>-;Submit Gagal</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>Mandatory Complete</t>
-  </si>
-  <si>
-    <t>Data Register &amp; Login</t>
-  </si>
-  <si>
-    <t>$Email registrasi</t>
-  </si>
-  <si>
-    <t>KVNEDGAR@GGG.COM</t>
-  </si>
-  <si>
-    <t>BOCCHITHERCK@ANIME.COM</t>
-  </si>
-  <si>
-    <t>$Username registrasi</t>
-  </si>
-  <si>
-    <t>PenggunaTrail</t>
-  </si>
-  <si>
-    <t>Bocchi</t>
-  </si>
-  <si>
-    <t>$Pass registrasi</t>
-  </si>
-  <si>
-    <t>Xavier1234!</t>
-  </si>
-  <si>
-    <t>GuitarHero111!!</t>
+    <t>;Submit Gagal</t>
   </si>
   <si>
     <t>Data Edit Profile</t>
@@ -126,15 +129,6 @@
   </si>
   <si>
     <t>Value DDL</t>
-  </si>
-  <si>
-    <t>;Submit Gagal</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Done well</t>
   </si>
 </sst>
 </file>
@@ -142,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -164,16 +158,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,13 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -200,9 +210,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +256,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -239,69 +279,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,25 +316,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,157 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,16 +510,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -555,15 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -579,6 +573,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -589,243 +607,219 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="13" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="15" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="22" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="21" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="21" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
-    <cellStyle builtinId="10" name="Note" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -839,10 +833,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1006,21 +1000,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1037,7 +1031,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1090,19 +1084,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0909090909091" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.7272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.8181818181818" collapsed="true"/>
+    <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="28.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1110,31 +1104,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
@@ -1145,45 +1136,45 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customFormat="1" r="12" s="3" spans="1:1">
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:1">
       <c r="A12" s="6"/>
     </row>
     <row r="13" spans="2:3">
@@ -1219,25 +1210,25 @@
       <c r="C20" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="20.8181818181818" collapsed="true"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
+    <col min="2" max="3" width="20.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1245,31 +1236,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
@@ -1280,69 +1271,69 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4">
         <v>123456789012</v>
@@ -1353,18 +1344,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5">
         <v>99</v>
@@ -1374,7 +1365,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070"/>
+    <workbookView windowWidth="18530" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>Username Login</t>
   </si>
   <si>
-    <t>willis.wy@ad-ins.com</t>
+    <t>WILLIS.WY@AD-INS.COM</t>
   </si>
   <si>
     <t>Password Login</t>
@@ -136,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -157,6 +157,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -164,6 +172,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -171,16 +219,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,31 +251,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,30 +281,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,39 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,49 +316,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,61 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,67 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,8 +513,53 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,52 +583,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,8 +591,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,15 +610,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,130 +628,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,7 +1088,7 @@
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1221,14 +1221,14 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
-    <col min="2" max="3" width="20.8181818181818" customWidth="1"/>
+    <col min="2" max="3" width="24.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1280,10 +1280,10 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -15,23 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
     <t>Unexecuted</t>
   </si>
   <si>
     <t>Reason failed</t>
   </si>
   <si>
-    <t>Done well</t>
-  </si>
-  <si>
     <t>Objective</t>
   </si>
   <si>
@@ -44,7 +38,7 @@
     <t>$Email registrasi</t>
   </si>
   <si>
-    <t>KVNEDGAR@GGG.COM</t>
+    <t>QUICKSILVER@GM.COM</t>
   </si>
   <si>
     <t>LISTMYCAR@GGG.COM</t>
@@ -71,6 +65,9 @@
     <t>Failed</t>
   </si>
   <si>
+    <t>;Data tidak cocok pada DB/Excel;Data tidak cocok pada DB/Excel;Data tidak cocok pada DB/Excel;Submit Gagal;Submit Gagal</t>
+  </si>
+  <si>
     <t>;Submit Gagal</t>
   </si>
   <si>
@@ -80,13 +77,31 @@
     <t>Username Login</t>
   </si>
   <si>
-    <t>WILLIS.WY@AD-INS.COM</t>
+    <t>KVNEDGAR@ADIN.COM</t>
   </si>
   <si>
     <t>Password Login</t>
   </si>
   <si>
-    <t>P@ssw0rd123</t>
+    <t>Xavier123!</t>
+  </si>
+  <si>
+    <t>Nama Depan</t>
+  </si>
+  <si>
+    <t>WILLIS</t>
+  </si>
+  <si>
+    <t>KEPIN</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>WILLIANDY</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
   </si>
   <si>
     <t>Nama Tenant</t>
@@ -98,22 +113,28 @@
     <t>ADIN</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>WILLIANDY</t>
-  </si>
-  <si>
-    <t>EDGAR</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
     <t>QA</t>
   </si>
   <si>
-    <t>QE</t>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>HTTPS://CHAT.OPENAI.COM/</t>
+  </si>
+  <si>
+    <t>HTTPS://CHERRY.AD-INS.COM/</t>
   </si>
   <si>
     <t>Nomor Telepon</t>
@@ -128,7 +149,10 @@
     <t>SECTION LEG</t>
   </si>
   <si>
-    <t>Value DDL</t>
+    <t>Kode Negara</t>
+  </si>
+  <si>
+    <t>Indonesia +62</t>
   </si>
 </sst>
 </file>
@@ -137,9 +161,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -154,6 +178,66 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,55 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,52 +288,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,181 +340,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,15 +531,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,17 +549,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +597,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -610,145 +634,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,14 +1113,14 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="28.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="20.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.8181818181818" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1107,25 +1131,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
@@ -1138,40 +1159,40 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:1">
@@ -1219,16 +1240,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
-    <col min="2" max="3" width="24.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="27.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="29.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1236,31 +1258,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
@@ -1273,83 +1295,83 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4">
-        <v>123456789012</v>
-      </c>
-      <c r="C13" s="4">
-        <v>123456789000</v>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1357,11 +1379,44 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5">
-        <v>99</v>
-      </c>
-      <c r="C15" s="5">
-        <v>99</v>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4">
+        <v>123456789012</v>
+      </c>
+      <c r="C16" s="4">
+        <v>123456789000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="7070" windowWidth="18530"/>
+    <workbookView windowWidth="18530" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" r:id="rId1" sheetId="1"/>
-    <sheet name="Edit Profile" r:id="rId2" sheetId="2"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
+    <sheet name="Edit Profile" sheetId="2" r:id="rId2"/>
+    <sheet name="API KEY" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Status</t>
   </si>
@@ -23,9 +24,15 @@
     <t>Unexecuted</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Reason failed</t>
   </si>
   <si>
+    <t>;Submit Gagal</t>
+  </si>
+  <si>
     <t>Objective</t>
   </si>
   <si>
@@ -74,19 +81,19 @@
     <t>Data Edit Profile</t>
   </si>
   <si>
-    <t>Username Login</t>
+    <t>$Username Login</t>
   </si>
   <si>
     <t>KVNEDGAR@ADIN.COM</t>
   </si>
   <si>
-    <t>Password Login</t>
+    <t>$Password Login</t>
   </si>
   <si>
     <t>Xavier123!</t>
   </si>
   <si>
-    <t>Nama Depan</t>
+    <t>$Nama Depan</t>
   </si>
   <si>
     <t>WILLIS</t>
@@ -95,7 +102,7 @@
     <t>KEPIN</t>
   </si>
   <si>
-    <t>Last Name</t>
+    <t>$Last Name</t>
   </si>
   <si>
     <t>WILLIANDY</t>
@@ -104,7 +111,7 @@
     <t>EDGAR</t>
   </si>
   <si>
-    <t>Nama Tenant</t>
+    <t>$Nama Tenant</t>
   </si>
   <si>
     <t>AD-INS</t>
@@ -113,7 +120,7 @@
     <t>ADIN</t>
   </si>
   <si>
-    <t>Industry</t>
+    <t>$Industry</t>
   </si>
   <si>
     <t>QA</t>
@@ -149,16 +156,28 @@
     <t>SECTION LEG</t>
   </si>
   <si>
-    <t>Kode Negara</t>
+    <t>$Kode Negara</t>
   </si>
   <si>
     <t>Indonesia +62</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>;Submit Gagal</t>
+    <t>$Nama API KEY</t>
+  </si>
+  <si>
+    <t>SIAPA</t>
+  </si>
+  <si>
+    <t>PACARKU_?</t>
+  </si>
+  <si>
+    <t>$Tipe API KEY</t>
+  </si>
+  <si>
+    <t>PRODUCTION</t>
+  </si>
+  <si>
+    <t>TRIAL</t>
   </si>
 </sst>
 </file>
@@ -187,11 +206,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +283,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -212,118 +299,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -346,127 +365,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,49 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,11 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,17 +598,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,239 +656,219 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="10" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="4" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="17" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="21" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="21" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
-    <cellStyle builtinId="10" name="Note" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -863,10 +882,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1030,21 +1049,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1061,7 +1080,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1114,20 +1133,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0909090909091" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.7272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.7272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.0909090909091" collapsed="true"/>
+    <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="22.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="21.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1138,28 +1157,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
@@ -1174,54 +1193,54 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customFormat="1" r="12" s="3" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:1">
       <c r="A12" s="6"/>
     </row>
     <row r="13" spans="2:3">
@@ -1257,26 +1276,26 @@
       <c r="C20" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.9090909090909" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.5454545454545" collapsed="true"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="27.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="29.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1292,17 +1311,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
@@ -1313,102 +1332,102 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4">
         <v>123456789012</v>
@@ -1419,28 +1438,143 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="23.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="22.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="21.0909090909091" customWidth="1"/>
+    <col min="5" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>IF(ISBLANK(Register!C8:C11),1,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>Status</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Unexecuted</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Reason failed</t>
   </si>
   <si>
-    <t>;Submit Gagal</t>
-  </si>
-  <si>
     <t>Objective</t>
   </si>
   <si>
@@ -45,25 +39,28 @@
     <t>$Email registrasi</t>
   </si>
   <si>
-    <t>QUICKSILVER@GM.COM</t>
-  </si>
-  <si>
-    <t>LISTMYCAR@GGG.COM</t>
+    <t>SUNDAWAR@GM.COM</t>
+  </si>
+  <si>
+    <t>APAPUNLAH@GG.COM</t>
   </si>
   <si>
     <t>HEYYO@LIKEME.COM</t>
   </si>
   <si>
+    <t>EMAILBARU@GG.COM</t>
+  </si>
+  <si>
     <t>$Username registrasi</t>
   </si>
   <si>
-    <t>PENGGUNATRAIL</t>
-  </si>
-  <si>
-    <t>XENIA</t>
-  </si>
-  <si>
-    <t>BLOWEMUP</t>
+    <t>KULBET</t>
+  </si>
+  <si>
+    <t>CEKIN</t>
+  </si>
+  <si>
+    <t>ASALAJALAH</t>
   </si>
   <si>
     <t>$Pass registrasi</t>
@@ -72,12 +69,51 @@
     <t>Xavier1234!</t>
   </si>
   <si>
-    <t>AiJustWantDaihatsu11!</t>
+    <t>AkumaupindahKeMeikarta13!</t>
   </si>
   <si>
     <t>MakeitREAL!555</t>
   </si>
   <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>$KetikUlang Pass</t>
+  </si>
+  <si>
+    <t>Controller OTP</t>
+  </si>
+  <si>
+    <t>AutofillOTP(Yes/No)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>WrongOTP</t>
+  </si>
+  <si>
+    <t>999999</t>
+  </si>
+  <si>
+    <t>ResendOTP? (Yes/No)</t>
+  </si>
+  <si>
+    <t>CountResendOTP</t>
+  </si>
+  <si>
+    <t>Controller T&amp;C</t>
+  </si>
+  <si>
+    <t>Check T&amp;C?</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>Data Edit Profile</t>
   </si>
   <si>
@@ -96,18 +132,12 @@
     <t>$Nama Depan</t>
   </si>
   <si>
-    <t>WILLIS</t>
-  </si>
-  <si>
     <t>KEPIN</t>
   </si>
   <si>
     <t>$Last Name</t>
   </si>
   <si>
-    <t>WILLIANDY</t>
-  </si>
-  <si>
     <t>EDGAR</t>
   </si>
   <si>
@@ -147,6 +177,9 @@
     <t>Nomor Telepon</t>
   </si>
   <si>
+    <t>Katakata</t>
+  </si>
+  <si>
     <t>Jabatan</t>
   </si>
   <si>
@@ -165,12 +198,15 @@
     <t>$Nama API KEY</t>
   </si>
   <si>
-    <t>SIAPA</t>
+    <t>SEKUYGEMING</t>
   </si>
   <si>
     <t>PACARKU_?</t>
   </si>
   <si>
+    <t>SIUUU</t>
+  </si>
+  <si>
     <t>$Tipe API KEY</t>
   </si>
   <si>
@@ -178,6 +214,24 @@
   </si>
   <si>
     <t>TRIAL</t>
+  </si>
+  <si>
+    <t>$Edit Nama API</t>
+  </si>
+  <si>
+    <t>BAGAIMANA</t>
+  </si>
+  <si>
+    <t>DEMI</t>
+  </si>
+  <si>
+    <t>KENAPA</t>
+  </si>
+  <si>
+    <t>$Edit Status API</t>
+  </si>
+  <si>
+    <t>INACTIVE</t>
   </si>
 </sst>
 </file>
@@ -186,9 +240,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -201,6 +255,112 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -215,120 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +389,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -365,197 +419,212 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,15 +639,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +674,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,131 +752,131 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -815,7 +884,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,21 +1207,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
     <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="22.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="28.4545454545455" customWidth="1"/>
     <col min="4" max="4" width="21.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="21.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1157,128 +1230,230 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS(Register!A8:A21,"*$*",Register!B8:B21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS(Register!A8:A21,"*$*",Register!C8:C21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS(Register!A8:A21,"*$*",Register!D8:D21,"")</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS(Register!A8:A21,"*$*",Register!E8:E21,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f>IF(ISBLANK(Register!C8:C11),1,)</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>IF(ISBLANK(Register!D8:D11),1,)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:1">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7">
+        <v>999999</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C14:E14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1288,14 +1463,14 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="27.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="29.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.5454545454545" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1303,159 +1478,156 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
+        <f>COUNTIFS(A8:A20,"*$*",B8:B20,"")</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS(B8:B20,"*$*",C8:C20,"")</f>
         <v>0</v>
       </c>
-      <c r="C4">
-        <f>IF(ISBLANK(Register!C8:C11),1,)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B16" s="4">
         <v>123456789012</v>
       </c>
-      <c r="C16" s="4">
-        <v>123456789000</v>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1467,22 +1639,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="23.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="22.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="21.0909090909091" customWidth="1"/>
-    <col min="5" max="6" width="23" customWidth="1"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="23" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1492,85 +1664,126 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",D8:D20,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <f>COUNTIFS(Register!A8:A20,"*$*",Register!B8:B20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f>IF(ISBLANK(Register!C8:C11),1,)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070"/>
+    <workbookView windowWidth="18530" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>Status</t>
   </si>
@@ -198,7 +198,7 @@
     <t>$Nama API KEY</t>
   </si>
   <si>
-    <t>SEKUYGEMING</t>
+    <t>BOLEHHH</t>
   </si>
   <si>
     <t>PACARKU_?</t>
@@ -210,16 +210,16 @@
     <t>$Tipe API KEY</t>
   </si>
   <si>
+    <t>TRIAL</t>
+  </si>
+  <si>
     <t>PRODUCTION</t>
   </si>
   <si>
-    <t>TRIAL</t>
-  </si>
-  <si>
     <t>$Edit Nama API</t>
   </si>
   <si>
-    <t>BAGAIMANA</t>
+    <t>YAUDAHHH</t>
   </si>
   <si>
     <t>DEMI</t>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>INACTIVE</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
   </si>
 </sst>
 </file>
@@ -240,8 +243,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -260,6 +263,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -268,83 +355,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,17 +371,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,7 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -419,49 +422,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,133 +578,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,6 +627,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,53 +698,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,18 +719,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,130 +749,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,17 +1212,17 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="28.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="21.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="21.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="20.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.9090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1641,17 +1644,17 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="23.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="22.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="21.0909090909091" customWidth="1"/>
+    <col min="5" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1755,7 +1758,7 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1780,7 +1783,7 @@
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
         <v>71</v>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t>Status</t>
   </si>
@@ -195,10 +195,33 @@
     <t>Indonesia +62</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Done well</t>
+  </si>
+  <si>
+    <t>;FailedStoreDB;FailedStoreDB</t>
+  </si>
+  <si>
+    <t>Sukses 100%</t>
+  </si>
+  <si>
+    <t>Controller berhasil</t>
+  </si>
+  <si>
+    <t>Add gagal production 
+sudah aktif</t>
+  </si>
+  <si>
+    <t>Add gagal karena trial 
+sudah aktif</t>
+  </si>
+  <si>
     <t>$Nama API KEY</t>
   </si>
   <si>
-    <t>BOLEHHH</t>
+    <t>ITSTIME</t>
   </si>
   <si>
     <t>PACARKU_?</t>
@@ -207,6 +230,9 @@
     <t>SIUUU</t>
   </si>
   <si>
+    <t>WINWIN</t>
+  </si>
+  <si>
     <t>$Tipe API KEY</t>
   </si>
   <si>
@@ -219,13 +245,16 @@
     <t>$Edit Nama API</t>
   </si>
   <si>
-    <t>YAUDAHHH</t>
+    <t>KURENGGG</t>
   </si>
   <si>
     <t>DEMI</t>
   </si>
   <si>
-    <t>KENAPA</t>
+    <t>RUNNN</t>
+  </si>
+  <si>
+    <t>HOTDAMN</t>
   </si>
   <si>
     <t>$Edit Status API</t>
@@ -235,6 +264,27 @@
   </si>
   <si>
     <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>SearchTipeAPI</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>SearchStatusAPI</t>
+  </si>
+  <si>
+    <t>TC Add &amp; Edit Controller</t>
+  </si>
+  <si>
+    <t>Add API KEY?(Yes/No)</t>
+  </si>
+  <si>
+    <t>Edit API KEY?(Yes/No)</t>
+  </si>
+  <si>
+    <t>Copy API Link?(Yes/No)</t>
   </si>
 </sst>
 </file>
@@ -242,10 +292,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -260,6 +310,59 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,52 +382,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -340,21 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -363,6 +405,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -371,20 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -399,13 +456,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -422,31 +472,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,151 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,26 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -662,6 +692,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +722,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -692,6 +742,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,27 +778,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,136 +799,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1274,7 +1327,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1344,111 +1397,111 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>999999</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>1</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1514,7 +1567,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1533,10 +1586,10 @@
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1544,7 +1597,7 @@
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1552,7 +1605,7 @@
       <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1560,10 +1613,10 @@
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1571,10 +1624,10 @@
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1582,10 +1635,10 @@
       <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1604,10 +1657,10 @@
       <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>123456789012</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1615,10 +1668,10 @@
       <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1626,10 +1679,10 @@
       <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1642,10 +1695,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1653,57 +1706,88 @@
     <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="23.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="22.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="21.0909090909091" customWidth="1"/>
-    <col min="5" max="6" width="23" customWidth="1"/>
+    <col min="4" max="5" width="27.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f>COUNTIFS($A$8:$A$22,"*$*",B8:B22,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f>COUNTIFS($A$8:$A$22,"*$*",C8:C22,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",D8:D20,"")</f>
+        <f>COUNTIFS($A$8:$A$22,"*$*",D8:D22,"")</f>
         <v>0</v>
       </c>
+      <c r="E4">
+        <f>COUNTIFS($A$8:$A$22,"*$*",E8:E22,"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1714,6 +1798,9 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1721,72 +1808,176 @@
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:5">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
-        <v>71</v>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:5">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="7070" windowWidth="18530"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit Profile" sheetId="2" r:id="rId2"/>
-    <sheet name="API KEY" sheetId="3" r:id="rId3"/>
+    <sheet name="Register" r:id="rId1" sheetId="1"/>
+    <sheet name="Edit Profile" r:id="rId2" sheetId="2"/>
+    <sheet name="API KEY" r:id="rId3" sheetId="3"/>
+    <sheet name="Documentation" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="116">
   <si>
     <t>Status</t>
   </si>
@@ -201,7 +202,13 @@
     <t>Done well</t>
   </si>
   <si>
-    <t>;FailedStoreDB;FailedStoreDB</t>
+    <t>FailedStoreDB</t>
+  </si>
+  <si>
+    <t>Mandatory is incomplete</t>
+  </si>
+  <si>
+    <t>Submit Gagal</t>
   </si>
   <si>
     <t>Sukses 100%</t>
@@ -210,14 +217,38 @@
     <t>Controller berhasil</t>
   </si>
   <si>
-    <t>Add gagal production 
+    <t>Add Failed production 
 sudah aktif</t>
   </si>
   <si>
-    <t>Add gagal karena trial 
+    <t>Add Failed karena trial 
 sudah aktif</t>
   </si>
   <si>
+    <t>Gagal login, 
+username tidak diisi</t>
+  </si>
+  <si>
+    <t>Gagal login,
+password tidak diisi</t>
+  </si>
+  <si>
+    <t>Gagal edit,
+trial sudah aktif</t>
+  </si>
+  <si>
+    <t>Gagal edit,
+production sudah aktif</t>
+  </si>
+  <si>
+    <t>Gagal edit,
+nama api tidak di input</t>
+  </si>
+  <si>
+    <t>Sukses,
+tanpa ada controller yang berjalan</t>
+  </si>
+  <si>
     <t>$Nama API KEY</t>
   </si>
   <si>
@@ -233,6 +264,12 @@
     <t>WINWIN</t>
   </si>
   <si>
+    <t>KARUNYA</t>
+  </si>
+  <si>
+    <t>WATDE</t>
+  </si>
+  <si>
     <t>$Tipe API KEY</t>
   </si>
   <si>
@@ -257,6 +294,18 @@
     <t>HOTDAMN</t>
   </si>
   <si>
+    <t>KIYAT</t>
+  </si>
+  <si>
+    <t>WHATT</t>
+  </si>
+  <si>
+    <t>TERSERAHHH</t>
+  </si>
+  <si>
+    <t>DEBEST</t>
+  </si>
+  <si>
     <t>$Edit Status API</t>
   </si>
   <si>
@@ -285,6 +334,45 @@
   </si>
   <si>
     <t>Copy API Link?(Yes/No)</t>
+  </si>
+  <si>
+    <t>Download Documentation?</t>
+  </si>
+  <si>
+    <t>Documentation API</t>
+  </si>
+  <si>
+    <t>Download File</t>
+  </si>
+  <si>
+    <t>OCR BPKB</t>
+  </si>
+  <si>
+    <t>OCR REK KORAN MANDIRI</t>
+  </si>
+  <si>
+    <t>LIVENESS + FACECOMPARE</t>
+  </si>
+  <si>
+    <t>OCR KK</t>
+  </si>
+  <si>
+    <t>OCR REK KORAN BCA</t>
+  </si>
+  <si>
+    <t>OCR STNK</t>
+  </si>
+  <si>
+    <t>FACECOMPARE</t>
+  </si>
+  <si>
+    <t>OCR KTP</t>
+  </si>
+  <si>
+    <t>OCR NPWP</t>
+  </si>
+  <si>
+    <t>Delete File ?(Yes/No)</t>
   </si>
 </sst>
 </file>
@@ -292,12 +380,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,15 +402,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,18 +435,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,42 +466,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,15 +481,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +513,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -451,7 +537,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,25 +566,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,151 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,17 +786,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,17 +832,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,225 +863,235 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="17" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="27" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="27" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
+    <cellStyle builtinId="10" name="Note" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1010,10 +1105,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1177,21 +1272,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1208,7 +1303,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1261,21 +1356,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.4545454545455" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.0909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.9090909090909" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1326,8 +1421,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row customFormat="1" r="7" s="1" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1396,127 +1491,127 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:1">
-      <c r="A12" s="3" t="s">
+    <row customFormat="1" r="12" s="1" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>999999</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="11">
         <v>2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>2</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:1">
-      <c r="A17" s="3" t="s">
+    <row customFormat="1" r="17" s="1" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="B18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C14:E14" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C14:E14"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1524,9 +1619,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.3636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.5454545454545" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1566,8 +1661,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row customFormat="1" r="7" s="1" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1586,10 +1681,10 @@
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1597,7 +1692,7 @@
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1605,7 +1700,7 @@
       <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1613,10 +1708,10 @@
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1624,10 +1719,10 @@
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1635,10 +1730,10 @@
       <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1657,10 +1752,10 @@
       <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>123456789012</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1668,10 +1763,10 @@
       <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1679,38 +1774,42 @@
       <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="23.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="22.7272727272727" customWidth="1"/>
-    <col min="4" max="5" width="27.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.1818181818182" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="27.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.8181818181818" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="20.8181818181818" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="40.6363636363636" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="31.8181818181818" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1726,8 +1825,26 @@
       <c r="E1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1743,25 +1860,61 @@
       <c r="E2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" ht="29" spans="1:5">
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row ht="29" r="3" spans="1:11">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1781,13 +1934,37 @@
         <f>COUNTIFS($A$8:$A$22,"*$*",E8:E22,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="F4">
+        <f>COUNTIFS($A$8:$A$22,"*$*",F8:F22,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIFS($A$8:$A$22,"*$*",G8:G22,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIFS($A$8:$A$22,"*$*",H8:H22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS($A$8:$A$22,"*$*",I8:I22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIFS($A$8:$A$22,"*$*",J8:J22,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS($A$8:$A$22,"*$*",K8:K22,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1803,185 +1980,649 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:5">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row customFormat="1" r="14" spans="1:11">
       <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
         <v>82</v>
       </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
       <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
         <v>83</v>
       </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
       <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:5">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" s="1" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
+        <v>101</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
+        <v>102</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row customFormat="1" r="20" s="3" spans="1:11">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B21:K21" type="list">
+      <formula1>"OCR BPKB,OCR REK KORAN MANDIRI,LIVENESS + FACECOMPARE,OCR KK,
+OCR REK KORAN BCA
+,OCR STNK,
+FACECOMPARE,
+OCR KTP
+,
+OCR NPWP,LIVENESS
+"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.7272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.3636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.7272727272727" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="20.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS(Register!A8:A21,"*$*",Register!B8:B21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS(Register!B8:B21,"*$*",Register!C8:C21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS(Register!C8:C21,"*$*",Register!D8:D21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS(Register!D8:D21,"*$*",Register!E8:E21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIFS(Register!E8:E21,"*$*",Register!F8:F21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIFS(Register!F8:F21,"*$*",Register!G8:G21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIFS(Register!G8:G21,"*$*",Register!H8:H21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS(Register!H8:H21,"*$*",Register!I8:I21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIFS(Register!I8:I21,"*$*",Register!J8:J21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS(Register!J8:J21,"*$*",Register!K8:K21,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8:L8" type="list">
+      <formula1>"OCR BPKB,OCR REK KORAN MANDIRI,LIVENESS + FACECOMPARE,OCR KK,OCR REK KORAN BCA,OCR STNK,FACECOMPARE,OCR KTP,OCR NPWP,LIVENESS"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="117">
   <si>
     <t>Status</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>Delete File ?(Yes/No)</t>
+  </si>
+  <si>
+    <t>Berhasil Save tapi mandatory tidak lengkap</t>
   </si>
 </sst>
 </file>
@@ -414,75 +417,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -497,11 +433,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,16 +494,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +540,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,7 +548,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,37 +575,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,139 +719,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,17 +778,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,11 +802,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,19 +835,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,16 +867,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="5" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
@@ -893,130 +896,130 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="17" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="5" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="14" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="7" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="7" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="27" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="27" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="8" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1792,8 +1795,8 @@
   <sheetPr/>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1873,7 +1876,7 @@
         <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="K2" t="s">
         <v>60</v>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -13,21 +13,32 @@
     <sheet name="Dokumentasi API" sheetId="4" r:id="rId4"/>
     <sheet name="OCR KTP" sheetId="5" r:id="rId5"/>
     <sheet name="OCR KK" sheetId="6" r:id="rId6"/>
+    <sheet name="OCR STNK" sheetId="7" r:id="rId7"/>
+    <sheet name="OCR BPKB" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="204">
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Unexecuted</t>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
   <si>
     <t>Reason failed</t>
+  </si>
+  <si>
+    <t>Berhasil Save tapi mandatory tidak lengkap</t>
+  </si>
+  <si>
+    <t>Submit Gagal</t>
   </si>
   <si>
     <t>Objective</t>
@@ -47,8 +58,10 @@
 tidak input OTP</t>
   </si>
   <si>
-    <t>Gagal registrasi,
-input otp salah</t>
+    <t>Berhasil Registrasi, karena mandatory pada kolom D sudah dipenuhi</t>
+  </si>
+  <si>
+    <t>Gagal registrasi, salah input OTP</t>
   </si>
   <si>
     <t>Mandatory Complete</t>
@@ -60,10 +73,10 @@
     <t>$Email registrasi</t>
   </si>
   <si>
-    <t>SUNDAWAR@GM.COM</t>
-  </si>
-  <si>
-    <t>APAPUNLAH@GG.COM</t>
+    <t>ENTAHLAH@GM.COM</t>
+  </si>
+  <si>
+    <t>TIMETORISE@GG.COM</t>
   </si>
   <si>
     <t>HEYYO@LIKEME.COM</t>
@@ -142,6 +155,9 @@
   </si>
   <si>
     <t>**autofill OTP jika tidak berarti akan diisi dari data ManualOTP</t>
+  </si>
+  <si>
+    <t>Unexecuted</t>
   </si>
   <si>
     <t>Error, mandatory tidak lengkap</t>
@@ -164,25 +180,22 @@
     <t>$Username Login</t>
   </si>
   <si>
-    <t>KVNEDGAR@ADIN.COM</t>
+    <t>SUNDAWAR@GM.COM</t>
   </si>
   <si>
     <t>$Password Login</t>
   </si>
   <si>
-    <t>Xavier123!</t>
-  </si>
-  <si>
     <t>$Nama Depan</t>
   </si>
   <si>
-    <t>KEPIN</t>
+    <t>SUNDA</t>
   </si>
   <si>
     <t>$Last Name</t>
   </si>
   <si>
-    <t>EDGAR</t>
+    <t>EMPIRE</t>
   </si>
   <si>
     <t>$Nama Tenant</t>
@@ -191,7 +204,13 @@
     <t>AD-INS</t>
   </si>
   <si>
-    <t>ADIN</t>
+    <t>QUIKSILVER</t>
+  </si>
+  <si>
+    <t>ADINS</t>
+  </si>
+  <si>
+    <t>ADINSS</t>
   </si>
   <si>
     <t>$Industry</t>
@@ -221,7 +240,7 @@
     <t>Nomor Telepon</t>
   </si>
   <si>
-    <t>Katakata</t>
+    <t>08176138723</t>
   </si>
   <si>
     <t>Jabatan</t>
@@ -239,34 +258,16 @@
     <t>Indonesia +62</t>
   </si>
   <si>
-    <t>Indonesia +63</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Failed</t>
+    <t>Pengubahan API KEY gagal karena sudah aktif</t>
   </si>
   <si>
     <t>Done well</t>
   </si>
   <si>
-    <t>;Submit Gagal;Submit Gagal</t>
-  </si>
-  <si>
-    <t>Submit Gagal</t>
-  </si>
-  <si>
-    <t>Pengubahan API KEY gagal karena sudah aktif</t>
-  </si>
-  <si>
-    <t>Data Saved tapi mandatory tidak lengkap</t>
-  </si>
-  <si>
     <t>Sukses 100%</t>
   </si>
   <si>
-    <t>Controller berhasil</t>
+    <t>Controller berhasil, dan edit error, key sudah aktif</t>
   </si>
   <si>
     <t>Add Failed production 
@@ -293,13 +294,19 @@
 tanpa ada controller yang berjalan</t>
   </si>
   <si>
+    <t>KVNEDGAR@ADIN.COM</t>
+  </si>
+  <si>
+    <t>Xavier123!</t>
+  </si>
+  <si>
     <t>$Nama API KEY</t>
   </si>
   <si>
     <t>ITSTIME</t>
   </si>
   <si>
-    <t>PACARKU_?</t>
+    <t>TOWIN</t>
   </si>
   <si>
     <t>SIUUU</t>
@@ -327,9 +334,6 @@
   </si>
   <si>
     <t>KURENGGG</t>
-  </si>
-  <si>
-    <t>DEMI</t>
   </si>
   <si>
     <t>RUNNN</t>
@@ -422,15 +426,6 @@
     <t>Delete File ?(Yes/No)</t>
   </si>
   <si>
-    <t>Error pada pemrosesan oleh API</t>
-  </si>
-  <si>
-    <t>Resolusi gambar terlalu besar/kecil</t>
-  </si>
-  <si>
-    <t>Image terlalu blur</t>
-  </si>
-  <si>
     <t>Eksekusi berhasil, karena KTP valid 
 dan parameter terpenuhi</t>
   </si>
@@ -460,43 +455,88 @@
     <t>$IMG</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/KTPWorks1.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTPWorks2.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTPmightwork1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTPrestoobig1.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTPrestoobig2.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTPrestoosmall1.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTPrestoosmall2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTPblurlevel1.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTPblurlevel2.png</t>
-  </si>
-  <si>
-    <t>;Image is noisy;</t>
-  </si>
-  <si>
-    <t>;Image is out of focus/blurry; Image is unreadable;  Image is noisy;</t>
-  </si>
-  <si>
-    <t>;Image is unreadable;  Image is noisy;</t>
-  </si>
-  <si>
-    <t>;Image is unreadable;</t>
+    <t>Object Repository/ImageFolder/KTP/KTPWorks1.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KTP/KTPWorks2.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KTP/KTPmightwork1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KTP/KTPrestoobig1.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KTP/KTPrestoobig2.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KTP/KTPrestoosmall1.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KTP/KTPrestoosmall2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KTP/KTPblurlevel1.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KTP/KTPblurlevel2.png</t>
+  </si>
+  <si>
+    <t>$SearchTipeSaldo</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>$SearchTipeTransaksi</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>$UsernameLogin</t>
+  </si>
+  <si>
+    <t>$PasswordLogin</t>
+  </si>
+  <si>
+    <t>Controller Key</t>
+  </si>
+  <si>
+    <t>UseCorrectKey?(Yes/No)</t>
+  </si>
+  <si>
+    <t>Wrong Key</t>
+  </si>
+  <si>
+    <t>nq3eqt46-nirr-je55-3naa-fwqubmnrpukw</t>
+  </si>
+  <si>
+    <t>earczdnd-jmcm-jue6-9b5d-6hxz6gzm73qr</t>
+  </si>
+  <si>
+    <t>v2aupi2p-n2vr-99ft-rypz-gfk3-3yxdejx76mc9</t>
+  </si>
+  <si>
+    <t>ymhadic5-i8g7-kn3c-cztz-emk6ukyngarg</t>
+  </si>
+  <si>
+    <t>qxpwdpct-byx3-weic-7fg7-3kpdpjc4z28z</t>
+  </si>
+  <si>
+    <t>fem66t9h-r4ji-62n6-yv3v-vejk32jh4524</t>
+  </si>
+  <si>
+    <t>5895e8wk-kyft-7533-bha7-mztzxrcyfd6t</t>
+  </si>
+  <si>
+    <t>na6mutmd-hk7c-diux-3naa-wjt8dcyn5bw6</t>
+  </si>
+  <si>
+    <t>hxycaczn-ybfe-mmd9-9b5d-pwj6kibgacny</t>
+  </si>
+  <si>
+    <t>Unexecited</t>
   </si>
   <si>
     <t>Eksekusi berhasil, tapi data yang dibaca tidak akan punya confidence level tinggi</t>
@@ -527,34 +567,88 @@
     <t>Eksekusi akan tetap berhasil, karena rotasi seharusnya tidak berpengaruh</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/KKWorks1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KKamatir.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KKamatir2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KKblackwhite.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KKblackwhiterotated.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KKblurlevel1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KKblurlevel2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KKburiq1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KKreverse1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KKupsidedown1.jpg</t>
+    <t>Object Repository/ImageFolder/KK/KKWorks1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKamatir.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKamatir2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKblackwhite.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKblackwhiterotated.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKblurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKblurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKburiq1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKreverse1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKupsidedown1.jpg</t>
+  </si>
+  <si>
+    <t>hxycaczn-ybfe-mmd9-9b5d-pwj7kibgacny</t>
+  </si>
+  <si>
+    <t>;Unexpected Error</t>
+  </si>
+  <si>
+    <t>;Image is too dark; Image is out of focus/blurry;  Image is noisy; Image is unreadable;</t>
+  </si>
+  <si>
+    <t>;Invalid API key or tenant code</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKWorks1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKberkerut.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKblurlevel1.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKblurlevel2.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKfotoasal.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKfotoasal2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKpajakonly.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKpajakonly2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKrestoobig.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKrestoolow.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKsampulplastik.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKtemplate.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKtemplate2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/STNK/STNKberbayang.png</t>
   </si>
 </sst>
 </file>
@@ -562,10 +656,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -589,92 +683,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,29 +699,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,7 +731,97 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +842,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,175 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,16 +1055,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,6 +1090,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1001,30 +1110,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,6 +1131,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1057,152 +1151,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1210,21 +1304,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1544,22 +1634,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="30.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="28.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="23.5454545454545" customWidth="1"/>
-    <col min="5" max="6" width="21.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="20.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="21.9090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1570,281 +1660,325 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" ht="29" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:7">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f t="shared" ref="B4:G4" si="0">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",D8:D20,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",E8:E20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",F8:F20,"")</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="11">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8">
         <v>999999</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="12" t="s">
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="13">
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="13">
+      <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="13">
-        <v>2</v>
+      <c r="G16" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C14:F14" numberStoredAsText="1"/>
+    <ignoredError sqref="F14:G14 C14:D14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1854,16 +1988,16 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="37.3636363636364" customWidth="1"/>
-    <col min="3" max="4" width="29.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="29.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="40.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.4545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1871,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1880,34 +2014,37 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="29" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
@@ -1923,198 +2060,198 @@
       </c>
       <c r="E4">
         <f>COUNTIFS($A$8:$A$20,"*$*",E8:E20,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="8">
+        <v>70</v>
+      </c>
+      <c r="B16" s="5">
         <v>123456789012</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="5">
         <v>123456788012</v>
       </c>
-      <c r="E16" s="8">
-        <v>123456788013</v>
+      <c r="E16" s="5">
+        <v>123456788012</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C16" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2123,22 +2260,22 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="23.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="5" width="27.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="23.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="42.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="40.6363636363636" customWidth="1"/>
-    <col min="9" max="9" width="29.1818181818182" customWidth="1"/>
-    <col min="10" max="10" width="40.6363636363636" customWidth="1"/>
-    <col min="11" max="11" width="31.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="26.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="27.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="40.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.8181818181818" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2146,67 +2283,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:9">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
       </c>
       <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
         <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" ht="29" spans="1:9">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2230,394 +2367,394 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS($A$8:$A$22,"*$*",B8:B22,"")</f>
+        <f t="shared" ref="B4:I4" si="0">COUNTIFS($A$8:$A$22,"*$*",B8:B22,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>COUNTIFS($A$8:$A$22,"*$*",C8:C22,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>COUNTIFS($A$8:$A$22,"*$*",D8:D22,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>COUNTIFS($A$8:$A$22,"*$*",E8:E22,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIFS($A$8:$A$22,"*$*",F8:F22,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>COUNTIFS($A$8:$A$22,"*$*",G8:G22,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>COUNTIFS($A$8:$A$22,"*$*",H8:H22,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I4">
-        <f>COUNTIFS($A$8:$A$22,"*$*",I8:I22,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
         <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
         <v>106</v>
       </c>
-      <c r="G13" t="s">
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
         <v>106</v>
       </c>
-      <c r="H13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H15" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:9">
-      <c r="A14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:9">
-      <c r="A15" t="s">
+      <c r="I15" t="s">
         <v>109</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>30</v>
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>30</v>
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="1:9">
-      <c r="A20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2644,21 +2781,21 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="11.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="24.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="25.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="11.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="11.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="14.7272727272727" customWidth="1"/>
-    <col min="9" max="10" width="11.6363636363636" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="11.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2666,100 +2803,97 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:11">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <f>COUNTIFS($A$8:$A$22,"*$*",B8:B22,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:K4" si="0">COUNTIFS($A$8:$A$22,"*$*",C8:C22,"")</f>
+        <f t="shared" ref="C4:I4" si="0">COUNTIFS($A$8:$A$22,"*$*",C8:C22,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
@@ -2789,65 +2923,65 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2864,17 +2998,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="49.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="3" width="45.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="52.8181818181818" customWidth="1"/>
+    <col min="5" max="10" width="49.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2882,173 +3017,346 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="29" spans="1:10">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",D8:D20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",E8:E20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",F8:F20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",G8:G20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",H8:H20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",I8:I20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",J8:J20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
         <v>140</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>141</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>142</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>143</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>144</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>145</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>146</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>147</v>
       </c>
-      <c r="I8" t="s">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>148</v>
       </c>
-      <c r="J8" t="s">
+      <c r="B9" t="s">
         <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3060,16 +3368,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
-    <col min="2" max="5" width="45.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
+    <col min="3" max="5" width="45.1818181818182" customWidth="1"/>
     <col min="6" max="6" width="49.8181818181818" customWidth="1"/>
     <col min="7" max="9" width="45.1818181818182" customWidth="1"/>
     <col min="10" max="10" width="42.3636363636364" customWidth="1"/>
@@ -3081,109 +3390,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="29" spans="1:11">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
@@ -3223,47 +3502,1084 @@
       </c>
       <c r="K4">
         <f>COUNTIFS($A$8:$A$20,"*$*",K8:K20,"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" t="s">
         <v>163</v>
       </c>
-      <c r="C8" t="s">
+      <c r="I15" t="s">
         <v>164</v>
       </c>
-      <c r="D8" t="s">
+      <c r="J15" t="s">
         <v>165</v>
       </c>
-      <c r="E8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" t="s">
-        <v>172</v>
+      <c r="K15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="A11:O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="10" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="40.2727272727273" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",K8:K20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",L8:L20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",M8:M20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",N8:N20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",O8:O20,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" ht="43.5" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" t="s">
+        <v>151</v>
+      </c>
+      <c r="M10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.7272727272727" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:10">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="2" activeTab="5"/>
+    <workbookView activeTab="5" firstSheet="2" windowHeight="7070" windowWidth="18530"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit Profile" sheetId="2" r:id="rId2"/>
-    <sheet name="API KEY" sheetId="3" r:id="rId3"/>
-    <sheet name="Dokumentasi API" sheetId="4" r:id="rId4"/>
-    <sheet name="OCR KTP" sheetId="5" r:id="rId5"/>
-    <sheet name="OCR KK" sheetId="6" r:id="rId6"/>
-    <sheet name="OCR STNK" sheetId="7" r:id="rId7"/>
-    <sheet name="OCR BPKB" sheetId="8" r:id="rId8"/>
+    <sheet name="Register" r:id="rId1" sheetId="1"/>
+    <sheet name="Edit Profile" r:id="rId2" sheetId="2"/>
+    <sheet name="API KEY" r:id="rId3" sheetId="3"/>
+    <sheet name="Dokumentasi API" r:id="rId4" sheetId="4"/>
+    <sheet name="OCR KTP" r:id="rId5" sheetId="5"/>
+    <sheet name="OCR KK" r:id="rId6" sheetId="6"/>
+    <sheet name="OCR STNK" r:id="rId7" sheetId="7"/>
+    <sheet name="OCR BPKB" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="211">
   <si>
     <t>Status</t>
   </si>
@@ -539,6 +539,10 @@
     <t>Unexecited</t>
   </si>
   <si>
+    <t>Eksekusi berhasil, karena KK valid 
+dan parameter terpenuhi</t>
+  </si>
+  <si>
     <t>Eksekusi berhasil, tapi data yang dibaca tidak akan punya confidence level tinggi</t>
   </si>
   <si>
@@ -552,6 +556,9 @@
 kecil tidak berpengaruh</t>
   </si>
   <si>
+    <t>Eksekusi akan tetap berhasil, karena rotasi seharusnya tidak berpengaruh</t>
+  </si>
+  <si>
     <t>Punya 50% tingkat eksekusi berhasil karena gambar tidak tajam</t>
   </si>
   <si>
@@ -561,10 +568,13 @@
     <t>Gambar tidak bisa dibaca oleh robot karena gambar terlalu pecah</t>
   </si>
   <si>
-    <t>KK tida terbaca karena semua teks dalam keadaan terbalik/mirror</t>
-  </si>
-  <si>
-    <t>Eksekusi akan tetap berhasil, karena rotasi seharusnya tidak berpengaruh</t>
+    <t>KK tidak terbaca karena semua teks dalam keadaan terbalik/mirror</t>
+  </si>
+  <si>
+    <t>Eksekusi gagal, karena resolusi dan ukuran file terlalu besar</t>
+  </si>
+  <si>
+    <t>Eksekusi gagal, karena resolusi terlalu rendah</t>
   </si>
   <si>
     <t>Object Repository/ImageFolder/KK/KKWorks1.jpg</t>
@@ -582,6 +592,9 @@
     <t>Object Repository/ImageFolder/KK/KKblackwhiterotated.jpg</t>
   </si>
   <si>
+    <t>Object Repository/ImageFolder/KK/KKupsidedown1.jpg</t>
+  </si>
+  <si>
     <t>Object Repository/ImageFolder/KK/KKblurlevel1.jpg</t>
   </si>
   <si>
@@ -594,7 +607,16 @@
     <t>Object Repository/ImageFolder/KK/KKreverse1.jpg</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/KK/KKupsidedown1.jpg</t>
+    <t>Object Repository/ImageFolder/KK/KKrestoobig1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKrestoobig2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKrestoosmall1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/KK/KKrestoosmall2.jpg</t>
   </si>
   <si>
     <t>hxycaczn-ybfe-mmd9-9b5d-pwj7kibgacny</t>
@@ -656,10 +678,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -690,16 +712,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,6 +735,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -723,9 +753,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,15 +776,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,11 +805,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,15 +819,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,13 +864,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,13 +888,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,43 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +942,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,19 +978,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,25 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,13 +1032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,13 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,15 +1073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1071,6 +1084,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,15 +1121,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1110,6 +1132,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,15 +1162,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1150,224 +1172,224 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="10" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="11" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="26" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="7" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="7" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
+    <cellStyle builtinId="10" name="Note" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1381,10 +1403,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1548,21 +1570,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1579,7 +1601,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1632,9 +1654,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
@@ -1642,11 +1664,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="21.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.8181818181818" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.4545454545455" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.5454545454545" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" width="21.9090909090909" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1688,7 +1710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:7">
+    <row ht="43.5" r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1716,31 +1738,31 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:G4" si="0">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f ref="B4:G4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1834,7 +1856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="12" s="1" spans="1:1">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1929,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="17" s="1" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1974,19 +1996,19 @@
       <c r="C21" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F14:G14 C14:D14" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C14:D14 F14:G14"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -1994,10 +2016,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="40.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.3636363636364" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="40.6363636363636" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.4545454545455" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2025,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:5">
+    <row ht="29" r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2063,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -2247,18 +2269,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C16" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C16"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B9"/>
@@ -2266,16 +2288,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="27.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="40.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.1818181818182" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="27.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7272727272727" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.6363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.1818181818182" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="40.6363636363636" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="31.8181818181818" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2307,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:9">
+    <row ht="29" r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2336,7 +2358,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:9">
+    <row ht="29" r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2370,39 +2392,39 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:I4" si="0">COUNTIFS($A$8:$A$22,"*$*",B8:B22,"")</f>
+        <f ref="B4:I4" si="0" t="shared">COUNTIFS($A$8:$A$22,"*$*",B8:B22,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2636,7 +2658,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="16" s="1" spans="1:1">
       <c r="A16" s="3" t="s">
         <v>111</v>
       </c>
@@ -2759,7 +2781,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:K21">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B21:K21" type="list">
       <formula1>"OCR BPKB,OCR REK KORAN MANDIRI,LIVENESS + FACECOMPARE,OCR KK,
 OCR REK KORAN BCA
 ,OCR STNK,
@@ -2770,15 +2792,15 @@
 "</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -2786,16 +2808,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="11.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.7272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.3636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.7272727272727" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2853,7 +2875,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:11">
+    <row ht="43.5" r="3" spans="1:11">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2893,35 +2915,35 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:I4" si="0">COUNTIFS($A$8:$A$22,"*$*",C8:C22,"")</f>
+        <f ref="C4:I4" si="0" t="shared">COUNTIFS($A$8:$A$22,"*$*",C8:C22,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
@@ -2986,19 +3008,19 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:L8">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8:L8" type="list">
       <formula1>"OCR BPKB,OCR REK KORAN MANDIRI,LIVENESS + FACECOMPARE,OCR KK,OCR REK KORAN BCA,OCR STNK,FACECOMPARE,OCR KTP,OCR NPWP,LIVENESS"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:J12"/>
@@ -3006,10 +3028,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="3" width="45.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="52.8181818181818" customWidth="1"/>
-    <col min="5" max="10" width="49.1818181818182" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="45.1818181818182" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="52.8181818181818" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" width="49.1818181818182" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3052,7 +3074,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:10">
+    <row ht="29" r="3" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3089,43 +3111,43 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f ref="B4:J4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
@@ -3290,7 +3312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="13" s="1" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>154</v>
       </c>
@@ -3360,37 +3382,39 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="45.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="49.8181818181818" customWidth="1"/>
-    <col min="7" max="9" width="45.1818181818182" customWidth="1"/>
-    <col min="10" max="10" width="42.3636363636364" customWidth="1"/>
-    <col min="11" max="11" width="48.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.3636363636364" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="45.1818181818182" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.8181818181818" collapsed="true"/>
+    <col min="7" max="10" customWidth="true" width="45.1818181818182" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="42.3636363636364" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="48.9090909090909" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="46.4545454545455" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="49.2727272727273" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>166</v>
@@ -3419,48 +3443,75 @@
       <c r="K1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="29" spans="1:11">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row ht="29" r="3" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>176</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3469,31 +3520,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:I4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f>COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$20,"*$*",D8:D20,"")</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$20,"*$*",E8:E20,"")</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$20,"*$*",F8:F20,"")</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$20,"*$*",G8:G20,"")</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$20,"*$*",H8:H20,"")</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$20,"*$*",I8:I20,"")</f>
         <v>0</v>
       </c>
       <c r="J4">
@@ -3502,55 +3553,83 @@
       </c>
       <c r="K4">
         <f>COUNTIFS($A$8:$A$20,"*$*",K8:K20,"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",L8:L20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",M8:M20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",N8:N20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",O8:O20,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>188</v>
+      </c>
+      <c r="L8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>149</v>
@@ -3579,8 +3658,20 @@
       <c r="K9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -3614,8 +3705,20 @@
       <c r="K10" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" t="s">
+        <v>151</v>
+      </c>
+      <c r="M10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -3646,8 +3749,23 @@
       <c r="J11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -3678,13 +3796,28 @@
       <c r="J12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customFormat="1" r="13" s="1" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -3707,19 +3840,31 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -3739,31 +3884,43 @@
         <v>161</v>
       </c>
       <c r="G15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" t="s">
         <v>162</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>163</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>164</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>165</v>
       </c>
-      <c r="K15" t="s">
-        <v>186</v>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="A11:O12"/>
@@ -3771,17 +3928,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="38.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="10" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="40.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.1818181818182" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.0909090909091" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="41.6363636363636" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.5454545454545" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.6363636363636" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.3636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.4545454545455" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="38.4545454545455" collapsed="true"/>
+    <col min="10" max="13" customWidth="true" width="39.1818181818182" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="40.2727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3839,43 +3996,43 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3906,35 +4063,35 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f ref="C4:J4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4">
@@ -3958,56 +4115,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" ht="43.5" spans="1:15">
+    <row ht="43.5" r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4198,7 +4355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="13" s="1" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>154</v>
       </c>
@@ -4282,7 +4439,7 @@
         <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s">
         <v>157</v>
@@ -4298,15 +4455,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -4314,16 +4471,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.5454545454545" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.8181818181818" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="34.2727272727273" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.3636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.0909090909091" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.1818181818182" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="36.5454545454545" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="35.7272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4363,7 +4520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:10">
+    <row ht="29" r="3" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4404,39 +4561,39 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f ref="C4:J4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
         <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
@@ -4513,7 +4670,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="13" s="1" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>154</v>
       </c>
@@ -4583,7 +4740,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="2" windowHeight="7070" windowWidth="18530"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" r:id="rId1" sheetId="1"/>
-    <sheet name="Edit Profile" r:id="rId2" sheetId="2"/>
-    <sheet name="API KEY" r:id="rId3" sheetId="3"/>
-    <sheet name="Dokumentasi API" r:id="rId4" sheetId="4"/>
-    <sheet name="OCR KTP" r:id="rId5" sheetId="5"/>
-    <sheet name="OCR KK" r:id="rId6" sheetId="6"/>
-    <sheet name="OCR STNK" r:id="rId7" sheetId="7"/>
-    <sheet name="OCR BPKB" r:id="rId8" sheetId="8"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
+    <sheet name="Edit Profile" sheetId="2" r:id="rId2"/>
+    <sheet name="API KEY" sheetId="3" r:id="rId3"/>
+    <sheet name="Dokumentasi API" sheetId="4" r:id="rId4"/>
+    <sheet name="OCR KTP" sheetId="5" r:id="rId5"/>
+    <sheet name="OCR KK" sheetId="6" r:id="rId6"/>
+    <sheet name="OCR STNK" sheetId="7" r:id="rId7"/>
+    <sheet name="OCR BPKB" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="212">
   <si>
     <t>Status</t>
   </si>
@@ -485,9 +485,6 @@
     <t>$SearchTipeSaldo</t>
   </si>
   <si>
-    <t>IDR</t>
-  </si>
-  <si>
     <t>$SearchTipeTransaksi</t>
   </si>
   <si>
@@ -537,6 +534,9 @@
   </si>
   <si>
     <t>Unexecited</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
   <si>
     <t>Eksekusi berhasil, karena KK valid 
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>Object Repository/ImageFolder/STNK/STNKberbayang.png</t>
+  </si>
+  <si>
+    <t>IDR</t>
   </si>
 </sst>
 </file>
@@ -678,10 +681,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -706,6 +709,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -713,7 +723,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,19 +768,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,45 +831,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,38 +844,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,19 +867,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,13 +891,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,31 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,43 +933,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,13 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +981,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,25 +1005,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,6 +1076,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1084,24 +1096,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,8 +1133,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,6 +1156,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1172,224 +1175,224 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="10" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="11" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="26" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="7" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="7" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
-    <cellStyle builtinId="10" name="Note" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1403,10 +1406,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1570,21 +1573,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1601,7 +1604,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1654,9 +1657,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
@@ -1664,11 +1667,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0909090909091" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.8181818181818" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.4545454545455" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.5454545454545" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="21.9090909090909" collapsed="true"/>
+    <col min="1" max="1" width="20.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="21.9090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1710,7 +1713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="43.5" r="3" spans="1:7">
+    <row r="3" ht="43.5" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1738,31 +1741,31 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f ref="B4:G4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f t="shared" ref="B4:G4" si="0">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:1">
+    <row r="12" s="1" customFormat="1" spans="1:1">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="1" spans="1:1">
+    <row r="17" s="1" customFormat="1" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1996,19 +1999,19 @@
       <c r="C21" s="6"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="C14:D14 F14:G14"/>
+    <ignoredError sqref="F14:G14 C14:D14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2016,10 +2019,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.3636363636364" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="40.6363636363636" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.4545454545455" collapsed="true"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="40.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.4545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2047,7 +2050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:5">
+    <row r="3" ht="29" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -2269,18 +2272,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="C16"/>
+    <ignoredError sqref="C16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B9"/>
@@ -2288,16 +2291,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.1818181818182" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.3636363636364" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="27.9090909090909" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.8181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7272727272727" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.6363636363636" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="29.1818181818182" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="40.6363636363636" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="31.8181818181818" collapsed="true"/>
+    <col min="1" max="1" width="26.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="27.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="40.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.8181818181818" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2329,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="29" r="2" spans="1:9">
+    <row r="2" ht="29" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>78</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:9">
+    <row r="3" ht="29" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2392,39 +2395,39 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f ref="B4:I4" si="0" t="shared">COUNTIFS($A$8:$A$22,"*$*",B8:B22,"")</f>
+        <f t="shared" ref="B4:I4" si="0">COUNTIFS($A$8:$A$22,"*$*",B8:B22,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I4">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:1">
+    <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="3" t="s">
         <v>111</v>
       </c>
@@ -2781,7 +2784,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B21:K21" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:K21">
       <formula1>"OCR BPKB,OCR REK KORAN MANDIRI,LIVENESS + FACECOMPARE,OCR KK,
 OCR REK KORAN BCA
 ,OCR STNK,
@@ -2792,15 +2795,15 @@
 "</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -2808,16 +2811,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.6363636363636" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.7272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.3636363636364" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.6363636363636" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6363636363636" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.7272727272727" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="11.6363636363636" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="11.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2875,7 +2878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row ht="43.5" r="3" spans="1:11">
+    <row r="3" ht="43.5" spans="1:11">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2915,35 +2918,35 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f ref="C4:I4" si="0" t="shared">COUNTIFS($A$8:$A$22,"*$*",C8:C22,"")</f>
+        <f t="shared" ref="C4:I4" si="0">COUNTIFS($A$8:$A$22,"*$*",C8:C22,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
@@ -3008,30 +3011,30 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8:L8" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:L8">
       <formula1>"OCR BPKB,OCR REK KORAN MANDIRI,LIVENESS + FACECOMPARE,OCR KK,OCR REK KORAN BCA,OCR STNK,FACECOMPARE,OCR KTP,OCR NPWP,LIVENESS"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="45.1818181818182" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="52.8181818181818" collapsed="true"/>
-    <col min="5" max="10" customWidth="true" width="49.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="45.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="52.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="5" max="10" width="49.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3074,7 +3077,7 @@
         <v>78</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:10">
+    <row r="3" ht="29" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3111,43 +3114,43 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f ref="B4:J4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
@@ -3189,68 +3192,68 @@
         <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -3282,7 +3285,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3312,14 +3315,14 @@
         <v>26</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:1">
+    <row r="13" s="1" customFormat="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3351,62 +3354,62 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>158</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>159</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>160</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>161</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>162</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>163</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>164</v>
       </c>
-      <c r="J15" t="s">
-        <v>165</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.3636363636364" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="45.1818181818182" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="49.8181818181818" collapsed="true"/>
-    <col min="7" max="10" customWidth="true" width="45.1818181818182" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="42.3636363636364" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="48.9090909090909" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="46.4545454545455" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="49.2727272727273" collapsed="true"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="45.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="45.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="42.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="48.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="46.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="49.2727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3414,34 +3417,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L1" t="s">
         <v>44</v>
@@ -3461,10 +3464,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row ht="29" r="3" spans="1:15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
@@ -3632,95 +3635,95 @@
         <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="M9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -3767,7 +3770,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3812,14 +3815,14 @@
         <v>26</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:1">
+    <row r="13" s="1" customFormat="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3866,79 +3869,79 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>158</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>159</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>160</v>
-      </c>
-      <c r="F15" t="s">
-        <v>161</v>
       </c>
       <c r="G15" t="s">
         <v>193</v>
       </c>
       <c r="H15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" t="s">
         <v>162</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>163</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>164</v>
       </c>
-      <c r="K15" t="s">
-        <v>165</v>
-      </c>
       <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="s">
         <v>157</v>
       </c>
-      <c r="M15" t="s">
-        <v>158</v>
-      </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="A11:O12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.1818181818182" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="42.0909090909091" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="41.6363636363636" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="37.5454545454545" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.6363636363636" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.3636363636364" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.4545454545455" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="38.4545454545455" collapsed="true"/>
-    <col min="10" max="13" customWidth="true" width="39.1818181818182" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="40.2727272727273" collapsed="true"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="37.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="42.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="41.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="38.4545454545455" customWidth="1"/>
+    <col min="10" max="13" width="39.1818181818182" customWidth="1"/>
+    <col min="14" max="15" width="40.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4063,35 +4066,35 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f ref="C4:J4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4">
@@ -4115,12 +4118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row ht="43.5" r="8" spans="1:15">
+    <row r="8" ht="43.5" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>138</v>
       </c>
@@ -4172,98 +4175,98 @@
         <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="M9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="O9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -4310,7 +4313,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -4355,14 +4358,14 @@
         <v>26</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:1">
+    <row r="13" s="1" customFormat="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -4409,61 +4412,61 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>158</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>159</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>160</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>161</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>162</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>163</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>164</v>
-      </c>
-      <c r="J15" t="s">
-        <v>165</v>
       </c>
       <c r="K15" t="s">
         <v>193</v>
       </c>
       <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="s">
         <v>157</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>158</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>159</v>
       </c>
-      <c r="O15" t="s">
-        <v>160</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -4471,16 +4474,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.5454545454545" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="35.8181818181818" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="34.2727272727273" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.3636363636364" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.0909090909091" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.1818181818182" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="36.5454545454545" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="35.7272727272727" collapsed="true"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.7272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4520,7 +4523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="29" r="3" spans="1:10">
+    <row r="3" ht="29" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4561,39 +4564,39 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f ref="C4:J4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
         <v>1</v>
       </c>
       <c r="D4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:1">
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
@@ -4611,73 +4614,73 @@
         <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" s="1" spans="1:1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -4709,38 +4712,38 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
         <v>156</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>158</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>159</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>160</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>161</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>162</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>163</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>164</v>
       </c>
-      <c r="J15" t="s">
-        <v>165</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="252">
   <si>
     <t>Status</t>
   </si>
@@ -426,6 +426,12 @@
     <t>Delete File ?(Yes/No)</t>
   </si>
   <si>
+    <t>;null</t>
+  </si>
+  <si>
+    <t>;Invalid API key or tenant code</t>
+  </si>
+  <si>
     <t>Eksekusi berhasil, karena KTP valid 
 dan parameter terpenuhi</t>
   </si>
@@ -449,6 +455,9 @@
     <t>KTP sangat blur, FAILED</t>
   </si>
   <si>
+    <t>Insufficient Balance</t>
+  </si>
+  <si>
     <t>OCR Parameter</t>
   </si>
   <si>
@@ -531,6 +540,48 @@
   </si>
   <si>
     <t>hxycaczn-ybfe-mmd9-9b5d-pwj6kibgacny</t>
+  </si>
+  <si>
+    <t>ParameterOptional</t>
+  </si>
+  <si>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>loginId</t>
+  </si>
+  <si>
+    <t>MALVIN</t>
+  </si>
+  <si>
+    <t>referenceNumber</t>
+  </si>
+  <si>
+    <t>REF00001</t>
+  </si>
+  <si>
+    <t>officeCode</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>officeName</t>
+  </si>
+  <si>
+    <t>HEAD_OFFICE</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>Registrasi User Pertama</t>
+  </si>
+  <si>
+    <t>Source(MOBILE/WEB)</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
   </si>
   <si>
     <t>Unexecited</t>
@@ -622,13 +673,73 @@
     <t>hxycaczn-ybfe-mmd9-9b5d-pwj7kibgacny</t>
   </si>
   <si>
+    <t>Parameter Optional</t>
+  </si>
+  <si>
+    <t>custNo</t>
+  </si>
+  <si>
+    <t>refocrKK</t>
+  </si>
+  <si>
+    <t>TL Check</t>
+  </si>
+  <si>
+    <t>;Image is too dark; Image is out of focus/blurry;  Image is noisy; Image is unreadable;</t>
+  </si>
+  <si>
+    <t>;Image is too dark;   Image is noisy; Image is unreadable;</t>
+  </si>
+  <si>
     <t>;Unexpected Error</t>
   </si>
   <si>
-    <t>;Image is too dark; Image is out of focus/blurry;  Image is noisy; Image is unreadable;</t>
-  </si>
-  <si>
-    <t>;Invalid API key or tenant code</t>
+    <t>;Image is unreadable;</t>
+  </si>
+  <si>
+    <t>;Image is noisy; Image is unreadable;</t>
+  </si>
+  <si>
+    <t>Invalid API Key or Tenant Code</t>
+  </si>
+  <si>
+    <t>Sukses, foto STNK memenuhi requirement</t>
+  </si>
+  <si>
+    <t>STNK terlipat lipat dan tidak terbaca, error/failed</t>
+  </si>
+  <si>
+    <t>Blurry yang tidak terlalu parah, maka error atau failed</t>
+  </si>
+  <si>
+    <t>Blur parah, error atau failed</t>
+  </si>
+  <si>
+    <t>Banyak STNK dalam foto, server bingung dan error</t>
+  </si>
+  <si>
+    <t>Foto lumayan jelas, tapi ada yang terpotong, 50% kemungkinan success</t>
+  </si>
+  <si>
+    <t>STNK yang difoto tidak bolak balik, error</t>
+  </si>
+  <si>
+    <t>Resolusi diatas maksimal kapabilitas server, Error atau null</t>
+  </si>
+  <si>
+    <t>Resolusi dibawah minimum requirement, Error</t>
+  </si>
+  <si>
+    <t>50% kemungkinan terbaca, karena ada bagian yang terpotong dan blurry, tapi bagian tengah terbaca</t>
+  </si>
+  <si>
+    <t>Error, karena gambar buram, resolusi kecil, dan banyak tulisan yang di sensor</t>
+  </si>
+  <si>
+    <t>Gambar punya 50% kemungkinan sukses, karena resolusi kecil tapi tulisan yang di bold</t>
+  </si>
+  <si>
+    <t>Invalid API Key karena key salah</t>
   </si>
   <si>
     <t>Object Repository/ImageFolder/STNK/STNKWorks1.jpg</t>
@@ -674,6 +785,15 @@
   </si>
   <si>
     <t>IDR</t>
+  </si>
+  <si>
+    <t>$halaman1</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB</t>
+  </si>
+  <si>
+    <t>$halaman2</t>
   </si>
 </sst>
 </file>
@@ -681,10 +801,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -723,37 +843,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -768,23 +857,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,10 +881,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,16 +928,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,6 +952,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,7 +987,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,19 +1077,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +1113,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,7 +1137,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,91 +1155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,31 +1167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,23 +1199,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,6 +1231,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,25 +1269,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,13 +1296,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,134 +1314,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1329,6 +1449,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1865,92 +1989,92 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <v>999999</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="9">
         <v>2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1960,22 +2084,22 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>34</v>
       </c>
       <c r="G18" t="s">
@@ -1983,8 +2107,8 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -1995,8 +2119,8 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2190,16 +2314,16 @@
       <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2224,16 +2348,16 @@
       <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>123456789012</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>123456788012</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>123456788012</v>
       </c>
     </row>
@@ -2258,16 +2382,16 @@
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3023,21 +3147,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:J9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="52.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="49.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="3" width="45.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="52.8181818181818" customWidth="1"/>
+    <col min="5" max="10" width="49.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="51.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3045,19 +3170,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>44</v>
@@ -3068,57 +3193,78 @@
       <c r="J1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" ht="29" spans="1:10">
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:11">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
@@ -3149,47 +3295,54 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",K8:K20,"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>128</v>
@@ -3218,42 +3371,48 @@
       <c r="J9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -3282,10 +3441,13 @@
       <c r="J11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3312,17 +3474,20 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3351,37 +3516,104 @@
       <c r="J14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3393,23 +3625,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:O9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="A17:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="42.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="48.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="46.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="49.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
+    <col min="3" max="5" width="45.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="49.8181818181818" customWidth="1"/>
+    <col min="7" max="10" width="45.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="42.3636363636364" customWidth="1"/>
+    <col min="12" max="12" width="48.9090909090909" customWidth="1"/>
+    <col min="13" max="13" width="46.4545454545455" customWidth="1"/>
+    <col min="14" max="15" width="49.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3420,31 +3652,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L1" t="s">
         <v>44</v>
@@ -3464,7 +3696,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" ht="29" spans="1:15">
@@ -3472,46 +3704,46 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3577,59 +3809,59 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K8" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L8" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M8" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="N8" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="O8" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -3676,54 +3908,54 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -3770,7 +4002,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3817,12 +4049,12 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3869,49 +4101,110 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
         <v>159</v>
       </c>
-      <c r="F15" t="s">
+      <c r="M15" t="s">
         <v>160</v>
       </c>
-      <c r="G15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K15" t="s">
-        <v>164</v>
-      </c>
-      <c r="L15" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" t="s">
-        <v>157</v>
-      </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3923,10 +4216,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:O9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3955,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -3999,63 +4292,91 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="N2" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="O2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -4120,153 +4441,153 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" ht="43.5" spans="1:15">
       <c r="A8" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="G9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="H9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="I9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="J9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="K9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="L9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="M9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="N9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="O9" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -4313,7 +4634,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -4360,12 +4681,12 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -4383,78 +4704,139 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
         <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" t="s">
         <v>159</v>
       </c>
-      <c r="F15" t="s">
+      <c r="M15" t="s">
         <v>160</v>
       </c>
-      <c r="G15" t="s">
+      <c r="N15" t="s">
         <v>161</v>
       </c>
-      <c r="H15" t="s">
+      <c r="O15" t="s">
         <v>162</v>
       </c>
-      <c r="I15" t="s">
-        <v>163</v>
-      </c>
-      <c r="J15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K15" t="s">
-        <v>193</v>
-      </c>
-      <c r="L15" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" t="s">
-        <v>157</v>
-      </c>
-      <c r="N15" t="s">
-        <v>158</v>
-      </c>
-      <c r="O15" t="s">
-        <v>159</v>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4466,24 +4848,24 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="49.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="35.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="34.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="34.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4528,31 +4910,31 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4560,186 +4942,306 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f>COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
-        <v>1</v>
+        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$21,"*$*",C8:C21,"")</f>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="I9" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="J9" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="J10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
-      <c r="A13" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>154</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>158</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B16" t="s">
         <v>159</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C16" t="s">
         <v>160</v>
       </c>
-      <c r="G15" t="s">
+      <c r="D16" t="s">
         <v>161</v>
       </c>
-      <c r="H15" t="s">
+      <c r="E16" t="s">
         <v>162</v>
       </c>
-      <c r="I15" t="s">
+      <c r="F16" t="s">
         <v>163</v>
       </c>
-      <c r="J15" t="s">
+      <c r="G16" t="s">
         <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="OCR KK" sheetId="6" r:id="rId6"/>
     <sheet name="OCR STNK" sheetId="7" r:id="rId7"/>
     <sheet name="OCR BPKB" sheetId="8" r:id="rId8"/>
+    <sheet name="OCR NPWP" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="322">
   <si>
     <t>Status</t>
   </si>
@@ -446,6 +447,9 @@
     <t>Ukuran resolusi KTP terlalu besar melebihi 1920x1080, failed</t>
   </si>
   <si>
+    <t>Penggunaan Key salah, error atau failed</t>
+  </si>
+  <si>
     <t>Ukuran resolusi KTP terlalu kecil kurang dari 960x720, failed</t>
   </si>
   <si>
@@ -551,7 +555,7 @@
     <t>loginId</t>
   </si>
   <si>
-    <t>MALVIN</t>
+    <t>Q</t>
   </si>
   <si>
     <t>referenceNumber</t>
@@ -628,6 +632,9 @@
     <t>Eksekusi gagal, karena resolusi terlalu rendah</t>
   </si>
   <si>
+    <t>Penggunaan key yang salah, error atau failed</t>
+  </si>
+  <si>
     <t>Object Repository/ImageFolder/KK/KKWorks1.jpg</t>
   </si>
   <si>
@@ -787,13 +794,217 @@
     <t>IDR</t>
   </si>
   <si>
+    <t>;Failed to extract data from BPKB Hal 2</t>
+  </si>
+  <si>
+    <t>;BPKB Hal 2 or 3 not found</t>
+  </si>
+  <si>
+    <t>;BPKB Hal 2 : Image resolution is below 480 x 360 or above 2560 x 1920 (Document Only).</t>
+  </si>
+  <si>
+    <t>;BPKB Hal 2 or 3 not found;BPKB Hal 2 or 3 not found</t>
+  </si>
+  <si>
+    <t>Success, karena bpkb halaman 2 dan 3 sesuai requirement</t>
+  </si>
+  <si>
+    <t>Gagal karena tingkat blur yang mengganggu proses OCR</t>
+  </si>
+  <si>
+    <t>Gagal, karena pada foto halaman2 terdapat STNK di dalamnya</t>
+  </si>
+  <si>
+    <t>Gagal, karena bpkb dalam foto ada dua</t>
+  </si>
+  <si>
+    <t>50% kemungkinan berhasil karena versi lama mungkin cocok dengan OCR terkini</t>
+  </si>
+  <si>
+    <t>50% berhasil karena foto terlalu silau terkena flash</t>
+  </si>
+  <si>
+    <t>Gagal karena salah satu halaman memilki resolusi sangat tinggi</t>
+  </si>
+  <si>
+    <t>Gagal, API Key salah</t>
+  </si>
+  <si>
+    <t>Gagal karena salah satu halaman memiliki resolusi terlalu rendah</t>
+  </si>
+  <si>
+    <t>Dengan dikirim 1 parameter saja seharusnya success</t>
+  </si>
+  <si>
+    <t>Dengan dikirim parameter halaman 3 saja, maka kemungkinan bisa success</t>
+  </si>
+  <si>
     <t>$halaman1</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/BPKB</t>
+    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_cahayaMinim.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_blurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_blurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_campurSTNK.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_double.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_old.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_old2.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_overexposure.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_restoohigh.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_restoolow.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_works.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/decoy.txt</t>
   </si>
   <si>
     <t>$halaman2</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_blurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_blurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_meetrequirement.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_oldVersion.png</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_shouldworks.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_agak buram.jpg</t>
+  </si>
+  <si>
+    <t>Customer No.</t>
+  </si>
+  <si>
+    <t>OfficeCode</t>
+  </si>
+  <si>
+    <t>OfficeName</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>BPKB Hal 2 dan 3 (9)</t>
+  </si>
+  <si>
+    <t>LoginID</t>
+  </si>
+  <si>
+    <t>refNumber</t>
+  </si>
+  <si>
+    <t>MAL-001</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Sukses, NPWP memenuhi kriteria</t>
+  </si>
+  <si>
+    <t>Sukses, tampilan NPWP yang baru</t>
+  </si>
+  <si>
+    <t>Kemungkinan 50% berhasil gambar sedikit blur</t>
+  </si>
+  <si>
+    <t>Gagal, karena tingkat blur sangat parah</t>
+  </si>
+  <si>
+    <t>Kemungkinan 50% berhasil, gambar agak gelap</t>
+  </si>
+  <si>
+    <t>Kemungkinan 50% berhasil, gambar diambil dari monitor</t>
+  </si>
+  <si>
+    <t>Gagal, resolusi terlalu tinggi</t>
+  </si>
+  <si>
+    <t>Gagal, resolusi terlalu rendah</t>
+  </si>
+  <si>
+    <t>Kemungkinan 50%, gambar agak noisy</t>
+  </si>
+  <si>
+    <t>Sukses, sesuai kriteria</t>
+  </si>
+  <si>
+    <t>Kemungkinan 50% sukses, karena hanya sedikit terpotong di fotonya</t>
+  </si>
+  <si>
+    <t>Gagal, key yang digunakan salah</t>
+  </si>
+  <si>
+    <t>Mungkin gagal, karena gambar sangat grainy</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP_belakang.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP_blurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP_blurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP_dark.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP_monitor.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP_restoohigh.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP_restoolow.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP1.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP2.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP_kepotong.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/NPWP/NPWP_amatir.jpg</t>
+  </si>
+  <si>
+    <t>REF0001</t>
+  </si>
+  <si>
+    <t>check response header</t>
   </si>
 </sst>
 </file>
@@ -801,8 +1012,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -829,7 +1040,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,6 +1048,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,17 +1083,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,29 +1155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,6 +1171,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,13 +1198,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,25 +1234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,7 +1258,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,115 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,6 +1403,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,21 +1481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1282,27 +1504,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1314,145 +1525,142 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1785,8 +1993,8 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1825,8 +2033,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -1847,16 +2055,16 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1889,8 +2097,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1983,123 +2191,123 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:1">
-      <c r="A12" s="3" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>999999</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>1</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>2</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:1">
-      <c r="A17" s="3" t="s">
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G18" t="s">
@@ -2107,8 +2315,8 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -2119,15 +2327,15 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F14:G14 C14:D14" numberStoredAsText="1"/>
+    <ignoredError sqref="C14:D14 F14:G14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2184,10 +2392,10 @@
       <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2212,8 +2420,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2314,16 +2522,16 @@
       <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2348,16 +2556,16 @@
       <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>123456789012</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>123456788012</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>123456788012</v>
       </c>
     </row>
@@ -2382,16 +2590,16 @@
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2463,7 +2671,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D2" t="s">
@@ -2492,25 +2700,25 @@
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2551,8 +2759,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2785,8 +2993,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="16" s="2" customFormat="1" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2878,7 +3086,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B20" t="s">
@@ -3006,32 +3214,32 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -3070,8 +3278,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3149,17 +3357,17 @@
   <sheetPr/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="3" width="45.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="52.8181818181818" customWidth="1"/>
-    <col min="5" max="10" width="49.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="51.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="45.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="52.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="5" max="10" width="49.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="51.5454545454545" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3224,35 +3432,35 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3300,49 +3508,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>140</v>
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
-        <v>141</v>
+      <c r="A8" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>128</v>
@@ -3377,42 +3585,42 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -3447,7 +3655,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3480,14 +3688,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>156</v>
+    <row r="13" s="2" customFormat="1" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3508,13 +3716,13 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
         <v>34</v>
@@ -3522,47 +3730,47 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17">
         <v>123</v>
@@ -3570,50 +3778,50 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3625,26 +3833,27 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="A17:B23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="45.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="49.8181818181818" customWidth="1"/>
-    <col min="7" max="10" width="45.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="42.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="48.9090909090909" customWidth="1"/>
-    <col min="13" max="13" width="46.4545454545455" customWidth="1"/>
-    <col min="14" max="15" width="49.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="45.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="45.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="42.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="48.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="46.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="49.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="46" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3652,31 +3861,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L1" t="s">
         <v>44</v>
@@ -3688,6 +3897,9 @@
         <v>44</v>
       </c>
       <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3696,57 +3908,60 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" ht="29" spans="1:15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:16">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="N3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3806,62 +4021,69 @@
         <f>COUNTIFS($A$8:$A$20,"*$*",O8:O20,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="4" t="s">
+      <c r="P4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",P8:P20,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>141</v>
       </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>211</v>
+      </c>
+      <c r="P8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -3905,57 +4127,63 @@
       <c r="O9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>154</v>
+      </c>
+      <c r="P10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -3999,10 +4227,13 @@
       <c r="O11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -4046,15 +4277,18 @@
       <c r="O12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -4072,88 +4306,94 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
         <v>35</v>
       </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
         <v>160</v>
       </c>
-      <c r="D15" t="s">
+      <c r="M15" t="s">
         <v>161</v>
       </c>
-      <c r="E15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" t="s">
-        <v>210</v>
-      </c>
-      <c r="H15" t="s">
-        <v>164</v>
-      </c>
-      <c r="I15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="N15" t="s">
         <v>166</v>
       </c>
-      <c r="K15" t="s">
-        <v>167</v>
-      </c>
-      <c r="L15" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>160</v>
       </c>
-      <c r="N15" t="s">
-        <v>165</v>
-      </c>
-      <c r="O15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>211</v>
+      <c r="P15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4161,50 +4401,50 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4218,23 +4458,23 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="37.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="42.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="41.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="38.4545454545455" customWidth="1"/>
-    <col min="10" max="13" width="39.1818181818182" customWidth="1"/>
-    <col min="14" max="15" width="40.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="10" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="40.2727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4292,16 +4532,16 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
         <v>131</v>
@@ -4319,63 +4559,63 @@
         <v>131</v>
       </c>
       <c r="L2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>233</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4439,155 +4679,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>140</v>
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="43.5" spans="1:15">
-      <c r="A8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="A8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>247</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -4634,7 +4874,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -4679,14 +4919,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>156</v>
+    <row r="13" s="2" customFormat="1" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -4733,59 +4973,59 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" t="s">
         <v>160</v>
       </c>
-      <c r="D15" t="s">
+      <c r="M15" t="s">
         <v>161</v>
       </c>
-      <c r="E15" t="s">
+      <c r="N15" t="s">
         <v>162</v>
       </c>
-      <c r="F15" t="s">
+      <c r="O15" t="s">
         <v>163</v>
       </c>
-      <c r="G15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" t="s">
-        <v>167</v>
-      </c>
-      <c r="K15" t="s">
-        <v>210</v>
-      </c>
-      <c r="L15" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15" t="s">
-        <v>160</v>
-      </c>
-      <c r="N15" t="s">
-        <v>161</v>
-      </c>
-      <c r="O15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="6" t="s">
-        <v>211</v>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4793,50 +5033,50 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4848,32 +5088,679 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:I15"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="49.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="35.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="34.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="34.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="40.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="52.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="54.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
+    <col min="6" max="6" width="51.6363636363636" customWidth="1"/>
     <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
     <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
     <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
     <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
+    <col min="11" max="11" width="31.6363636363636" customWidth="1"/>
+    <col min="12" max="14" width="39.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:14">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$21,"*$*",C8:C21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",K8:K21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",L8:L21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",M8:M21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",N8:N21,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" ht="43.5" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" ht="43.5" spans="1:14">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="s">
+        <v>168</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="36.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="34.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="40.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="39.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="37.4545454545455" customWidth="1"/>
+    <col min="12" max="12" width="40.0909090909091" customWidth="1"/>
+    <col min="13" max="13" width="39.1818181818182" customWidth="1"/>
+    <col min="14" max="14" width="40.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>44</v>
@@ -4899,45 +5786,72 @@
       <c r="J1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="29" spans="1:10">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:14">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="B3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4946,78 +5860,107 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$21,"*$*",C8:C21,"")</f>
+        <f>COUNTIFS($A$8:$A$21,"*$*",C8:C21,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",D8:D21,"")</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",E8:E21,"")</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",F8:F21,"")</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",G8:G21,"")</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",H8:H21,"")</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",I8:I21,"")</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H8" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" t="s">
-        <v>250</v>
-      </c>
-      <c r="J8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <f>COUNTIFS($A$8:$A$21,"*$*",J8:J21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",K8:K21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",L8:L21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",M8:M21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",N8:N21,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1"/>
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" ht="58" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>250</v>
@@ -5046,202 +5989,303 @@
       <c r="J9" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>250</v>
+      </c>
+      <c r="L9" t="s">
+        <v>250</v>
+      </c>
+      <c r="M9" t="s">
+        <v>250</v>
+      </c>
+      <c r="N9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:1">
-      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:14">
+      <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" t="s">
-        <v>165</v>
-      </c>
-      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
         <v>166</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L15" t="s">
         <v>167</v>
+      </c>
+      <c r="M15" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="OCR STNK" sheetId="7" r:id="rId7"/>
     <sheet name="OCR BPKB" sheetId="8" r:id="rId8"/>
     <sheet name="OCR NPWP" sheetId="9" r:id="rId9"/>
+    <sheet name="OCR RK Mandiri" sheetId="10" r:id="rId10"/>
+    <sheet name="OCR RK BCA" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="352">
   <si>
     <t>Status</t>
   </si>
@@ -459,7 +461,7 @@
     <t>KTP sangat blur, FAILED</t>
   </si>
   <si>
-    <t>Insufficient Balance</t>
+    <t>Gagal, karena tenant code salah</t>
   </si>
   <si>
     <t>OCR Parameter</t>
@@ -504,94 +506,103 @@
     <t>All</t>
   </si>
   <si>
+    <t>Controller Key</t>
+  </si>
+  <si>
+    <t>UseCorrectTenantCode?</t>
+  </si>
+  <si>
+    <t>Wrong TenantCode</t>
+  </si>
+  <si>
+    <t>QL</t>
+  </si>
+  <si>
+    <t>UseCorrectKey?(Yes/No)</t>
+  </si>
+  <si>
+    <t>Wrong Key</t>
+  </si>
+  <si>
+    <t>nq3eqt46-nirr-je55-3naa-fwqubmnrpukw</t>
+  </si>
+  <si>
+    <t>earczdnd-jmcm-jue6-9b5d-6hxz6gzm73qr</t>
+  </si>
+  <si>
+    <t>v2aupi2p-n2vr-99ft-rypz-gfk3-3yxdejx76mc9</t>
+  </si>
+  <si>
+    <t>ymhadic5-i8g7-kn3c-cztz-emk6ukyngarg</t>
+  </si>
+  <si>
+    <t>qxpwdpct-byx3-weic-7fg7-3kpdpjc4z28z</t>
+  </si>
+  <si>
+    <t>fem66t9h-r4ji-62n6-yv3v-vejk32jh4524</t>
+  </si>
+  <si>
+    <t>5895e8wk-kyft-7533-bha7-mztzxrcyfd6t</t>
+  </si>
+  <si>
+    <t>na6mutmd-hk7c-diux-3naa-wjt8dcyn5bw6</t>
+  </si>
+  <si>
+    <t>hxycaczn-ybfe-mmd9-9b5d-pwj6kibgacny</t>
+  </si>
+  <si>
+    <t>ParameterOptional</t>
+  </si>
+  <si>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>loginId</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>referenceNumber</t>
+  </si>
+  <si>
+    <t>REF00001</t>
+  </si>
+  <si>
+    <t>officeCode</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>officeName</t>
+  </si>
+  <si>
+    <t>HEAD_OFFICE</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>Registrasi User Pertama</t>
+  </si>
+  <si>
+    <t>Source(MOBILE/WEB)</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>Login Credential</t>
+  </si>
+  <si>
     <t>$UsernameLogin</t>
   </si>
   <si>
     <t>$PasswordLogin</t>
   </si>
   <si>
-    <t>Controller Key</t>
-  </si>
-  <si>
-    <t>UseCorrectKey?(Yes/No)</t>
-  </si>
-  <si>
-    <t>Wrong Key</t>
-  </si>
-  <si>
-    <t>nq3eqt46-nirr-je55-3naa-fwqubmnrpukw</t>
-  </si>
-  <si>
-    <t>earczdnd-jmcm-jue6-9b5d-6hxz6gzm73qr</t>
-  </si>
-  <si>
-    <t>v2aupi2p-n2vr-99ft-rypz-gfk3-3yxdejx76mc9</t>
-  </si>
-  <si>
-    <t>ymhadic5-i8g7-kn3c-cztz-emk6ukyngarg</t>
-  </si>
-  <si>
-    <t>qxpwdpct-byx3-weic-7fg7-3kpdpjc4z28z</t>
-  </si>
-  <si>
-    <t>fem66t9h-r4ji-62n6-yv3v-vejk32jh4524</t>
-  </si>
-  <si>
-    <t>5895e8wk-kyft-7533-bha7-mztzxrcyfd6t</t>
-  </si>
-  <si>
-    <t>na6mutmd-hk7c-diux-3naa-wjt8dcyn5bw6</t>
-  </si>
-  <si>
-    <t>hxycaczn-ybfe-mmd9-9b5d-pwj6kibgacny</t>
-  </si>
-  <si>
-    <t>ParameterOptional</t>
-  </si>
-  <si>
-    <t>NIK</t>
-  </si>
-  <si>
-    <t>loginId</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>referenceNumber</t>
-  </si>
-  <si>
-    <t>REF00001</t>
-  </si>
-  <si>
-    <t>officeCode</t>
-  </si>
-  <si>
-    <t>HO</t>
-  </si>
-  <si>
-    <t>officeName</t>
-  </si>
-  <si>
-    <t>HEAD_OFFICE</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>Registrasi User Pertama</t>
-  </si>
-  <si>
-    <t>Source(MOBILE/WEB)</t>
-  </si>
-  <si>
-    <t>MOBILE</t>
-  </si>
-  <si>
     <t>Unexecited</t>
-  </si>
-  <si>
-    <t>;</t>
   </si>
   <si>
     <t>Eksekusi berhasil, karena KK valid 
@@ -635,6 +646,9 @@
     <t>Penggunaan key yang salah, error atau failed</t>
   </si>
   <si>
+    <t>Penggunaan tenantcode yang salah, error atau failed</t>
+  </si>
+  <si>
     <t>Object Repository/ImageFolder/KK/KKWorks1.jpg</t>
   </si>
   <si>
@@ -692,12 +706,15 @@
     <t>TL Check</t>
   </si>
   <si>
+    <t>;Image is too dark; Image is out of focus/blurry;  Image is noisy; Image is unreadable;;Unexpected Error</t>
+  </si>
+  <si>
+    <t>Hit SUCCESS tapi saldo tidak berkurang</t>
+  </si>
+  <si>
     <t>;Image is too dark; Image is out of focus/blurry;  Image is noisy; Image is unreadable;</t>
   </si>
   <si>
-    <t>;Image is too dark;   Image is noisy; Image is unreadable;</t>
-  </si>
-  <si>
     <t>;Unexpected Error</t>
   </si>
   <si>
@@ -749,6 +766,9 @@
     <t>Invalid API Key karena key salah</t>
   </si>
   <si>
+    <t>Invalid Tenant code, error atau failed</t>
+  </si>
+  <si>
     <t>Object Repository/ImageFolder/STNK/STNKWorks1.jpg</t>
   </si>
   <si>
@@ -794,6 +814,12 @@
     <t>IDR</t>
   </si>
   <si>
+    <t>refocrSTNK</t>
+  </si>
+  <si>
+    <t>Hit SUCCESS tapi saldo tidak berkurang;</t>
+  </si>
+  <si>
     <t>;Failed to extract data from BPKB Hal 2</t>
   </si>
   <si>
@@ -926,6 +952,15 @@
     <t>source</t>
   </si>
   <si>
+    <t>UsernameLogin</t>
+  </si>
+  <si>
+    <t>PasswordLogin</t>
+  </si>
+  <si>
+    <t>;Image is too dark; Image is unreadable;  Image is noisy;</t>
+  </si>
+  <si>
     <t>Sukses, NPWP memenuhi kriteria</t>
   </si>
   <si>
@@ -965,6 +1000,9 @@
     <t>Mungkin gagal, karena gambar sangat grainy</t>
   </si>
   <si>
+    <t>Gagal, tenant yang digunakan salah</t>
+  </si>
+  <si>
     <t>Object Repository/ImageFolder/NPWP/NPWP.jpg</t>
   </si>
   <si>
@@ -1005,6 +1043,60 @@
   </si>
   <si>
     <t>check response header</t>
+  </si>
+  <si>
+    <t>Sukses, RK memenuhi kriteria</t>
+  </si>
+  <si>
+    <t>50% sukses karena adanya watermark</t>
+  </si>
+  <si>
+    <t>Gagal, karena rekening koran tidak lengkap</t>
+  </si>
+  <si>
+    <t>50% sukses karena rekening koran hasil scan company, berukuran besar</t>
+  </si>
+  <si>
+    <t>Sukses karena rekening koran company digital</t>
+  </si>
+  <si>
+    <t>Sukses karena rekening koran digital resmi tapi pendek</t>
+  </si>
+  <si>
+    <t>50% sukses karena format rekening koran yang sedikit berbeda</t>
+  </si>
+  <si>
+    <t>Gagal, karena dikirim dalam bentuk jpg</t>
+  </si>
+  <si>
+    <t>Gagal, karena dikirim dalam bentuk Word</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri1.pdf</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri2.pdf</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri3.pdf</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri4.pdf</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri5.pdf</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri6.pdf</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri7.pdf</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri.jpg</t>
+  </si>
+  <si>
+    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri.docx</t>
   </si>
 </sst>
 </file>
@@ -1013,9 +1105,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1040,7 +1132,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,23 +1161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,22 +1180,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,16 +1224,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,7 +1254,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,7 +1290,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,13 +1326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,55 +1344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,31 +1356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,6 +1398,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1354,31 +1440,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,37 +1499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,26 +1529,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1504,10 +1576,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1528,133 +1620,132 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2033,8 +2124,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -2055,16 +2146,16 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2097,8 +2188,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2191,123 +2282,123 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:1">
-      <c r="A12" s="4" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>999999</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
-      <c r="A17" s="4" t="s">
+    <row r="17" s="1" customFormat="1" spans="1:1">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G18" t="s">
@@ -2315,8 +2406,8 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -2327,8 +2418,8 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,6 +2428,592 @@
   <ignoredErrors>
     <ignoredError sqref="C14:D14 F14:G14" numberStoredAsText="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView topLeftCell="K8" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="47.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="34.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="34.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
+    <col min="11" max="12" width="57.1818181818182" customWidth="1"/>
+    <col min="13" max="13" width="35.7272727272727" customWidth="1"/>
+    <col min="14" max="14" width="36.5454545454545" customWidth="1"/>
+    <col min="15" max="15" width="35.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:14">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",K8:K21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",L8:L21,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" ht="43.5" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J9" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2392,10 +3069,10 @@
       <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2420,8 +3097,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2522,16 +3199,16 @@
       <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2556,16 +3233,16 @@
       <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>123456789012</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>123456788012</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>123456788012</v>
       </c>
     </row>
@@ -2590,16 +3267,16 @@
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2671,7 +3348,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D2" t="s">
@@ -2700,25 +3377,25 @@
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2759,8 +3436,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2993,8 +3670,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:1">
-      <c r="A16" s="4" t="s">
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3086,7 +3763,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B20" t="s">
@@ -3214,32 +3891,32 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -3278,8 +3955,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3355,10 +4032,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3432,31 +4109,31 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K3" t="s">
@@ -3472,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
@@ -3508,13 +4185,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B8" t="s">
@@ -3618,39 +4295,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3658,44 +4305,74 @@
         <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:1">
-      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3730,47 +4407,47 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:1">
-      <c r="A16" s="4" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17">
         <v>123</v>
@@ -3778,50 +4455,71 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3833,10 +4531,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3851,41 +4549,42 @@
     <col min="13" max="13" width="46.4545454545455" customWidth="1" collapsed="1"/>
     <col min="14" max="15" width="49.2727272727273" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="46" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="51.4545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L1" t="s">
         <v>44</v>
@@ -3900,6 +4599,9 @@
         <v>44</v>
       </c>
       <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3908,180 +4610,190 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" ht="29" spans="1:16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:17">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="L3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f t="shared" ref="B4:Q4" si="0">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",D8:D20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",E8:E20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",F8:F20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",G8:G20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",H8:H20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",I8:I20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",J8:J20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",K8:K20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",L8:L20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",M8:M20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",N8:N20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",O8:O20,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",P8:P20,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:17">
+      <c r="A8" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="O8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>215</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -4130,8 +4842,11 @@
       <c r="P9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -4180,115 +4895,124 @@
       <c r="P10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
+      <c r="Q10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:1">
-      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -4335,65 +5059,71 @@
       <c r="P14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s">
         <v>161</v>
       </c>
-      <c r="D15" t="s">
+      <c r="M15" t="s">
         <v>162</v>
       </c>
-      <c r="E15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="N15" t="s">
         <v>167</v>
       </c>
-      <c r="K15" t="s">
-        <v>168</v>
-      </c>
-      <c r="L15" t="s">
-        <v>160</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>161</v>
       </c>
-      <c r="N15" t="s">
-        <v>166</v>
-      </c>
-      <c r="O15" t="s">
-        <v>160</v>
-      </c>
       <c r="P15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>213</v>
+        <v>161</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4401,50 +5131,71 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4456,10 +5207,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -4475,9 +5226,10 @@
     <col min="9" max="9" width="38.4545454545455" customWidth="1" collapsed="1"/>
     <col min="10" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
     <col min="14" max="15" width="40.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="37.5454545454545" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4523,8 +5275,11 @@
       <c r="O1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4532,16 +5287,16 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
         <v>131</v>
@@ -4559,66 +5314,72 @@
         <v>131</v>
       </c>
       <c r="L2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="O2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" ht="43.5" spans="1:15">
+        <v>227</v>
+      </c>
+      <c r="P2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:16">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="K3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4659,126 +5420,136 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",K8:K20,"")</f>
+        <f t="shared" ref="K4:P4" si="1">COUNTIFS($A$8:$A$20,"*$*",K8:K20,"")</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",L8:L20,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",M8:M20,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",N8:N20,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",O8:O20,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" ht="43.5" spans="1:15">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="43.5" spans="1:16">
+      <c r="A8" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="J8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>256</v>
+      </c>
+      <c r="P9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -4824,109 +5595,118 @@
       <c r="O10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
+      <c r="P10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:1">
-      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -4970,62 +5750,68 @@
       <c r="O14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L15" t="s">
         <v>161</v>
       </c>
-      <c r="D15" t="s">
+      <c r="M15" t="s">
         <v>162</v>
       </c>
-      <c r="E15" t="s">
+      <c r="N15" t="s">
         <v>163</v>
       </c>
-      <c r="F15" t="s">
+      <c r="O15" t="s">
         <v>164</v>
       </c>
-      <c r="G15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" t="s">
-        <v>168</v>
-      </c>
-      <c r="K15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L15" t="s">
-        <v>160</v>
-      </c>
-      <c r="M15" t="s">
-        <v>161</v>
-      </c>
-      <c r="N15" t="s">
-        <v>162</v>
-      </c>
-      <c r="O15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>213</v>
+      <c r="P15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5033,50 +5819,71 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5088,34 +5895,34 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="40.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="52.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="54.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="6" max="6" width="51.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="31.6363636363636" customWidth="1"/>
-    <col min="12" max="14" width="39.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="58" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="12" max="15" width="39.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5153,19 +5960,22 @@
       <c r="N1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
         <v>78</v>
@@ -5177,85 +5987,91 @@
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K2" t="s">
         <v>131</v>
       </c>
       <c r="L2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M2" t="s">
         <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" ht="43.5" spans="1:14">
+        <v>260</v>
+      </c>
+      <c r="O2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="F3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
+        <f>COUNTIFS($A$8:$A$36,"*$*",B8:B36,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$21,"*$*",C8:C21,"")</f>
+        <f>COUNTIFS($A$8:$A$36,"*$*",C8:C36,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:J4" si="0">COUNTIFS($A$8:$A$36,"*$*",D8:D36,"")</f>
         <v>0</v>
       </c>
       <c r="E4">
@@ -5283,116 +6099,126 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",K8:K21,"")</f>
+        <f>COUNTIFS($A$8:$A$36,"*$*",K8:K36,"")</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",L8:L21,"")</f>
+        <f>COUNTIFS($A$8:$A$36,"*$*",L8:L36,"")</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",M8:M21,"")</f>
+        <f>COUNTIFS($A$8:$A$36,"*$*",M8:M36,"")</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",N8:N21,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+        <f>COUNTIFS($A$8:$A$36,"*$*",N8:N36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIFS($A$8:$A$36,"*$*",O8:O36,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" ht="43.5" spans="1:14">
-      <c r="A8" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I8" s="3" t="s">
+    <row r="8" ht="43.5" spans="1:15">
+      <c r="A8" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="9" ht="43.5" spans="1:14">
+      <c r="F8" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" ht="43.5" spans="1:15">
       <c r="A9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -5435,8 +6261,11 @@
       <c r="N10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -5479,247 +6308,278 @@
       <c r="N11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:1">
-      <c r="A14" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>158</v>
+      </c>
+      <c r="O13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" t="s">
-        <v>168</v>
-      </c>
-      <c r="L16" t="s">
-        <v>168</v>
-      </c>
-      <c r="M16" t="s">
-        <v>168</v>
-      </c>
-      <c r="N16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
-      <c r="A17" s="4" t="s">
         <v>169</v>
+      </c>
+      <c r="O15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>286</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+        <v>295</v>
+      </c>
+      <c r="B18" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5731,31 +6591,31 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="36.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="34.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="40.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="39.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="37.4545454545455" customWidth="1"/>
-    <col min="12" max="12" width="40.0909090909091" customWidth="1"/>
-    <col min="13" max="13" width="39.1818181818182" customWidth="1"/>
-    <col min="14" max="14" width="40.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="40.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="37.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="40.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="40.0909090909091" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5763,246 +6623,300 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" ht="29" spans="1:14">
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="D3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
+        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",C8:C21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",D8:D21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",E8:E21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",F8:F21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",G8:G21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",H8:H21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",I8:I21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",J8:J21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",K8:K21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",L8:L21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",M8:M21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",N8:N21,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="2" customFormat="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" ht="58" spans="1:14">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="43.5" spans="1:15">
+      <c r="A8" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="B8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>256</v>
+      </c>
+      <c r="O9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -6045,103 +6959,112 @@
       <c r="N10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
+      <c r="O10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:14">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -6182,59 +7105,65 @@
       <c r="N14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:14">
-      <c r="A15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
         <v>160</v>
       </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s">
         <v>167</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>168</v>
       </c>
-      <c r="K15" t="s">
-        <v>166</v>
-      </c>
-      <c r="L15" t="s">
-        <v>167</v>
-      </c>
       <c r="M15" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" t="s">
         <v>168</v>
       </c>
-      <c r="N15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>213</v>
+      <c r="O15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6242,50 +7171,71 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="374">
   <si>
     <t>Status</t>
   </si>
@@ -464,37 +464,40 @@
     <t>Gagal, karena tenant code salah</t>
   </si>
   <si>
+    <t>Gagal, karena IMG kosong</t>
+  </si>
+  <si>
     <t>OCR Parameter</t>
   </si>
   <si>
     <t>$IMG</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/KTP/KTPWorks1.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTP/KTPWorks2.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTP/KTPmightwork1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTP/KTPrestoobig1.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTP/KTPrestoobig2.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTP/KTPrestoosmall1.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTP/KTPrestoosmall2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTP/KTPblurlevel1.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KTP/KTPblurlevel2.png</t>
+    <t>ImageFolder/KTP/KTPWorks1.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPWorks2.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPmightwork1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPrestoobig1.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPrestoobig2.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPrestoosmall1.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPrestoosmall2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPblurlevel1.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPblurlevel2.png</t>
   </si>
   <si>
     <t>$SearchTipeSaldo</t>
@@ -649,46 +652,49 @@
     <t>Penggunaan tenantcode yang salah, error atau failed</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/KK/KKWorks1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKamatir.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKamatir2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKblackwhite.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKblackwhiterotated.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKupsidedown1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKblurlevel1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKblurlevel2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKburiq1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKreverse1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKrestoobig1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKrestoobig2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKrestoosmall1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/KK/KKrestoosmall2.jpg</t>
+    <t>Tidak ada image (mandatory), error atau failed</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKWorks1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKamatir.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKamatir2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKblackwhite.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKblackwhiterotated.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKupsidedown1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKblurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKblurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKburiq1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKreverse1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKrestoobig1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKrestoobig2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKrestoosmall1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKrestoosmall2.jpg</t>
   </si>
   <si>
     <t>hxycaczn-ybfe-mmd9-9b5d-pwj7kibgacny</t>
@@ -769,46 +775,49 @@
     <t>Invalid Tenant code, error atau failed</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/STNK/STNKWorks1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKberkerut.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKblurlevel1.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKblurlevel2.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKfotoasal.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKfotoasal2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKpajakonly.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKpajakonly2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKrestoobig.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKrestoolow.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKsampulplastik.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKtemplate.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKtemplate2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/STNK/STNKberbayang.png</t>
+    <t>Gagal karena tidak ada image untuk OCR</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKWorks1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKberkerut.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKblurlevel1.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKblurlevel2.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKfotoasal.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKfotoasal2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKpajakonly.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKpajakonly2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKrestoobig.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKrestoolow.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKsampulplastik.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKtemplate.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKtemplate2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKberbayang.png</t>
   </si>
   <si>
     <t>IDR</t>
@@ -817,9 +826,6 @@
     <t>refocrSTNK</t>
   </si>
   <si>
-    <t>Hit SUCCESS tapi saldo tidak berkurang;</t>
-  </si>
-  <si>
     <t>;Failed to extract data from BPKB Hal 2</t>
   </si>
   <si>
@@ -865,64 +871,67 @@
     <t>Dengan dikirim parameter halaman 3 saja, maka kemungkinan bisa success</t>
   </si>
   <si>
+    <t>Gagal, karena tidak ada img untuk OCR</t>
+  </si>
+  <si>
     <t>$halaman1</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_cahayaMinim.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_blurlevel2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_blurlevel1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_campurSTNK.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_double.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_old.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_old2.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_overexposure.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_restoohigh.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal2/BPKB_restoolow.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_works.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/decoy.txt</t>
+    <t>ImageFolder/BPKB/Hal2/BPKB_cahayaMinim.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_blurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_blurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_campurSTNK.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_double.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_old.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_old2.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_overexposure.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_restoohigh.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_restoolow.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_works.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/decoy.txt</t>
   </si>
   <si>
     <t>$halaman2</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_blurlevel1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_blurlevel2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_meetrequirement.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_oldVersion.png</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_shouldworks.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/BPKB/Hal3/BPKB_agak buram.jpg</t>
+    <t>ImageFolder/BPKB/Hal3/BPKB_blurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_blurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_meetrequirement.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_oldVersion.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_shouldworks.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_agak buram.jpg</t>
   </si>
   <si>
     <t>Customer No.</t>
@@ -1003,40 +1012,43 @@
     <t>Gagal, tenant yang digunakan salah</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP_belakang.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP_blurlevel1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP_blurlevel2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP_dark.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP_monitor.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP_restoohigh.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP_restoolow.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP1.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP2.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP_kepotong.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/NPWP/NPWP_amatir.jpg</t>
+    <t>Gagal, tidak ada yang img untuk OCR</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_belakang.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_blurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_blurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_dark.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_monitor.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_restoohigh.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_restoolow.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_kepotong.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_amatir.jpg</t>
   </si>
   <si>
     <t>REF0001</t>
@@ -1045,6 +1057,9 @@
     <t>check response header</t>
   </si>
   <si>
+    <t>Unexec</t>
+  </si>
+  <si>
     <t>Sukses, RK memenuhi kriteria</t>
   </si>
   <si>
@@ -1072,31 +1087,82 @@
     <t>Gagal, karena dikirim dalam bentuk Word</t>
   </si>
   <si>
-    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri1.pdf</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri2.pdf</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri3.pdf</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri4.pdf</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri5.pdf</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri6.pdf</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri7.pdf</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri.jpg</t>
-  </si>
-  <si>
-    <t>Object Repository/ImageFolder/RKMandiri/RKMandiri.docx</t>
+    <t>Gagal, tidak ada img untuk OCR</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri1.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri2.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri3.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri4.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri5.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri6.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri7.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri.docx</t>
+  </si>
+  <si>
+    <t>Sukses, RK adalah rekening tahapan BCA</t>
+  </si>
+  <si>
+    <t>Sukses, RK adalah rekening Giro BCA</t>
+  </si>
+  <si>
+    <t>50% sukses, karena ada watermark pada file</t>
+  </si>
+  <si>
+    <t>Sukses, merupakan rekening tahapan xpresi BCA</t>
+  </si>
+  <si>
+    <t>50% sukses, 13 halaman bisa membuat overload</t>
+  </si>
+  <si>
+    <t>Sukses karena rekening koran digital resmi</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA1.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA2.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA3.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA4.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA5.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA6.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA7.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA.jpeg</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA.docx</t>
+  </si>
+  <si>
+    <t>OCR Rek. Koran BCA</t>
   </si>
 </sst>
 </file>
@@ -1105,9 +1171,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1131,6 +1197,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1147,6 +1228,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -1155,7 +1252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1169,27 +1266,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1216,25 +1296,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1247,14 +1320,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,7 +1328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,24 +1356,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1320,25 +1368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,7 +1398,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,103 +1530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,6 +1565,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1510,30 +1594,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,15 +1613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1573,6 +1624,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1599,7 +1665,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1617,130 +1683,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2436,8 +2502,8 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2453,12 +2519,12 @@
     <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
     <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
     <col min="11" max="12" width="57.1818181818182" customWidth="1"/>
-    <col min="13" max="13" width="35.7272727272727" customWidth="1"/>
+    <col min="13" max="13" width="37.2727272727273" customWidth="1"/>
     <col min="14" max="14" width="36.5454545454545" customWidth="1"/>
     <col min="15" max="15" width="35.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2494,6 +2560,9 @@
       </c>
       <c r="L1" t="s">
         <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2507,25 +2576,25 @@
         <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
         <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K2" t="s">
         <v>131</v>
@@ -2539,46 +2608,49 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
+        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
@@ -2621,135 +2693,146 @@
         <f>COUNTIFS($A$8:$A$21,"*$*",L8:L21,"")</f>
         <v>0</v>
       </c>
+      <c r="M4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",M8:M21,"")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" ht="43.5" spans="1:14">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" ht="29" spans="1:14">
       <c r="A8" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>343</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>259</v>
+      </c>
+      <c r="M9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L10" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="M10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -2784,48 +2867,54 @@
       <c r="L12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -2860,53 +2949,59 @@
       <c r="L14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="M15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2914,55 +3009,55 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2981,7 +3076,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -2989,7 +3084,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -3004,14 +3099,515 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="35.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="34.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="34.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
+    <col min="10" max="12" width="35.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:12">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",K8:K21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",L8:L21,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G9" t="s">
+        <v>373</v>
+      </c>
+      <c r="H9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K9" t="s">
+        <v>373</v>
+      </c>
+      <c r="L9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4032,22 +4628,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="52.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="49.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="51.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="3" width="45.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="52.8181818181818" customWidth="1"/>
+    <col min="5" max="10" width="49.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="51.5454545454545" customWidth="1"/>
+    <col min="12" max="12" width="43.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4079,6 +4676,9 @@
         <v>44</v>
       </c>
       <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4105,7 +4705,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:11">
+    <row r="3" ht="29" spans="1:12">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4139,8 +4739,11 @@
       <c r="K3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4184,50 +4787,54 @@
         <f>COUNTIFS($A$8:$A$20,"*$*",K8:K20,"")</f>
         <v>0</v>
       </c>
+      <c r="L4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",L8:L20,"")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>128</v>
@@ -4259,50 +4866,56 @@
       <c r="K9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="L10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -4334,45 +4947,51 @@
       <c r="K12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -4404,50 +5023,56 @@
       <c r="K14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="L15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17">
         <v>123</v>
@@ -4455,60 +5080,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -4516,7 +5141,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -4531,28 +5156,29 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="42.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="48.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="46.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="49.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="46" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="51.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
+    <col min="3" max="5" width="45.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="49.8181818181818" customWidth="1"/>
+    <col min="7" max="10" width="45.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="42.3636363636364" customWidth="1"/>
+    <col min="12" max="12" width="48.9090909090909" customWidth="1"/>
+    <col min="13" max="13" width="46.4545454545455" customWidth="1"/>
+    <col min="14" max="15" width="49.2727272727273" customWidth="1"/>
+    <col min="16" max="16" width="46" customWidth="1"/>
+    <col min="17" max="17" width="51.4545454545455" customWidth="1"/>
+    <col min="18" max="18" width="53.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4560,31 +5186,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L1" t="s">
         <v>44</v>
@@ -4602,6 +5228,9 @@
         <v>44</v>
       </c>
       <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4613,60 +5242,63 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:17">
+    <row r="3" ht="29" spans="1:18">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4734,68 +5366,72 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",R8:R20,"")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -4845,68 +5481,74 @@
       <c r="Q9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q10" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="R10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -4956,63 +5598,69 @@
       <c r="Q12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>159</v>
+      </c>
+      <c r="R13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -5062,68 +5710,74 @@
       <c r="Q14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s">
         <v>162</v>
       </c>
-      <c r="D15" t="s">
+      <c r="M15" t="s">
         <v>163</v>
       </c>
-      <c r="E15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" t="s">
-        <v>216</v>
-      </c>
-      <c r="H15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="N15" t="s">
         <v>168</v>
       </c>
-      <c r="K15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L15" t="s">
-        <v>161</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>162</v>
       </c>
-      <c r="N15" t="s">
-        <v>167</v>
-      </c>
-      <c r="O15" t="s">
-        <v>161</v>
-      </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q15" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="R15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5131,60 +5785,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -5192,7 +5846,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -5207,29 +5861,32 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <pane xSplit="18280" topLeftCell="R1" activePane="topLeft"/>
+      <selection activeCell="Q12" sqref="Q12"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="38.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="10" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="40.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="37.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="37.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="42.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="41.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="38.4545454545455" customWidth="1"/>
+    <col min="10" max="13" width="39.1818181818182" customWidth="1"/>
+    <col min="14" max="15" width="40.2727272727273" customWidth="1"/>
+    <col min="16" max="16" width="37.5454545454545" customWidth="1"/>
+    <col min="17" max="17" width="34.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5277,6 +5934,9 @@
       </c>
       <c r="P1" t="s">
         <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -5287,16 +5947,16 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
         <v>131</v>
@@ -5314,72 +5974,75 @@
         <v>131</v>
       </c>
       <c r="L2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" ht="43.5" spans="1:16">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:17">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>243</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5443,170 +6106,181 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="Q4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",Q8:Q20,"")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" ht="43.5" spans="1:16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>258</v>
+      </c>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>259</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -5653,60 +6327,66 @@
       <c r="P12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>159</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -5753,65 +6433,71 @@
       <c r="P14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" t="s">
         <v>162</v>
       </c>
-      <c r="D15" t="s">
+      <c r="M15" t="s">
         <v>163</v>
       </c>
-      <c r="E15" t="s">
+      <c r="N15" t="s">
         <v>164</v>
       </c>
-      <c r="F15" t="s">
+      <c r="O15" t="s">
         <v>165</v>
       </c>
-      <c r="G15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" t="s">
-        <v>168</v>
-      </c>
-      <c r="J15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" t="s">
-        <v>216</v>
-      </c>
-      <c r="L15" t="s">
-        <v>161</v>
-      </c>
-      <c r="M15" t="s">
-        <v>162</v>
-      </c>
-      <c r="N15" t="s">
-        <v>163</v>
-      </c>
-      <c r="O15" t="s">
-        <v>164</v>
-      </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5819,60 +6505,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -5880,7 +6566,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -5895,34 +6581,35 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="52.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="58" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="12" max="15" width="39.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="40.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="52.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="54.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
+    <col min="6" max="6" width="51.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
+    <col min="11" max="11" width="31.6363636363636" customWidth="1"/>
+    <col min="12" max="15" width="39.1818181818182" customWidth="1"/>
+    <col min="16" max="16" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5962,6 +6649,9 @@
       </c>
       <c r="O1" t="s">
         <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -5969,13 +6659,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
         <v>78</v>
@@ -5987,91 +6677,94 @@
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K2" t="s">
         <v>131</v>
       </c>
       <c r="L2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M2" t="s">
         <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:15">
+    <row r="3" ht="43.5" spans="1:16">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS($A$8:$A$36,"*$*",B8:B36,"")</f>
+        <f>COUNTIFS($A$8:$A$37,"*$*",B8:B37,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>COUNTIFS($A$8:$A$36,"*$*",C8:C36,"")</f>
+        <f>COUNTIFS($A$8:$A$37,"*$*",C8:C37,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:J4" si="0">COUNTIFS($A$8:$A$36,"*$*",D8:D36,"")</f>
+        <f t="shared" ref="D4:J4" si="0">COUNTIFS($A$8:$A$37,"*$*",D8:D37,"")</f>
         <v>0</v>
       </c>
       <c r="E4">
@@ -6099,128 +6792,134 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS($A$8:$A$36,"*$*",K8:K36,"")</f>
+        <f>COUNTIFS($A$8:$A$37,"*$*",K8:K37,"")</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>COUNTIFS($A$8:$A$36,"*$*",L8:L36,"")</f>
+        <f>COUNTIFS($A$8:$A$37,"*$*",L8:L37,"")</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS($A$8:$A$36,"*$*",M8:M36,"")</f>
+        <f>COUNTIFS($A$8:$A$37,"*$*",M8:M37,"")</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>COUNTIFS($A$8:$A$36,"*$*",N8:N36,"")</f>
+        <f>COUNTIFS($A$8:$A$37,"*$*",N8:N37,"")</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>COUNTIFS($A$8:$A$36,"*$*",O8:O36,"")</f>
-        <v>0</v>
+        <f>COUNTIFS($A$8:$A$37,"*$*",O8:O37,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>COUNTIFS($A$8:$A$37,"*$*",P8:P37,"")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" ht="43.5" spans="1:15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" ht="29" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" ht="43.5" spans="1:15">
+        <v>287</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" ht="29" spans="1:16">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>296</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>121</v>
@@ -6264,321 +6963,344 @@
       <c r="O10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>157</v>
       </c>
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
         <v>158</v>
       </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" t="s">
-        <v>158</v>
-      </c>
-      <c r="L13" t="s">
-        <v>158</v>
-      </c>
-      <c r="M13" t="s">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s">
-        <v>158</v>
-      </c>
-      <c r="O13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>159</v>
+      </c>
+      <c r="P14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>160</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
         <v>161</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>162</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>163</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
         <v>164</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E16" t="s">
         <v>165</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F16" t="s">
         <v>166</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G16" t="s">
         <v>167</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H16" t="s">
         <v>168</v>
       </c>
-      <c r="J15" t="s">
+      <c r="I16" t="s">
         <v>169</v>
       </c>
-      <c r="K15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M15" t="s">
-        <v>169</v>
-      </c>
-      <c r="N15" t="s">
-        <v>169</v>
-      </c>
-      <c r="O15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="J16" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>294</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16" t="s">
+        <v>170</v>
+      </c>
+      <c r="O16" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" t="s">
-        <v>177</v>
+        <v>297</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>303</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
+    <row r="25" s="1" customFormat="1" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6591,31 +7313,32 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="40.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="37.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="40.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="36.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="34.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="40.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="39.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="37.4545454545455" customWidth="1"/>
+    <col min="12" max="12" width="40.0909090909091" customWidth="1"/>
+    <col min="13" max="13" width="39.1818181818182" customWidth="1"/>
+    <col min="14" max="15" width="40.0909090909091" customWidth="1"/>
+    <col min="16" max="16" width="43.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6660,6 +7383,9 @@
       </c>
       <c r="O1" t="s">
         <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -6670,7 +7396,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -6709,54 +7435,57 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:15">
+    <row r="3" ht="29" spans="1:16">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>322</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -6816,161 +7545,172 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="P4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",P8:P21,"")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" ht="43.5" spans="1:15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" ht="29" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>324</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>259</v>
+      </c>
+      <c r="P9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O10" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="P10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -7014,57 +7754,63 @@
       <c r="O12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>159</v>
+      </c>
+      <c r="P13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -7108,62 +7854,68 @@
       <c r="O14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s">
         <v>168</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>169</v>
       </c>
-      <c r="K15" t="s">
-        <v>167</v>
-      </c>
-      <c r="L15" t="s">
-        <v>168</v>
-      </c>
       <c r="M15" t="s">
+        <v>170</v>
+      </c>
+      <c r="N15" t="s">
         <v>169</v>
       </c>
-      <c r="N15" t="s">
-        <v>168</v>
-      </c>
       <c r="O15" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="P15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7171,60 +7923,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -7232,7 +7984,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="375">
   <si>
     <t>Status</t>
   </si>
@@ -1133,6 +1133,9 @@
   </si>
   <si>
     <t>Sukses karena rekening koran digital resmi</t>
+  </si>
+  <si>
+    <t>Gagal, tidak image untuk OCR</t>
   </si>
   <si>
     <t>ImageFolder/RKBCA/RKBCA1.pdf</t>
@@ -1171,9 +1174,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1197,9 +1200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,7 +1215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1227,17 +1229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,36 +1238,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,14 +1252,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1311,8 +1291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,22 +1301,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,7 +1359,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,19 +1401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,7 +1431,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,19 +1473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,7 +1491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,31 +1503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,49 +1527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,13 +1539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,24 +1579,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,17 +1627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,21 +1665,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1683,40 +1686,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1725,88 +1728,88 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2492,7 +2495,7 @@
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C14:D14 F14:G14" numberStoredAsText="1"/>
+    <ignoredError sqref="F14:G14 C14:D14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2502,7 +2505,7 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -3099,10 +3102,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="$A24:$XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3117,9 +3120,10 @@
     <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
     <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
     <col min="10" max="12" width="35.7272727272727" customWidth="1"/>
+    <col min="13" max="13" width="35.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3154,6 +3158,9 @@
         <v>44</v>
       </c>
       <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3162,7 +3169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:12">
+    <row r="3" ht="29" spans="1:13">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3199,8 +3206,11 @@
       <c r="L3" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3247,6 +3257,10 @@
       <c r="L4">
         <f>COUNTIFS($A$8:$A$21,"*$*",L8:L21,"")</f>
         <v>0</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",M8:M21,"")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
@@ -3254,83 +3268,87 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>365</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>374</v>
+      </c>
+      <c r="M9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -3365,6 +3383,9 @@
         <v>155</v>
       </c>
       <c r="L10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3373,7 +3394,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -3410,8 +3431,11 @@
       <c r="L12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -3448,8 +3472,11 @@
       <c r="L13" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -3486,8 +3513,11 @@
       <c r="L14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -3522,6 +3552,9 @@
         <v>170</v>
       </c>
       <c r="L15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" t="s">
         <v>170</v>
       </c>
     </row>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="OCR NPWP" sheetId="9" r:id="rId9"/>
     <sheet name="OCR RK Mandiri" sheetId="10" r:id="rId10"/>
     <sheet name="OCR RK BCA" sheetId="11" r:id="rId11"/>
+    <sheet name="Dukcapil(NonBiom)" sheetId="12" r:id="rId12"/>
+    <sheet name="APIAAS-Saldo" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="398">
   <si>
     <t>Status</t>
   </si>
@@ -1117,6 +1119,9 @@
     <t>ImageFolder/RKMandiri/RKMandiri.docx</t>
   </si>
   <si>
+    <t>OCR Rek. Koran Mandiri</t>
+  </si>
+  <si>
     <t>Sukses, RK adalah rekening tahapan BCA</t>
   </si>
   <si>
@@ -1166,17 +1171,84 @@
   </si>
   <si>
     <t>OCR Rek. Koran BCA</t>
+  </si>
+  <si>
+    <t>$selfiephoto</t>
+  </si>
+  <si>
+    <t>$mobilephone</t>
+  </si>
+  <si>
+    <t>+62812345678</t>
+  </si>
+  <si>
+    <t>$idNumber</t>
+  </si>
+  <si>
+    <t>$fullName</t>
+  </si>
+  <si>
+    <t>UserGDAB</t>
+  </si>
+  <si>
+    <t>$tanggalLahir</t>
+  </si>
+  <si>
+    <t>1980-01-01</t>
+  </si>
+  <si>
+    <t>Success tambah saldo</t>
+  </si>
+  <si>
+    <t>$Username Billing</t>
+  </si>
+  <si>
+    <t>ADMESIGN</t>
+  </si>
+  <si>
+    <t>$Password Billing</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>$Tenant</t>
+  </si>
+  <si>
+    <t>QUICKSILVER</t>
+  </si>
+  <si>
+    <t>$Vendor</t>
+  </si>
+  <si>
+    <t>$Tipe Saldo</t>
+  </si>
+  <si>
+    <t>$Tambah Saldo</t>
+  </si>
+  <si>
+    <t>$Nomor tagihan</t>
+  </si>
+  <si>
+    <t>$Catatan</t>
+  </si>
+  <si>
+    <t>$Tanggal Pembelian (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1201,13 +1273,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1215,40 +1280,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1261,7 +1295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,14 +1311,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1307,6 +1333,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1316,17 +1365,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1338,7 +1388,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1359,7 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,7 +1443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1473,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,151 +1611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,50 +1640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1623,6 +1651,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1660,15 +1697,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1686,115 +1758,76 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1803,30 +1836,83 @@
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -2193,8 +2279,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -2215,16 +2301,16 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2258,7 +2344,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2352,122 +2438,122 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="16">
         <v>999999</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="15">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <v>2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="B18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G18" t="s">
@@ -2475,8 +2561,8 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -2487,15 +2573,15 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F14:G14 C14:D14" numberStoredAsText="1"/>
+    <ignoredError sqref="C14:D14 F14:G14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2505,26 +2591,26 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="47.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="34.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="34.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
-    <col min="11" max="12" width="57.1818181818182" customWidth="1"/>
-    <col min="13" max="13" width="37.2727272727273" customWidth="1"/>
-    <col min="14" max="14" width="36.5454545454545" customWidth="1"/>
-    <col min="15" max="15" width="35.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="21.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="57.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="37.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="36.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="35.7272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2532,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2573,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
@@ -2610,43 +2696,43 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -2702,56 +2788,56 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" ht="29" spans="1:14">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="C9" t="s">
         <v>259</v>
@@ -2829,7 +2915,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2998,7 +3084,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3059,7 +3145,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B24" s="1"/>
@@ -3104,23 +3190,23 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="35.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="34.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="34.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
-    <col min="10" max="12" width="35.7272727272727" customWidth="1"/>
-    <col min="13" max="13" width="35.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="21.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="35.3636363636364" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3173,41 +3259,41 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>364</v>
+      <c r="M3" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3264,88 +3350,88 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="M8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3390,7 +3476,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3559,7 +3645,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3620,7 +3706,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3639,6 +3725,957 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="75.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="45.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="13" max="16" width="35.7272727272727" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:16">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS($A$8:$A$38,"*$*",B8:B38,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS($A$8:$A$38,"*$*",C8:C38,"")</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:P4" si="0">COUNTIFS($A$8:$A$38,"*$*",D8:D38,"")</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" ht="29" spans="1:16">
+      <c r="A8" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" s="13">
+        <v>7183259386136510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="s">
+        <v>170</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>170</v>
+      </c>
+      <c r="P20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="B9" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="5" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS($A$10:$A$22,"*$*",B10:B22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS($A$10:$A$22,"*$*",C10:C22,"")</f>
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS($A$10:$A$22,"*$*",D10:D22,"")</f>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS($A$10:$A$22,"*$*",E10:E22,"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1111</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f>CONCATENATE("Isiulang ",B14)</f>
+        <v>Isiulang IDR</v>
+      </c>
+    </row>
+    <row r="18" ht="29" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3651,8 +4688,8 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -3698,10 +4735,10 @@
       <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3727,7 +4764,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3828,16 +4865,16 @@
       <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3862,16 +4899,16 @@
       <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>123456789012</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>123456788012</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>123456788012</v>
       </c>
     </row>
@@ -3896,16 +4933,16 @@
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3977,7 +5014,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D2" t="s">
@@ -4006,25 +5043,25 @@
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4066,7 +5103,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4300,7 +5337,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4392,7 +5429,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B20" t="s">
@@ -4520,32 +5557,32 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -4585,7 +5622,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4663,18 +5700,18 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="3" width="45.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="52.8181818181818" customWidth="1"/>
-    <col min="5" max="10" width="49.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="51.5454545454545" customWidth="1"/>
-    <col min="12" max="12" width="43.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="45.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="52.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="5" max="10" width="49.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="51.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="43.7272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4742,31 +5779,31 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K3" t="s">
@@ -4826,12 +5863,12 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B8" t="s">
@@ -4942,7 +5979,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5099,7 +6136,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5160,7 +6197,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5191,24 +6228,24 @@
   <sheetPr/>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="45.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="49.8181818181818" customWidth="1"/>
-    <col min="7" max="10" width="45.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="42.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="48.9090909090909" customWidth="1"/>
-    <col min="13" max="13" width="46.4545454545455" customWidth="1"/>
-    <col min="14" max="15" width="49.2727272727273" customWidth="1"/>
-    <col min="16" max="16" width="46" customWidth="1"/>
-    <col min="17" max="17" width="51.4545454545455" customWidth="1"/>
-    <col min="18" max="18" width="53.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="45.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="45.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="42.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="48.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="46.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="49.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="46" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="51.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="53.3636363636364" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5279,55 +6316,55 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5405,12 +6442,12 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B8" t="s">
@@ -5575,7 +6612,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5804,7 +6841,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5865,7 +6902,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5896,27 +6933,27 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <pane xSplit="18280" topLeftCell="R1" activePane="topLeft"/>
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="B25" sqref="B25:B26"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="37.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="42.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="41.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="38.4545454545455" customWidth="1"/>
-    <col min="10" max="13" width="39.1818181818182" customWidth="1"/>
-    <col min="14" max="15" width="40.2727272727273" customWidth="1"/>
-    <col min="16" max="16" width="37.5454545454545" customWidth="1"/>
-    <col min="17" max="17" width="34.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="10" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="40.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="37.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="34.4545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6026,52 +7063,52 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6145,60 +7182,60 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
@@ -6307,7 +7344,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6524,7 +7561,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6585,7 +7622,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6616,25 +7653,25 @@
   <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="40.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="52.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="54.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="6" max="6" width="51.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="31.6363636363636" customWidth="1"/>
-    <col min="12" max="15" width="39.1818181818182" customWidth="1"/>
-    <col min="16" max="16" width="43" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="58" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="12" max="15" width="39.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="43" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -6738,49 +7775,49 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6825,130 +7862,130 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS($A$8:$A$37,"*$*",K8:K37,"")</f>
+        <f t="shared" ref="K4:P4" si="1">COUNTIFS($A$8:$A$37,"*$*",K8:K37,"")</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>COUNTIFS($A$8:$A$37,"*$*",L8:L37,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS($A$8:$A$37,"*$*",M8:M37,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>COUNTIFS($A$8:$A$37,"*$*",N8:N37,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>COUNTIFS($A$8:$A$37,"*$*",O8:O37,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>COUNTIFS($A$8:$A$37,"*$*",P8:P37,"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" ht="29" spans="1:16">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" ht="29" spans="1:16">
       <c r="A9" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
@@ -7051,7 +8088,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7256,7 +8293,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7317,7 +8354,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7348,27 +8385,27 @@
   <sheetPr/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="36.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="34.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="40.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="39.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="37.4545454545455" customWidth="1"/>
-    <col min="12" max="12" width="40.0909090909091" customWidth="1"/>
-    <col min="13" max="13" width="39.1818181818182" customWidth="1"/>
-    <col min="14" max="15" width="40.0909090909091" customWidth="1"/>
-    <col min="16" max="16" width="43.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="40.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="37.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="40.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="40.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="43.7272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7472,49 +8509,49 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7584,57 +8621,57 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" ht="29" spans="1:16">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
@@ -7737,7 +8774,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7942,7 +8979,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -8003,7 +9040,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>185</v>
       </c>
     </row>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="419">
   <si>
     <t>Status</t>
   </si>
@@ -431,746 +431,805 @@
     <t>Delete File ?(Yes/No)</t>
   </si>
   <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KTP dengan semua kriteria yang sesuai</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KTP dalam kondisi minim cahaya</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KTP yang memiliki resolusi dibawah 960x540</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KTP yang memiliki resolusi diatas 1920x1080</t>
+  </si>
+  <si>
+    <t>Lakukan proses HIT(pemakaian) dengan API Key yang salah</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KTP dengan resolusi dibawah 960x720</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KTP yang agak blur</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KTP yang sangat blur</t>
+  </si>
+  <si>
+    <t>Hit menggunakan tenant code yang salah(tidak ada di DB dan tidak sesuai dengan Key-nya)</t>
+  </si>
+  <si>
+    <t>Hit tanpa mengirimkan gambar, melainkan sebuah file dengan extension .txt</t>
+  </si>
+  <si>
+    <t>Hit dengan parameter image sebuah kertas putih bersih</t>
+  </si>
+  <si>
+    <t>OCR Parameter</t>
+  </si>
+  <si>
+    <t>$IMG</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPWorks1.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPWorks2.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPmightwork1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPrestoobig1.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPrestoobig2.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPrestoosmall1.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPrestoosmall2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPblurlevel1.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/KTP/KTPblurlevel2.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/decoy.txt</t>
+  </si>
+  <si>
+    <t>ImageFolder/WhiteEmpty.png</t>
+  </si>
+  <si>
+    <t>$SearchTipeSaldo</t>
+  </si>
+  <si>
+    <t>$SearchTipeTransaksi</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Controller Key</t>
+  </si>
+  <si>
+    <t>UseCorrectTenantCode?</t>
+  </si>
+  <si>
+    <t>Wrong TenantCode</t>
+  </si>
+  <si>
+    <t>QL</t>
+  </si>
+  <si>
+    <t>UseCorrectKey?(Yes/No)</t>
+  </si>
+  <si>
+    <t>Wrong Key</t>
+  </si>
+  <si>
+    <t>nq3eqt46-nirr-je55-3naa-fwqubmnrpukw</t>
+  </si>
+  <si>
+    <t>earczdnd-jmcm-jue6-9b5d-6hxz6gzm73qr</t>
+  </si>
+  <si>
+    <t>v2aupi2p-n2vr-99ft-rypz-gfk3-3yxdejx76mc9</t>
+  </si>
+  <si>
+    <t>ymhadic5-i8g7-kn3c-cztz-emk6ukyngarg</t>
+  </si>
+  <si>
+    <t>qxpwdpct-byx3-weic-7fg7-3kpdpjc4z28z</t>
+  </si>
+  <si>
+    <t>fem66t9h-r4ji-62n6-yv3v-vejk32jh4524</t>
+  </si>
+  <si>
+    <t>5895e8wk-kyft-7533-bha7-mztzxrcyfd6t</t>
+  </si>
+  <si>
+    <t>na6mutmd-hk7c-diux-3naa-wjt8dcyn5bw6</t>
+  </si>
+  <si>
+    <t>hxycaczn-ybfe-mmd9-9b5d-pwj6kibgacny</t>
+  </si>
+  <si>
+    <t>ParameterOptional</t>
+  </si>
+  <si>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>loginId</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>referenceNumber</t>
+  </si>
+  <si>
+    <t>REF00001</t>
+  </si>
+  <si>
+    <t>officeCode</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>officeName</t>
+  </si>
+  <si>
+    <t>HEAD_OFFICE</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>Registrasi User Pertama</t>
+  </si>
+  <si>
+    <t>Source(MOBILE/WEB)</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>Login Credential</t>
+  </si>
+  <si>
+    <t>$UsernameLogin</t>
+  </si>
+  <si>
+    <t>$PasswordLogin</t>
+  </si>
+  <si>
+    <t>;Image is noisy;</t>
+  </si>
+  <si>
+    <t>;Image is out of focus/blurry; Image is unreadable;  Image is noisy;</t>
+  </si>
+  <si>
+    <t>;Image is unreadable;  Image is noisy;</t>
+  </si>
+  <si>
+    <t>;Image is unreadable;</t>
+  </si>
+  <si>
+    <t>;Image is unreadable; Light reflection detected;</t>
+  </si>
+  <si>
+    <t>;Invalid API key or tenant code</t>
+  </si>
+  <si>
+    <t>;KK NOT FOUND</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK dengan semua kriteria yang sesuai</t>
+  </si>
+  <si>
+    <t>Hit menggunakan foto KK yang ditangkap oleh pengguna awam</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK yang memiliki tingkat ketajaman tinggi</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK dengan warna monokrom(hasil scan)</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK dengan warna monokrom dan dirotasi 90 derajat</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK yang diinvert upside down (dibalik secara vertikal)</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK yang sedikit blur</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK yang sangat blur</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK yang memiliki tingkat keterbacaan rendah (noisy)</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK yang tulisannya mirrored (dibalik secara horizontal)</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK yang memiliki resolusi diatas 3840x2160</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK yang memiliki resolusi jangkauan sistem (960 hingga 3840)</t>
+  </si>
+  <si>
+    <t>Hit menggunakan KK yang memiliki resolusi dibawah 960x720</t>
+  </si>
+  <si>
+    <t>Hit menggunakan API Key yang tidak sesuai dengan kode tenant (dalam kondisi ini, Tenant Code nya benar)</t>
+  </si>
+  <si>
+    <t>Hit menggunakan kode tenant yang tidak sesuai dengan Key nya (dalam kondisi ini, Key nya benar)</t>
+  </si>
+  <si>
+    <t>Hit menggunakan tipe file dengan extension .txt bukan .jpg/.png/.jpeg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKWorks1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKamatir.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKamatir2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKblackwhite.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKblackwhiterotated.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKupsidedown1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKblurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKblurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKburiq1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKreverse1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKrestoobig1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKrestoobig2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKrestoosmall1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/KK/KKrestoosmall2.jpg</t>
+  </si>
+  <si>
+    <t>hxycaczn-ybfe-mmd9-9b5d-pwj7kibgacny</t>
+  </si>
+  <si>
+    <t>Parameter Optional</t>
+  </si>
+  <si>
+    <t>custNo</t>
+  </si>
+  <si>
+    <t>refocrKK</t>
+  </si>
+  <si>
+    <t>TL Check</t>
+  </si>
+  <si>
+    <t>;Unexpected Error</t>
+  </si>
+  <si>
+    <t>;Image is too dark; Image is out of focus/blurry;  Image is noisy; Image is unreadable;</t>
+  </si>
+  <si>
+    <t>;Image is too dark; Image is out of focus/blurry;  Light reflection detected; Image is noisy;</t>
+  </si>
+  <si>
+    <t>;Image is too dark;   Image is noisy;</t>
+  </si>
+  <si>
+    <t>;Image is out of focus/blurry;   Image is unreadable;</t>
+  </si>
+  <si>
+    <t>Hit menggunakan foto STNK yang memenuhi kriteria</t>
+  </si>
+  <si>
+    <t>Hit menggunakan foto STNK yang terlipat dan berkerut</t>
+  </si>
+  <si>
+    <t>Hit menggunakan foto STNK yang sedikit blur</t>
+  </si>
+  <si>
+    <t>Hit menggunakan foto STNK yang sangat blur</t>
+  </si>
+  <si>
+    <t>Hit dimana dalam satu foto terdapat beberapa STNK dan berdekatan</t>
+  </si>
+  <si>
+    <t>Hit dimana pada bagian bukti pelunasan pembayaran sedikit terpotong</t>
+  </si>
+  <si>
+    <t>Hit dimana pada foto hanya terdapat bagian pajak dari STNK saja</t>
+  </si>
+  <si>
+    <t>Hit dengan STNK yang memiliki resolusi diatas 3840x2160</t>
+  </si>
+  <si>
+    <t>Hit dengan STNK yang memiliki resolusi dibawah 960x720</t>
+  </si>
+  <si>
+    <t>Hit menggunakan foto STNK yang dibalut sampul plastik, selain itu hanya ada satu bagian STNK dalam frame</t>
+  </si>
+  <si>
+    <t>Hit menggunakan STNK yang merupakan template dari hasil pencarian. Memiliki resolusi yang sangat rendah</t>
+  </si>
+  <si>
+    <t>Hit menggunakan STNK template yang merupakan hasil pencarian. Terdapat 2 sisi dari STNK dalam satu frame</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKWorks1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKberkerut.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKblurlevel1.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKblurlevel2.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKfotoasal.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKfotoasal2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKpajakonly.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKpajakonly2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKrestoobig.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKrestoolow.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKsampulplastik.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKtemplate.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKtemplate2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/STNK/STNKberbayang.png</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>refocrSTNK</t>
+  </si>
+  <si>
+    <t>;Failed to extract data from BPKB Hal 2</t>
+  </si>
+  <si>
+    <t>;BPKB Hal 2 or 3 not found</t>
+  </si>
+  <si>
+    <t>;BPKB Hal 2 : Image resolution is below 480 x 360 or above 2560 x 1920 (Document Only).</t>
+  </si>
+  <si>
+    <t>;BPKB Hal 2 or 3 not found;BPKB Hal 2 or 3 not found</t>
+  </si>
+  <si>
+    <t>Hit dengan halaman 2 dan 3 yang sesuai kriteria</t>
+  </si>
+  <si>
+    <t>Hit dengan foto BPKB yang sangat blur dan sedikit blur</t>
+  </si>
+  <si>
+    <t>Hit dengan foto BPKB yang blur dan berkebalikan dengan TC sebelumnya</t>
+  </si>
+  <si>
+    <t>Hit dengan foto BPKB yang bercampur dengan STNK di halaman 2, dan di halaman 3 adalah foto yang sesuai kriteria</t>
+  </si>
+  <si>
+    <t>Hit dimana halaman 2 BPKB diisi dengan beberapa BPKB, dan halaman 3 adalah versi laman dari BPKB</t>
+  </si>
+  <si>
+    <t>Hit dimana halaman 2 merupakan tipe lama dari BPKB dan halaman 3 adalah laman dengan tingkat resolusi tinggi</t>
+  </si>
+  <si>
+    <t>Hit dengan BPKB halaman 2 versi lama dan halaman 3 adalah BPKB yang difoto dalam keadaan minim cahaya</t>
+  </si>
+  <si>
+    <t>Hit dengan BPKB halaman 2 yang terkena lampu flash dan halaman 3 yang sesuai kriteria</t>
+  </si>
+  <si>
+    <t>Hit dengan BPKB halaman 2 yang memiliki resolusi diatas 2560x1920</t>
+  </si>
+  <si>
+    <t>Hit BPKB menggunakan API Key yang salah ( tenant code benar)</t>
+  </si>
+  <si>
+    <t>Hit dengan halaman 2 yang memiliki resolusi dibawah 960x720 dan halaman 3 yang difoto dalam kondisi minim cahaya</t>
+  </si>
+  <si>
+    <t>Hit dengan halaman 2 yang sesuai kriteria dan halaman 3 berisi file text</t>
+  </si>
+  <si>
+    <t>Hit dengan halaman 2 berisi file text dan halaman 3 berisi BPKB yang sesuai kriteria</t>
+  </si>
+  <si>
+    <t>$halaman1</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_cahayaMinim.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_blurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_blurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_campurSTNK.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_double.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_old.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_old2.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_overexposure.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_restoohigh.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal2/BPKB_restoolow.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_works.jpg</t>
+  </si>
+  <si>
+    <t>$halaman2</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_blurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_blurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_meetrequirement.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_oldVersion.png</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_shouldworks.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/BPKB/Hal3/BPKB_agak buram.jpg</t>
+  </si>
+  <si>
+    <t>Customer No.</t>
+  </si>
+  <si>
+    <t>OfficeCode</t>
+  </si>
+  <si>
+    <t>OfficeName</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>BPKB Hal 2 dan 3 (9)</t>
+  </si>
+  <si>
+    <t>LoginID</t>
+  </si>
+  <si>
+    <t>refNumber</t>
+  </si>
+  <si>
+    <t>MAL-001</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>UsernameLogin</t>
+  </si>
+  <si>
+    <t>PasswordLogin</t>
+  </si>
+  <si>
+    <t>;Image is too dark; Image is unreadable;  Image is noisy;</t>
+  </si>
+  <si>
+    <t>Hit menggunakan foto NPWP yang sesuai dengan kriteria</t>
+  </si>
+  <si>
+    <t>Hit menggunakan foto NPWP yang merupakan versi terbaru</t>
+  </si>
+  <si>
+    <t>Hit menggunakan foto NPWP yang sedikit blur</t>
+  </si>
+  <si>
+    <t>Hit menggunakan foto NPWP yang sangat blur</t>
+  </si>
+  <si>
+    <t>Hit dengan foto NPWP yang didapat dari kondisi minim cahaya</t>
+  </si>
+  <si>
+    <t>Hit dengan foto NPWP yang merupakan hasil tangkapan kamera smartphone ke layar LCD</t>
+  </si>
+  <si>
+    <t>Hit dengan foto NPWP yang memiliki resolusi diatas 3840x2160</t>
+  </si>
+  <si>
+    <t>Hit dengan foto NPWP yang memiliki resolusi dibawah 960x720</t>
+  </si>
+  <si>
+    <t>Hit dengan foto NPWP dimana detail kurang tajam tapi masih terbaca</t>
+  </si>
+  <si>
+    <t>Hit dengan foto NPWP yang memenuhi kriteria</t>
+  </si>
+  <si>
+    <t>Hit dengan foto NPWP yang sedikit terpotong di bagian tanggal terdaftar</t>
+  </si>
+  <si>
+    <t>Hit menggunakan key yang tidak sesuai dengan tenant code nya ( key nya benar)</t>
+  </si>
+  <si>
+    <t>Hit dengan gambar NPWP yang ditangkap dalam kondisi minim cahaya sehingga menimbulkan noise</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_belakang.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_blurlevel1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_blurlevel2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_dark.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_monitor.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_restoohigh.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_restoolow.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP1.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP2.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_kepotong.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/NPWP/NPWP_amatir.jpg</t>
+  </si>
+  <si>
+    <t>REF0001</t>
+  </si>
+  <si>
+    <t>check response header</t>
+  </si>
+  <si>
+    <t>Unexec</t>
+  </si>
+  <si>
+    <t>Hit SUCCESS tapi saldo tidak berkurang</t>
+  </si>
+  <si>
     <t>;null</t>
   </si>
   <si>
-    <t>;Invalid API key or tenant code</t>
-  </si>
-  <si>
-    <t>Eksekusi berhasil, karena KTP valid 
-dan parameter terpenuhi</t>
-  </si>
-  <si>
-    <t>Eksekusi berhasil, KTP masih valid 
-dan parameter terpenuhi</t>
-  </si>
-  <si>
-    <t>KTP mungkin dikenali walaupun cahaya minim, sehingga ekspektasi SUKSES</t>
-  </si>
-  <si>
-    <t>Ukuran resolusi KTP terlalu besar melebihi 1920x1080, failed</t>
-  </si>
-  <si>
-    <t>Penggunaan Key salah, error atau failed</t>
-  </si>
-  <si>
-    <t>Ukuran resolusi KTP terlalu kecil kurang dari 960x720, failed</t>
-  </si>
-  <si>
-    <t>ktp sedikit blur, 50% kemungkinan Sukses</t>
-  </si>
-  <si>
-    <t>KTP sangat blur, FAILED</t>
+    <t>Hit dengan rekening koran yang sesuai kriteria</t>
+  </si>
+  <si>
+    <t>Hit dengan rekening koran yang memiliki watermark dengan opacity yang tidak terlalu tinggi</t>
+  </si>
+  <si>
+    <t>Hit dengan rekening koran yang tidak memiliki laman total transaksi</t>
+  </si>
+  <si>
+    <t>Hit dengan rekening koran yang memiliki ukuran file besar diatas 2MB</t>
+  </si>
+  <si>
+    <t>Hit dengan rekening koran company yang masih sesuai dengan kriteria</t>
+  </si>
+  <si>
+    <t>Hit dengan rekening koran yang memiliki 2 halaman saja</t>
+  </si>
+  <si>
+    <t>Hit dengan format rekening koran yang tidak sesuai kriteria</t>
+  </si>
+  <si>
+    <t>Hit dengan file yang bukan pdf melainkan jpg (foto)</t>
+  </si>
+  <si>
+    <t>Hit dengan file yang bukan pdf melainkan bentuk .docx</t>
+  </si>
+  <si>
+    <t>Hit menggunakan key API yang tidak sesuai dengan tenant code nya</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri1.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri2.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri3.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri4.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri5.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri6.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri7.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri.jpg</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKMandiri/RKMandiri.docx</t>
+  </si>
+  <si>
+    <t>OCR Rek. Koran Mandiri</t>
+  </si>
+  <si>
+    <t>Sukses, RK adalah rekening tahapan BCA</t>
+  </si>
+  <si>
+    <t>Sukses, RK adalah rekening Giro BCA</t>
+  </si>
+  <si>
+    <t>50% sukses, karena ada watermark pada file</t>
+  </si>
+  <si>
+    <t>Sukses, merupakan rekening tahapan xpresi BCA</t>
+  </si>
+  <si>
+    <t>50% sukses, 13 halaman bisa membuat overload</t>
+  </si>
+  <si>
+    <t>Sukses karena rekening koran digital resmi</t>
+  </si>
+  <si>
+    <t>Gagal, karena dikirim dalam bentuk jpg</t>
+  </si>
+  <si>
+    <t>Gagal, karena dikirim dalam bentuk Word</t>
+  </si>
+  <si>
+    <t>Gagal, key yang digunakan salah</t>
+  </si>
+  <si>
+    <t>Gagal, tenant yang digunakan salah</t>
+  </si>
+  <si>
+    <t>Gagal, tidak image untuk OCR</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA1.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA2.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA3.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA4.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA5.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA6.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA7.pdf</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA.jpeg</t>
+  </si>
+  <si>
+    <t>ImageFolder/RKBCA/RKBCA.docx</t>
+  </si>
+  <si>
+    <t>OCR Rek. Koran BCA</t>
+  </si>
+  <si>
+    <t>Success, karena bpkb halaman 2 dan 3 sesuai requirement</t>
+  </si>
+  <si>
+    <t>Gagal karena tingkat blur yang mengganggu proses OCR</t>
+  </si>
+  <si>
+    <t>Gagal, karena pada foto halaman2 terdapat STNK di dalamnya</t>
+  </si>
+  <si>
+    <t>Gagal, karena bpkb dalam foto ada dua</t>
+  </si>
+  <si>
+    <t>50% kemungkinan berhasil karena versi lama mungkin cocok dengan OCR terkini</t>
+  </si>
+  <si>
+    <t>50% berhasil karena foto terlalu silau terkena flash</t>
+  </si>
+  <si>
+    <t>Gagal karena salah satu halaman memilki resolusi sangat tinggi</t>
+  </si>
+  <si>
+    <t>Gagal, API Key salah</t>
+  </si>
+  <si>
+    <t>Gagal karena salah satu halaman memiliki resolusi terlalu rendah</t>
+  </si>
+  <si>
+    <t>Dengan dikirim 1 parameter saja seharusnya success</t>
+  </si>
+  <si>
+    <t>Dengan dikirim parameter halaman 3 saja, maka kemungkinan bisa success</t>
   </si>
   <si>
     <t>Gagal, karena tenant code salah</t>
   </si>
   <si>
-    <t>Gagal, karena IMG kosong</t>
-  </si>
-  <si>
-    <t>OCR Parameter</t>
-  </si>
-  <si>
-    <t>$IMG</t>
-  </si>
-  <si>
-    <t>ImageFolder/KTP/KTPWorks1.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/KTP/KTPWorks2.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/KTP/KTPmightwork1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KTP/KTPrestoobig1.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/KTP/KTPrestoobig2.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/KTP/KTPrestoosmall1.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/KTP/KTPrestoosmall2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KTP/KTPblurlevel1.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/KTP/KTPblurlevel2.png</t>
-  </si>
-  <si>
-    <t>$SearchTipeSaldo</t>
-  </si>
-  <si>
-    <t>$SearchTipeTransaksi</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Controller Key</t>
-  </si>
-  <si>
-    <t>UseCorrectTenantCode?</t>
-  </si>
-  <si>
-    <t>Wrong TenantCode</t>
-  </si>
-  <si>
-    <t>QL</t>
-  </si>
-  <si>
-    <t>UseCorrectKey?(Yes/No)</t>
-  </si>
-  <si>
-    <t>Wrong Key</t>
-  </si>
-  <si>
-    <t>nq3eqt46-nirr-je55-3naa-fwqubmnrpukw</t>
-  </si>
-  <si>
-    <t>earczdnd-jmcm-jue6-9b5d-6hxz6gzm73qr</t>
-  </si>
-  <si>
-    <t>v2aupi2p-n2vr-99ft-rypz-gfk3-3yxdejx76mc9</t>
-  </si>
-  <si>
-    <t>ymhadic5-i8g7-kn3c-cztz-emk6ukyngarg</t>
-  </si>
-  <si>
-    <t>qxpwdpct-byx3-weic-7fg7-3kpdpjc4z28z</t>
-  </si>
-  <si>
-    <t>fem66t9h-r4ji-62n6-yv3v-vejk32jh4524</t>
-  </si>
-  <si>
-    <t>5895e8wk-kyft-7533-bha7-mztzxrcyfd6t</t>
-  </si>
-  <si>
-    <t>na6mutmd-hk7c-diux-3naa-wjt8dcyn5bw6</t>
-  </si>
-  <si>
-    <t>hxycaczn-ybfe-mmd9-9b5d-pwj6kibgacny</t>
-  </si>
-  <si>
-    <t>ParameterOptional</t>
-  </si>
-  <si>
-    <t>NIK</t>
-  </si>
-  <si>
-    <t>loginId</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>referenceNumber</t>
-  </si>
-  <si>
-    <t>REF00001</t>
-  </si>
-  <si>
-    <t>officeCode</t>
-  </si>
-  <si>
-    <t>HO</t>
-  </si>
-  <si>
-    <t>officeName</t>
-  </si>
-  <si>
-    <t>HEAD_OFFICE</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>Registrasi User Pertama</t>
-  </si>
-  <si>
-    <t>Source(MOBILE/WEB)</t>
-  </si>
-  <si>
-    <t>MOBILE</t>
-  </si>
-  <si>
-    <t>Login Credential</t>
-  </si>
-  <si>
-    <t>$UsernameLogin</t>
-  </si>
-  <si>
-    <t>$PasswordLogin</t>
-  </si>
-  <si>
-    <t>Unexecited</t>
-  </si>
-  <si>
-    <t>Eksekusi berhasil, karena KK valid 
-dan parameter terpenuhi</t>
-  </si>
-  <si>
-    <t>Eksekusi berhasil, tapi data yang dibaca tidak akan punya confidence level tinggi</t>
-  </si>
-  <si>
-    <t>Eksekusi berhasil, gambar cukup tajam sehingga confidence level tinggi</t>
-  </si>
-  <si>
-    <t>Eksekusi berhasil dengan tingkat confidence robot yang tinggi</t>
-  </si>
-  <si>
-    <t>Eksekusi berhasil, sama seperti black white biasa, rotasi
-kecil tidak berpengaruh</t>
-  </si>
-  <si>
-    <t>Eksekusi akan tetap berhasil, karena rotasi seharusnya tidak berpengaruh</t>
-  </si>
-  <si>
-    <t>Punya 50% tingkat eksekusi berhasil karena gambar tidak tajam</t>
-  </si>
-  <si>
-    <t>Eksekusi akan gagal karena tingkat blur yang tinggi</t>
-  </si>
-  <si>
-    <t>Gambar tidak bisa dibaca oleh robot karena gambar terlalu pecah</t>
-  </si>
-  <si>
-    <t>KK tidak terbaca karena semua teks dalam keadaan terbalik/mirror</t>
-  </si>
-  <si>
-    <t>Eksekusi gagal, karena resolusi dan ukuran file terlalu besar</t>
-  </si>
-  <si>
-    <t>Eksekusi gagal, karena resolusi terlalu rendah</t>
-  </si>
-  <si>
-    <t>Penggunaan key yang salah, error atau failed</t>
-  </si>
-  <si>
-    <t>Penggunaan tenantcode yang salah, error atau failed</t>
-  </si>
-  <si>
-    <t>Tidak ada image (mandatory), error atau failed</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKWorks1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKamatir.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKamatir2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKblackwhite.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKblackwhiterotated.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKupsidedown1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKblurlevel1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKblurlevel2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKburiq1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKreverse1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKrestoobig1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKrestoobig2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKrestoosmall1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/KK/KKrestoosmall2.jpg</t>
-  </si>
-  <si>
-    <t>hxycaczn-ybfe-mmd9-9b5d-pwj7kibgacny</t>
-  </si>
-  <si>
-    <t>Parameter Optional</t>
-  </si>
-  <si>
-    <t>custNo</t>
-  </si>
-  <si>
-    <t>refocrKK</t>
-  </si>
-  <si>
-    <t>TL Check</t>
-  </si>
-  <si>
-    <t>;Image is too dark; Image is out of focus/blurry;  Image is noisy; Image is unreadable;;Unexpected Error</t>
-  </si>
-  <si>
-    <t>Hit SUCCESS tapi saldo tidak berkurang</t>
-  </si>
-  <si>
-    <t>;Image is too dark; Image is out of focus/blurry;  Image is noisy; Image is unreadable;</t>
-  </si>
-  <si>
-    <t>;Unexpected Error</t>
-  </si>
-  <si>
-    <t>;Image is unreadable;</t>
-  </si>
-  <si>
-    <t>;Image is noisy; Image is unreadable;</t>
-  </si>
-  <si>
-    <t>Invalid API Key or Tenant Code</t>
-  </si>
-  <si>
-    <t>Sukses, foto STNK memenuhi requirement</t>
-  </si>
-  <si>
-    <t>STNK terlipat lipat dan tidak terbaca, error/failed</t>
-  </si>
-  <si>
-    <t>Blurry yang tidak terlalu parah, maka error atau failed</t>
-  </si>
-  <si>
-    <t>Blur parah, error atau failed</t>
-  </si>
-  <si>
-    <t>Banyak STNK dalam foto, server bingung dan error</t>
-  </si>
-  <si>
-    <t>Foto lumayan jelas, tapi ada yang terpotong, 50% kemungkinan success</t>
-  </si>
-  <si>
-    <t>STNK yang difoto tidak bolak balik, error</t>
-  </si>
-  <si>
-    <t>Resolusi diatas maksimal kapabilitas server, Error atau null</t>
-  </si>
-  <si>
-    <t>Resolusi dibawah minimum requirement, Error</t>
-  </si>
-  <si>
-    <t>50% kemungkinan terbaca, karena ada bagian yang terpotong dan blurry, tapi bagian tengah terbaca</t>
-  </si>
-  <si>
-    <t>Error, karena gambar buram, resolusi kecil, dan banyak tulisan yang di sensor</t>
-  </si>
-  <si>
-    <t>Gambar punya 50% kemungkinan sukses, karena resolusi kecil tapi tulisan yang di bold</t>
-  </si>
-  <si>
-    <t>Invalid API Key karena key salah</t>
-  </si>
-  <si>
-    <t>Invalid Tenant code, error atau failed</t>
-  </si>
-  <si>
-    <t>Gagal karena tidak ada image untuk OCR</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKWorks1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKberkerut.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKblurlevel1.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKblurlevel2.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKfotoasal.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKfotoasal2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKpajakonly.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKpajakonly2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKrestoobig.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKrestoolow.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKsampulplastik.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKtemplate.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKtemplate2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/STNK/STNKberbayang.png</t>
-  </si>
-  <si>
-    <t>IDR</t>
-  </si>
-  <si>
-    <t>refocrSTNK</t>
-  </si>
-  <si>
-    <t>;Failed to extract data from BPKB Hal 2</t>
-  </si>
-  <si>
-    <t>;BPKB Hal 2 or 3 not found</t>
-  </si>
-  <si>
-    <t>;BPKB Hal 2 : Image resolution is below 480 x 360 or above 2560 x 1920 (Document Only).</t>
-  </si>
-  <si>
-    <t>;BPKB Hal 2 or 3 not found;BPKB Hal 2 or 3 not found</t>
-  </si>
-  <si>
-    <t>Success, karena bpkb halaman 2 dan 3 sesuai requirement</t>
-  </si>
-  <si>
-    <t>Gagal karena tingkat blur yang mengganggu proses OCR</t>
-  </si>
-  <si>
-    <t>Gagal, karena pada foto halaman2 terdapat STNK di dalamnya</t>
-  </si>
-  <si>
-    <t>Gagal, karena bpkb dalam foto ada dua</t>
-  </si>
-  <si>
-    <t>50% kemungkinan berhasil karena versi lama mungkin cocok dengan OCR terkini</t>
-  </si>
-  <si>
-    <t>50% berhasil karena foto terlalu silau terkena flash</t>
-  </si>
-  <si>
-    <t>Gagal karena salah satu halaman memilki resolusi sangat tinggi</t>
-  </si>
-  <si>
-    <t>Gagal, API Key salah</t>
-  </si>
-  <si>
-    <t>Gagal karena salah satu halaman memiliki resolusi terlalu rendah</t>
-  </si>
-  <si>
-    <t>Dengan dikirim 1 parameter saja seharusnya success</t>
-  </si>
-  <si>
-    <t>Dengan dikirim parameter halaman 3 saja, maka kemungkinan bisa success</t>
-  </si>
-  <si>
     <t>Gagal, karena tidak ada img untuk OCR</t>
-  </si>
-  <si>
-    <t>$halaman1</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal2/BPKB_cahayaMinim.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal2/BPKB_blurlevel2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal2/BPKB_blurlevel1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal2/BPKB_campurSTNK.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal2/BPKB_double.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal2/BPKB_old.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal2/BPKB_old2.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal2/BPKB_overexposure.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal2/BPKB_restoohigh.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal2/BPKB_restoolow.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal3/BPKB_works.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/decoy.txt</t>
-  </si>
-  <si>
-    <t>$halaman2</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal3/BPKB_blurlevel1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal3/BPKB_blurlevel2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal3/BPKB_meetrequirement.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal3/BPKB_oldVersion.png</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal3/BPKB_shouldworks.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/BPKB/Hal3/BPKB_agak buram.jpg</t>
-  </si>
-  <si>
-    <t>Customer No.</t>
-  </si>
-  <si>
-    <t>OfficeCode</t>
-  </si>
-  <si>
-    <t>OfficeName</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>BPKB Hal 2 dan 3 (9)</t>
-  </si>
-  <si>
-    <t>LoginID</t>
-  </si>
-  <si>
-    <t>refNumber</t>
-  </si>
-  <si>
-    <t>MAL-001</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>UsernameLogin</t>
-  </si>
-  <si>
-    <t>PasswordLogin</t>
-  </si>
-  <si>
-    <t>;Image is too dark; Image is unreadable;  Image is noisy;</t>
-  </si>
-  <si>
-    <t>Sukses, NPWP memenuhi kriteria</t>
-  </si>
-  <si>
-    <t>Sukses, tampilan NPWP yang baru</t>
-  </si>
-  <si>
-    <t>Kemungkinan 50% berhasil gambar sedikit blur</t>
-  </si>
-  <si>
-    <t>Gagal, karena tingkat blur sangat parah</t>
-  </si>
-  <si>
-    <t>Kemungkinan 50% berhasil, gambar agak gelap</t>
-  </si>
-  <si>
-    <t>Kemungkinan 50% berhasil, gambar diambil dari monitor</t>
-  </si>
-  <si>
-    <t>Gagal, resolusi terlalu tinggi</t>
-  </si>
-  <si>
-    <t>Gagal, resolusi terlalu rendah</t>
-  </si>
-  <si>
-    <t>Kemungkinan 50%, gambar agak noisy</t>
-  </si>
-  <si>
-    <t>Sukses, sesuai kriteria</t>
-  </si>
-  <si>
-    <t>Kemungkinan 50% sukses, karena hanya sedikit terpotong di fotonya</t>
-  </si>
-  <si>
-    <t>Gagal, key yang digunakan salah</t>
-  </si>
-  <si>
-    <t>Mungkin gagal, karena gambar sangat grainy</t>
-  </si>
-  <si>
-    <t>Gagal, tenant yang digunakan salah</t>
-  </si>
-  <si>
-    <t>Gagal, tidak ada yang img untuk OCR</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP_belakang.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP_blurlevel1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP_blurlevel2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP_dark.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP_monitor.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP_restoohigh.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP_restoolow.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP1.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP2.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP_kepotong.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/NPWP/NPWP_amatir.jpg</t>
-  </si>
-  <si>
-    <t>REF0001</t>
-  </si>
-  <si>
-    <t>check response header</t>
-  </si>
-  <si>
-    <t>Unexec</t>
-  </si>
-  <si>
-    <t>Sukses, RK memenuhi kriteria</t>
-  </si>
-  <si>
-    <t>50% sukses karena adanya watermark</t>
-  </si>
-  <si>
-    <t>Gagal, karena rekening koran tidak lengkap</t>
-  </si>
-  <si>
-    <t>50% sukses karena rekening koran hasil scan company, berukuran besar</t>
-  </si>
-  <si>
-    <t>Sukses karena rekening koran company digital</t>
-  </si>
-  <si>
-    <t>Sukses karena rekening koran digital resmi tapi pendek</t>
-  </si>
-  <si>
-    <t>50% sukses karena format rekening koran yang sedikit berbeda</t>
-  </si>
-  <si>
-    <t>Gagal, karena dikirim dalam bentuk jpg</t>
-  </si>
-  <si>
-    <t>Gagal, karena dikirim dalam bentuk Word</t>
-  </si>
-  <si>
-    <t>Gagal, tidak ada img untuk OCR</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKMandiri/RKMandiri1.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKMandiri/RKMandiri2.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKMandiri/RKMandiri3.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKMandiri/RKMandiri4.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKMandiri/RKMandiri5.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKMandiri/RKMandiri6.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKMandiri/RKMandiri7.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKMandiri/RKMandiri.jpg</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKMandiri/RKMandiri.docx</t>
-  </si>
-  <si>
-    <t>OCR Rek. Koran Mandiri</t>
-  </si>
-  <si>
-    <t>Sukses, RK adalah rekening tahapan BCA</t>
-  </si>
-  <si>
-    <t>Sukses, RK adalah rekening Giro BCA</t>
-  </si>
-  <si>
-    <t>50% sukses, karena ada watermark pada file</t>
-  </si>
-  <si>
-    <t>Sukses, merupakan rekening tahapan xpresi BCA</t>
-  </si>
-  <si>
-    <t>50% sukses, 13 halaman bisa membuat overload</t>
-  </si>
-  <si>
-    <t>Sukses karena rekening koran digital resmi</t>
-  </si>
-  <si>
-    <t>Gagal, tidak image untuk OCR</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKBCA/RKBCA1.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKBCA/RKBCA2.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKBCA/RKBCA3.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKBCA/RKBCA4.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKBCA/RKBCA5.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKBCA/RKBCA6.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKBCA/RKBCA7.pdf</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKBCA/RKBCA.jpeg</t>
-  </si>
-  <si>
-    <t>ImageFolder/RKBCA/RKBCA.docx</t>
-  </si>
-  <si>
-    <t>OCR Rek. Koran BCA</t>
   </si>
   <si>
     <t>$selfiephoto</t>
@@ -1294,13 +1353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1309,11 +1361,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1325,9 +1376,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1335,6 +1385,22 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1365,14 +1431,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1380,15 +1438,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,7 +1462,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,7 +1490,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,43 +1580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,13 +1592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,67 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,13 +1628,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,13 +1664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,6 +1699,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1664,21 +1773,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1697,43 +1791,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1761,127 +1820,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2591,29 +2650,29 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="57.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="37.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="36.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="47.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="34.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="34.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
+    <col min="11" max="12" width="57.1818181818182" customWidth="1"/>
+    <col min="13" max="13" width="37.2727272727273" customWidth="1"/>
+    <col min="14" max="14" width="36.5454545454545" customWidth="1"/>
+    <col min="15" max="15" width="35.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2651,7 +2710,10 @@
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>338</v>
+        <v>340</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2659,37 +2721,37 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" ht="29" spans="1:14">
@@ -2697,44 +2759,46 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>322</v>
+        <v>211</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
+        <v>212</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2784,7 +2848,11 @@
       </c>
       <c r="M4">
         <f>COUNTIFS($A$8:$A$21,"*$*",M8:M21,"")</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",N8:N20,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
@@ -2797,131 +2865,141 @@
         <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:13">
+        <v>353</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>263</v>
+      </c>
+      <c r="N9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="N10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -2959,51 +3037,57 @@
       <c r="M12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3041,56 +3125,62 @@
       <c r="M14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N15" t="s">
         <v>167</v>
-      </c>
-      <c r="H15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3098,55 +3188,55 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3165,7 +3255,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -3173,7 +3263,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -3190,8 +3280,8 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3260,40 +3350,40 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3359,130 +3449,130 @@
         <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="I9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="J9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="L9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -3523,48 +3613,48 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3605,53 +3695,53 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3659,60 +3749,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -3720,7 +3810,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -3735,30 +3825,31 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="75.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="35.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="13" max="16" width="35.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="35.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="34.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="34.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="75.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="35.7272727272727" customWidth="1"/>
+    <col min="12" max="12" width="45.1818181818182" customWidth="1"/>
+    <col min="13" max="16" width="35.7272727272727" customWidth="1"/>
+    <col min="17" max="17" width="35.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3805,6 +3896,9 @@
         <v>44</v>
       </c>
       <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3813,57 +3907,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:16">
+    <row r="3" ht="43.5" spans="1:17">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>396</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3925,83 +4022,77 @@
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",Q8:Q20,"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" ht="29" spans="1:16">
+    </row>
+    <row r="8" ht="29" spans="1:17">
       <c r="A8" s="11" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="P8" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4020,34 +4111,35 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="B10" s="13">
         <v>7183259386136510</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
         <v>121</v>
@@ -4091,80 +4183,71 @@
       <c r="P13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>157</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -4211,60 +4294,66 @@
       <c r="P17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>161</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -4311,132 +4400,108 @@
       <c r="P19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="s">
+        <v>172</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>172</v>
+      </c>
+      <c r="P20" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q20" t="s">
         <v>167</v>
       </c>
-      <c r="H20" t="s">
-        <v>168</v>
-      </c>
-      <c r="I20" t="s">
-        <v>169</v>
-      </c>
-      <c r="J20" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" t="s">
-        <v>170</v>
-      </c>
-      <c r="L20" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" t="s">
-        <v>170</v>
-      </c>
-      <c r="N20" t="s">
-        <v>170</v>
-      </c>
-      <c r="O20" t="s">
-        <v>170</v>
-      </c>
-      <c r="P20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+        <v>173</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+        <v>187</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -4444,7 +4509,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -4465,7 +4530,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -4502,7 +4567,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -4542,36 +4607,36 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4610,15 +4675,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>60</v>
@@ -4626,23 +4691,23 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="B16" s="7">
         <v>1111</v>
@@ -4653,7 +4718,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="B17" s="6" t="str">
         <f>CONCATENATE("Isiulang ",B14)</f>
@@ -4662,10 +4727,10 @@
     </row>
     <row r="18" ht="29" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="7"/>
@@ -5698,10 +5763,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B26"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -5712,9 +5777,10 @@
     <col min="5" max="10" width="49.1818181818182" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="51.5454545454545" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="43.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="35.2727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5728,13 +5794,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>44</v>
@@ -5751,8 +5817,11 @@
       <c r="L1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5765,55 +5834,49 @@
       <c r="D2" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" ht="29" spans="1:13">
+      <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" ht="29" spans="1:12">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5859,7 +5922,11 @@
       </c>
       <c r="L4">
         <f>COUNTIFS($A$8:$A$20,"*$*",L8:L20,"")</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",M8:M20,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
@@ -5867,7 +5934,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
@@ -5901,10 +5968,16 @@
       <c r="K8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>128</v>
@@ -5939,53 +6012,59 @@
       <c r="L9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="M10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -6020,48 +6099,54 @@
       <c r="L12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -6096,53 +6181,59 @@
       <c r="L14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s">
         <v>167</v>
-      </c>
-      <c r="H15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B17">
         <v>123</v>
@@ -6150,60 +6241,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -6211,7 +6302,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -6226,10 +6317,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B26"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -6243,12 +6334,13 @@
     <col min="12" max="12" width="48.9090909090909" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="46.4545454545455" customWidth="1" collapsed="1"/>
     <col min="14" max="15" width="49.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="46" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="46.8181818181818" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="51.4545454545455" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="53.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="34.8181818181818" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6256,119 +6348,173 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" ht="29" spans="1:18">
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:19">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>212</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -6438,7 +6584,11 @@
       </c>
       <c r="R4">
         <f>COUNTIFS($A$8:$A$20,"*$*",R8:R20,"")</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",S8:S20,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
@@ -6446,62 +6596,68 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I8" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="J8" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="L8" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N8" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>226</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -6554,71 +6710,77 @@
       <c r="R9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R10" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="S10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -6671,66 +6833,72 @@
       <c r="R12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>161</v>
+      </c>
+      <c r="S13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -6783,71 +6951,77 @@
       <c r="R14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s">
         <v>164</v>
       </c>
-      <c r="E15" t="s">
+      <c r="M15" t="s">
         <v>165</v>
       </c>
-      <c r="F15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" t="s">
-        <v>218</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="N15" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" t="s">
+        <v>164</v>
+      </c>
+      <c r="P15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>164</v>
+      </c>
+      <c r="R15" t="s">
+        <v>164</v>
+      </c>
+      <c r="S15" t="s">
         <v>167</v>
-      </c>
-      <c r="I15" t="s">
-        <v>168</v>
-      </c>
-      <c r="J15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" t="s">
-        <v>162</v>
-      </c>
-      <c r="M15" t="s">
-        <v>163</v>
-      </c>
-      <c r="N15" t="s">
-        <v>168</v>
-      </c>
-      <c r="O15" t="s">
-        <v>162</v>
-      </c>
-      <c r="P15" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>162</v>
-      </c>
-      <c r="R15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6855,60 +7029,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -6916,7 +7090,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -6931,32 +7105,33 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <pane xSplit="18280" topLeftCell="R1" activePane="topLeft"/>
-      <selection activeCell="B25" sqref="B25:B26"/>
+      <selection activeCell="P3" sqref="P3:R3"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="38.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="10" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="40.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="37.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="34.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="37.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="42.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="41.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="38.4545454545455" customWidth="1"/>
+    <col min="10" max="13" width="39.1818181818182" customWidth="1"/>
+    <col min="14" max="15" width="40.2727272727273" customWidth="1"/>
+    <col min="16" max="16" width="37.5454545454545" customWidth="1"/>
+    <col min="17" max="17" width="34.4545454545455" customWidth="1"/>
+    <col min="18" max="18" width="34.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6967,7 +7142,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6976,7 +7151,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -7006,10 +7181,13 @@
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7017,102 +7195,111 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="L2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O2" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" ht="43.5" spans="1:17">
+        <v>195</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:18">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>212</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7178,7 +7365,11 @@
       </c>
       <c r="Q4">
         <f>COUNTIFS($A$8:$A$20,"*$*",Q8:Q20,"")</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",R8:R20,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
@@ -7186,171 +7377,182 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17">
+        <v>262</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>263</v>
+      </c>
+      <c r="R9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="R10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -7400,63 +7602,69 @@
       <c r="Q12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>161</v>
+      </c>
+      <c r="R13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -7506,68 +7714,74 @@
       <c r="Q14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" t="s">
+        <v>227</v>
+      </c>
+      <c r="L15" t="s">
         <v>164</v>
       </c>
-      <c r="E15" t="s">
+      <c r="M15" t="s">
         <v>165</v>
       </c>
-      <c r="F15" t="s">
+      <c r="N15" t="s">
         <v>166</v>
       </c>
-      <c r="G15" t="s">
+      <c r="O15" t="s">
         <v>167</v>
       </c>
-      <c r="H15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" t="s">
-        <v>218</v>
-      </c>
-      <c r="L15" t="s">
-        <v>162</v>
-      </c>
-      <c r="M15" t="s">
-        <v>163</v>
-      </c>
-      <c r="N15" t="s">
-        <v>164</v>
-      </c>
-      <c r="O15" t="s">
-        <v>165</v>
-      </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="R15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7575,60 +7789,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -7636,7 +7850,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -7651,30 +7865,31 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:P27"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="52.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="58" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="12" max="15" width="39.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="43" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="40.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="52.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="54.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
+    <col min="6" max="6" width="51.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
+    <col min="11" max="11" width="31.6363636363636" customWidth="1"/>
+    <col min="12" max="15" width="39.1818181818182" customWidth="1"/>
+    <col min="16" max="16" width="43" customWidth="1"/>
+    <col min="17" max="17" width="34.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7721,6 +7936,9 @@
         <v>2</v>
       </c>
       <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7732,10 +7950,10 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>78</v>
@@ -7747,81 +7965,84 @@
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="L2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M2" t="s">
         <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" ht="43.5" spans="1:16">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:17">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>212</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7883,7 +8104,11 @@
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",Q8:Q20,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
@@ -7891,105 +8116,115 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" ht="29" spans="1:16">
+    <row r="8" ht="29" spans="1:17">
       <c r="A8" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" ht="29" spans="1:16">
+        <v>292</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" ht="29" spans="1:17">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="O9" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
         <v>121</v>
@@ -8036,65 +8271,71 @@
       <c r="P10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -8141,60 +8382,66 @@
       <c r="P13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>161</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -8241,65 +8488,71 @@
       <c r="P15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="s">
+        <v>172</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q16" t="s">
         <v>167</v>
-      </c>
-      <c r="H16" t="s">
-        <v>168</v>
-      </c>
-      <c r="I16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L16" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" t="s">
-        <v>170</v>
-      </c>
-      <c r="N16" t="s">
-        <v>170</v>
-      </c>
-      <c r="O16" t="s">
-        <v>170</v>
-      </c>
-      <c r="P16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -8307,60 +8560,60 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -8368,7 +8621,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -8383,32 +8636,33 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="40.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="37.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="40.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="43.7272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="36.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="34.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="40.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="39.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="37.4545454545455" customWidth="1"/>
+    <col min="12" max="12" width="40.0909090909091" customWidth="1"/>
+    <col min="13" max="13" width="39.1818181818182" customWidth="1"/>
+    <col min="14" max="15" width="40.0909090909091" customWidth="1"/>
+    <col min="16" max="16" width="43.7272727272727" customWidth="1"/>
+    <col min="17" max="17" width="34.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8455,10 +8709,13 @@
         <v>2</v>
       </c>
       <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8466,7 +8723,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -8496,66 +8753,72 @@
         <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="N2" t="s">
         <v>78</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" ht="29" spans="1:16">
+        <v>195</v>
+      </c>
+      <c r="P2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:17">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>322</v>
+        <v>211</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>212</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -8617,7 +8880,11 @@
       </c>
       <c r="P4">
         <f>COUNTIFS($A$8:$A$21,"*$*",P8:P21,"")</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",Q8:Q20,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
@@ -8625,162 +8892,173 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" ht="29" spans="1:16">
+    <row r="8" ht="29" spans="1:17">
       <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16">
+        <v>326</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>263</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -8827,60 +9105,66 @@
       <c r="P12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>161</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -8927,65 +9211,71 @@
       <c r="P14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N15" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" t="s">
+        <v>172</v>
+      </c>
+      <c r="P15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" t="s">
         <v>167</v>
-      </c>
-      <c r="H15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" t="s">
-        <v>168</v>
-      </c>
-      <c r="L15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N15" t="s">
-        <v>169</v>
-      </c>
-      <c r="O15" t="s">
-        <v>170</v>
-      </c>
-      <c r="P15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -8993,60 +9283,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -9054,7 +9344,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="427">
   <si>
     <t>Status</t>
   </si>
@@ -467,6 +467,9 @@
     <t>Hit dengan parameter image sebuah kertas putih bersih</t>
   </si>
   <si>
+    <t>Hit menggunakan foto KTP yang overexposure</t>
+  </si>
+  <si>
     <t>OCR Parameter</t>
   </si>
   <si>
@@ -506,6 +509,9 @@
     <t>ImageFolder/WhiteEmpty.png</t>
   </si>
   <si>
+    <t>ImageFolder/KTP/KTPoverexposure.png</t>
+  </si>
+  <si>
     <t>$SearchTipeSaldo</t>
   </si>
   <si>
@@ -680,10 +686,13 @@
     <t>Hit menggunakan tipe file dengan extension .txt bukan .jpg/.png/.jpeg</t>
   </si>
   <si>
+    <t>Hit menggunakan foto KK yang overexposure</t>
+  </si>
+  <si>
     <t>ImageFolder/KK/KKWorks1.jpg</t>
   </si>
   <si>
-    <t>ImageFolder/KK/KKamatir.jpg</t>
+    <t>ImageFolder/KK/KKamatir.png</t>
   </si>
   <si>
     <t>ImageFolder/KK/KKamatir2.jpg</t>
@@ -692,7 +701,7 @@
     <t>ImageFolder/KK/KKblackwhite.jpg</t>
   </si>
   <si>
-    <t>ImageFolder/KK/KKblackwhiterotated.jpg</t>
+    <t>ImageFolder/KK/KKblackwhiterotated.png</t>
   </si>
   <si>
     <t>ImageFolder/KK/KKupsidedown1.jpg</t>
@@ -704,7 +713,7 @@
     <t>ImageFolder/KK/KKblurlevel2.jpg</t>
   </si>
   <si>
-    <t>ImageFolder/KK/KKburiq1.jpg</t>
+    <t>ImageFolder/KK/KKburiq1.png</t>
   </si>
   <si>
     <t>ImageFolder/KK/KKreverse1.jpg</t>
@@ -713,13 +722,13 @@
     <t>ImageFolder/KK/KKrestoobig1.jpg</t>
   </si>
   <si>
-    <t>ImageFolder/KK/KKrestoobig2.jpg</t>
+    <t>ImageFolder/KK/KKrestoobig2.png</t>
   </si>
   <si>
     <t>ImageFolder/KK/KKrestoosmall1.jpg</t>
   </si>
   <si>
-    <t>ImageFolder/KK/KKrestoosmall2.jpg</t>
+    <t>ImageFolder/KK/KKrestoosmall2.png</t>
   </si>
   <si>
     <t>hxycaczn-ybfe-mmd9-9b5d-pwj7kibgacny</t>
@@ -737,6 +746,9 @@
     <t>TL Check</t>
   </si>
   <si>
+    <t>UNexecuted</t>
+  </si>
+  <si>
     <t>;Unexpected Error</t>
   </si>
   <si>
@@ -767,7 +779,7 @@
     <t>Hit dimana dalam satu foto terdapat beberapa STNK dan berdekatan</t>
   </si>
   <si>
-    <t>Hit dimana pada bagian bukti pelunasan pembayaran sedikit terpotong</t>
+    <t>Hit dimana pada bagian bukti pelunasan pembayaran sedikit terpotong pada bagian tanggal berlaku nya</t>
   </si>
   <si>
     <t>Hit dimana pada foto hanya terdapat bagian pajak dari STNK saja</t>
@@ -788,6 +800,9 @@
     <t>Hit menggunakan STNK template yang merupakan hasil pencarian. Terdapat 2 sisi dari STNK dalam satu frame</t>
   </si>
   <si>
+    <t>Hit menggunakan foto STNK yang overexposure</t>
+  </si>
+  <si>
     <t>ImageFolder/STNK/STNKWorks1.jpg</t>
   </si>
   <si>
@@ -830,6 +845,9 @@
     <t>ImageFolder/STNK/STNKberbayang.png</t>
   </si>
   <si>
+    <t>ImageFolder/STNK/STNKoverexposure.png</t>
+  </si>
+  <si>
     <t>IDR</t>
   </si>
   <si>
@@ -1019,16 +1037,19 @@
     <t>Hit dengan gambar NPWP yang ditangkap dalam kondisi minim cahaya sehingga menimbulkan noise</t>
   </si>
   <si>
+    <t>Hit menggunakan foto NPWP yang overexposure</t>
+  </si>
+  <si>
     <t>ImageFolder/NPWP/NPWP.jpg</t>
   </si>
   <si>
-    <t>ImageFolder/NPWP/NPWP_belakang.jpg</t>
+    <t>ImageFolder/NPWP/NPWP_belakang.png</t>
   </si>
   <si>
     <t>ImageFolder/NPWP/NPWP_blurlevel1.jpg</t>
   </si>
   <si>
-    <t>ImageFolder/NPWP/NPWP_blurlevel2.jpg</t>
+    <t>ImageFolder/NPWP/NPWP_blurlevel2.png</t>
   </si>
   <si>
     <t>ImageFolder/NPWP/NPWP_dark.jpg</t>
@@ -1043,18 +1064,21 @@
     <t>ImageFolder/NPWP/NPWP_restoolow.jpg</t>
   </si>
   <si>
-    <t>ImageFolder/NPWP/NPWP1.jpg</t>
+    <t>ImageFolder/NPWP/NPWP1.png</t>
   </si>
   <si>
     <t>ImageFolder/NPWP/NPWP2.jpg</t>
   </si>
   <si>
-    <t>ImageFolder/NPWP/NPWP_kepotong.jpg</t>
+    <t>ImageFolder/NPWP/NPWP_kepotong.png</t>
   </si>
   <si>
     <t>ImageFolder/NPWP/NPWP_amatir.jpg</t>
   </si>
   <si>
+    <t>ImageFolder/NPWP/NPWP_overexposure.png</t>
+  </si>
+  <si>
     <t>REF0001</t>
   </si>
   <si>
@@ -1076,6 +1100,9 @@
     <t>Hit dengan rekening koran yang memiliki watermark dengan opacity yang tidak terlalu tinggi</t>
   </si>
   <si>
+    <t>Hit dengan rekening koran yang memiliki watermark dengan opacity yang tinggi</t>
+  </si>
+  <si>
     <t>Hit dengan rekening koran yang tidak memiliki laman total transaksi</t>
   </si>
   <si>
@@ -1100,12 +1127,18 @@
     <t>Hit menggunakan key API yang tidak sesuai dengan tenant code nya</t>
   </si>
   <si>
+    <t>Hit menggunakan tipe file dengan extension .txt bukan .pdf</t>
+  </si>
+  <si>
     <t>ImageFolder/RKMandiri/RKMandiri1.pdf</t>
   </si>
   <si>
     <t>ImageFolder/RKMandiri/RKMandiri2.pdf</t>
   </si>
   <si>
+    <t>ImageFolder/RKMandiri/RKMandiri8.pdf</t>
+  </si>
+  <si>
     <t>ImageFolder/RKMandiri/RKMandiri3.pdf</t>
   </si>
   <si>
@@ -1130,37 +1163,25 @@
     <t>OCR Rek. Koran Mandiri</t>
   </si>
   <si>
-    <t>Sukses, RK adalah rekening tahapan BCA</t>
-  </si>
-  <si>
-    <t>Sukses, RK adalah rekening Giro BCA</t>
-  </si>
-  <si>
-    <t>50% sukses, karena ada watermark pada file</t>
-  </si>
-  <si>
-    <t>Sukses, merupakan rekening tahapan xpresi BCA</t>
-  </si>
-  <si>
-    <t>50% sukses, 13 halaman bisa membuat overload</t>
-  </si>
-  <si>
-    <t>Sukses karena rekening koran digital resmi</t>
-  </si>
-  <si>
-    <t>Gagal, karena dikirim dalam bentuk jpg</t>
-  </si>
-  <si>
-    <t>Gagal, karena dikirim dalam bentuk Word</t>
-  </si>
-  <si>
-    <t>Gagal, key yang digunakan salah</t>
-  </si>
-  <si>
-    <t>Gagal, tenant yang digunakan salah</t>
-  </si>
-  <si>
-    <t>Gagal, tidak image untuk OCR</t>
+    <t>Hit dengan rekening koran tahapan BCA</t>
+  </si>
+  <si>
+    <t>Hit dengan rekening koran Giro BCA</t>
+  </si>
+  <si>
+    <t>Hit dengan watermark tipis pada semua laman rekening koran</t>
+  </si>
+  <si>
+    <t>Hit dengan watermark tebal pada semua laman rekening koran</t>
+  </si>
+  <si>
+    <t>Hit dengan rekening koran yang berasal dari Tabungan Tahapan Xpresi</t>
+  </si>
+  <si>
+    <t>Hit dengan RK BCA yang memiliki halaman mutasi diatas 10</t>
+  </si>
+  <si>
+    <t>Hit dengan rekening koran digital BCA yang resmi</t>
   </si>
   <si>
     <t>ImageFolder/RKBCA/RKBCA1.pdf</t>
@@ -1172,6 +1193,9 @@
     <t>ImageFolder/RKBCA/RKBCA3.pdf</t>
   </si>
   <si>
+    <t>ImageFolder/RKBCA/RKBCA8.pdf</t>
+  </si>
+  <si>
     <t>ImageFolder/RKBCA/RKBCA4.pdf</t>
   </si>
   <si>
@@ -1295,7 +1319,7 @@
     <t>$Tanggal Pembelian (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>2023-04-17</t>
+    <t>2023-04-19</t>
   </si>
 </sst>
 </file>
@@ -1303,11 +1327,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1331,6 +1355,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1347,22 +1386,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,15 +1408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1392,30 +1417,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1431,6 +1433,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1438,9 +1448,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,6 +1457,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1462,7 +1486,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1490,7 +1514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,13 +1544,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,49 +1652,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,19 +1682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,79 +1694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,6 +1723,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1710,6 +1764,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1732,8 +1804,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1748,64 +1820,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1817,130 +1841,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2640,7 +2664,7 @@
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C14:D14 F14:G14" numberStoredAsText="1"/>
+    <ignoredError sqref="F14:G14 C14:D14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2648,10 +2672,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2659,20 +2683,20 @@
     <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
     <col min="3" max="3" width="47.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="34.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="34.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
-    <col min="11" max="12" width="57.1818181818182" customWidth="1"/>
-    <col min="13" max="13" width="37.2727272727273" customWidth="1"/>
-    <col min="14" max="14" width="36.5454545454545" customWidth="1"/>
-    <col min="15" max="15" width="35.7272727272727" customWidth="1"/>
+    <col min="4" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="34.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="34.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="33.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="34.1818181818182" customWidth="1"/>
+    <col min="10" max="10" width="36.5454545454545" customWidth="1"/>
+    <col min="11" max="11" width="35.7272727272727" customWidth="1"/>
+    <col min="12" max="13" width="57.1818181818182" customWidth="1"/>
+    <col min="14" max="14" width="37.2727272727273" customWidth="1"/>
+    <col min="15" max="15" width="36.5454545454545" customWidth="1"/>
+    <col min="16" max="16" width="35.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2683,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2710,112 +2734,118 @@
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>340</v>
+        <v>2</v>
       </c>
       <c r="N1" t="s">
+        <v>348</v>
+      </c>
+      <c r="O1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
-        <v>232</v>
-      </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H2" t="s">
-        <v>342</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>350</v>
       </c>
       <c r="J2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K2" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" ht="29" spans="1:14">
+        <v>197</v>
+      </c>
+      <c r="M2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>211</v>
+        <v>361</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
+        <f>COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",C8:C21,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",D8:D21,"")</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:K4" si="0">COUNTIFS($A$8:$A$21,"*$*",E8:E21,"")</f>
         <v>0</v>
       </c>
       <c r="F4">
@@ -2839,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",K8:K21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
@@ -2851,155 +2881,168 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f>COUNTIFS($A$8:$A$20,"*$*",N8:N20,"")</f>
+        <f>COUNTIFS($A$8:$A$21,"*$*",N8:N21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",O8:O20,"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" ht="29" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" ht="29" spans="1:15">
       <c r="A8" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>269</v>
+      </c>
+      <c r="O9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N10" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="O10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -3032,62 +3075,68 @@
         <v>34</v>
       </c>
       <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
         <v>35</v>
       </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
       <c r="N12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>163</v>
+      </c>
+      <c r="O13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3117,70 +3166,76 @@
         <v>34</v>
       </c>
       <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="L14" t="s">
-        <v>34</v>
-      </c>
       <c r="M14" t="s">
         <v>34</v>
       </c>
       <c r="N14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N15" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" t="s">
         <v>169</v>
-      </c>
-      <c r="H15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" t="s">
-        <v>172</v>
-      </c>
-      <c r="L15" t="s">
-        <v>172</v>
-      </c>
-      <c r="M15" t="s">
-        <v>172</v>
-      </c>
-      <c r="N15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3188,55 +3243,55 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3252,10 +3307,11 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -3263,7 +3319,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -3278,28 +3334,29 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="35.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="35.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="35.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="6" width="34.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="34.3636363636364" customWidth="1"/>
+    <col min="8" max="8" width="33.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="34.1818181818182" customWidth="1"/>
+    <col min="10" max="10" width="36.5454545454545" customWidth="1"/>
+    <col min="11" max="13" width="35.7272727272727" customWidth="1"/>
+    <col min="14" max="14" width="35.3636363636364" customWidth="1"/>
+    <col min="15" max="15" width="34.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3337,6 +3394,12 @@
         <v>44</v>
       </c>
       <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3345,69 +3408,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:13">
+    <row r="3" ht="43.5" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>213</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
+        <f>COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",C8:C21,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",D8:D21,"")</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($A$8:$A$21,"*$*",E8:E21,"")</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:K4" si="0">COUNTIFS($A$8:$A$21,"*$*",F8:F21,"")</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -3427,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS($A$8:$A$21,"*$*",K8:K21,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
@@ -3436,143 +3505,171 @@
       </c>
       <c r="M4">
         <f>COUNTIFS($A$8:$A$21,"*$*",M8:M21,"")</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",N8:N21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",O8:O20,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="I9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="J9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="K9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>391</v>
+      </c>
+      <c r="N9" t="s">
+        <v>391</v>
+      </c>
+      <c r="O9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="N10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -3605,56 +3702,68 @@
         <v>34</v>
       </c>
       <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
         <v>35</v>
       </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s">
+        <v>163</v>
+      </c>
+      <c r="O13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3684,64 +3793,76 @@
         <v>34</v>
       </c>
       <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="L14" t="s">
-        <v>34</v>
-      </c>
       <c r="M14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N15" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" t="s">
         <v>169</v>
-      </c>
-      <c r="H15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" t="s">
-        <v>172</v>
-      </c>
-      <c r="L15" t="s">
-        <v>172</v>
-      </c>
-      <c r="M15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3749,60 +3870,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -3810,7 +3931,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -3827,7 +3948,7 @@
   <sheetPr/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -3912,49 +4033,49 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>141</v>
@@ -4031,68 +4152,68 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="29" spans="1:17">
       <c r="A8" s="11" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4111,7 +4232,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B10" s="13">
         <v>7183259386136510</v>
@@ -4119,27 +4240,27 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
         <v>121</v>
@@ -4184,70 +4305,70 @@
         <v>121</v>
       </c>
       <c r="Q13" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -4300,60 +4421,60 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -4406,102 +4527,102 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="s">
+        <v>174</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>174</v>
+      </c>
+      <c r="P20" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q20" t="s">
         <v>169</v>
-      </c>
-      <c r="H20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I20" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K20" t="s">
-        <v>172</v>
-      </c>
-      <c r="L20" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" t="s">
-        <v>172</v>
-      </c>
-      <c r="N20" t="s">
-        <v>172</v>
-      </c>
-      <c r="O20" t="s">
-        <v>172</v>
-      </c>
-      <c r="P20" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -4509,7 +4630,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -4529,8 +4650,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -4545,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>44</v>
@@ -4557,9 +4678,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:5">
@@ -4567,7 +4691,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -4607,36 +4731,36 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4675,15 +4799,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>60</v>
@@ -4691,23 +4815,23 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B16" s="7">
         <v>1111</v>
@@ -4718,7 +4842,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B17" s="6" t="str">
         <f>CONCATENATE("Isiulang ",B14)</f>
@@ -4727,10 +4851,10 @@
     </row>
     <row r="18" ht="29" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="7"/>
@@ -5763,24 +5887,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="52.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="49.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="51.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="43.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="35.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="3" width="45.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="52.8181818181818" customWidth="1"/>
+    <col min="5" max="10" width="49.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="51.5454545454545" customWidth="1"/>
+    <col min="12" max="12" width="43.7272727272727" customWidth="1"/>
+    <col min="13" max="13" width="35.2727272727273" customWidth="1"/>
+    <col min="14" max="14" width="36.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5818,6 +5943,9 @@
         <v>44</v>
       </c>
       <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5835,7 +5963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:13">
+    <row r="3" ht="29" spans="1:14">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -5875,8 +6003,11 @@
       <c r="M3" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5928,56 +6059,63 @@
         <f>COUNTIFS($A$8:$A$20,"*$*",M8:M20,"")</f>
         <v>0</v>
       </c>
+      <c r="N4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",N8:N20,"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>155</v>
+      </c>
+      <c r="N8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>128</v>
@@ -6015,56 +6153,62 @@
       <c r="M9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="N10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -6102,51 +6246,57 @@
       <c r="M12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -6184,56 +6334,62 @@
       <c r="M14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M15" t="s">
         <v>169</v>
       </c>
-      <c r="H15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" t="s">
-        <v>172</v>
-      </c>
-      <c r="L15" t="s">
-        <v>172</v>
-      </c>
-      <c r="M15" t="s">
-        <v>167</v>
+      <c r="N15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B17">
         <v>123</v>
@@ -6241,60 +6397,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -6302,7 +6458,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -6317,30 +6473,32 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="45.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="42.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="48.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="46.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="49.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="46.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="51.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="53.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="34.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
+    <col min="3" max="5" width="45.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="49.8181818181818" customWidth="1"/>
+    <col min="7" max="10" width="45.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="42.3636363636364" customWidth="1"/>
+    <col min="12" max="12" width="48.9090909090909" customWidth="1"/>
+    <col min="13" max="13" width="46.4545454545455" customWidth="1"/>
+    <col min="14" max="15" width="49.2727272727273" customWidth="1"/>
+    <col min="16" max="16" width="46.8181818181818" customWidth="1"/>
+    <col min="17" max="17" width="51.4545454545455" customWidth="1"/>
+    <col min="18" max="18" width="53.3636363636364" customWidth="1"/>
+    <col min="19" max="19" width="34.8181818181818" customWidth="1"/>
+    <col min="20" max="20" width="31.4545454545455" customWidth="1"/>
+    <col min="21" max="21" width="29.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6396,6 +6554,9 @@
         <v>2</v>
       </c>
       <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6422,16 +6583,16 @@
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L2" t="s">
         <v>78</v>
@@ -6440,81 +6601,84 @@
         <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="R2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" ht="29" spans="1:19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:20">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -6590,74 +6754,81 @@
         <f>COUNTIFS($A$8:$A$20,"*$*",S8:S20,"")</f>
         <v>0</v>
       </c>
+      <c r="T4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",T8:T20,"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" t="s">
+        <v>225</v>
+      </c>
+      <c r="L8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M8" t="s">
+        <v>227</v>
+      </c>
+      <c r="N8" t="s">
+        <v>228</v>
+      </c>
+      <c r="O8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>229</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T8" t="s">
         <v>217</v>
       </c>
-      <c r="G8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I8" t="s">
-        <v>220</v>
-      </c>
-      <c r="J8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K8" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" t="s">
-        <v>223</v>
-      </c>
-      <c r="M8" t="s">
-        <v>224</v>
-      </c>
-      <c r="N8" t="s">
-        <v>225</v>
-      </c>
-      <c r="O8" t="s">
-        <v>226</v>
-      </c>
-      <c r="P8" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>226</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -6713,74 +6884,80 @@
       <c r="S9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S10" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="T10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -6836,69 +7013,75 @@
       <c r="S12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>163</v>
+      </c>
+      <c r="T13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -6954,74 +7137,80 @@
       <c r="S14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s">
         <v>166</v>
       </c>
-      <c r="E15" t="s">
+      <c r="M15" t="s">
         <v>167</v>
       </c>
-      <c r="F15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" t="s">
-        <v>227</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="N15" t="s">
+        <v>172</v>
+      </c>
+      <c r="O15" t="s">
+        <v>166</v>
+      </c>
+      <c r="P15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>166</v>
+      </c>
+      <c r="R15" t="s">
+        <v>166</v>
+      </c>
+      <c r="S15" t="s">
         <v>169</v>
       </c>
-      <c r="I15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" t="s">
-        <v>172</v>
-      </c>
-      <c r="L15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" t="s">
-        <v>165</v>
-      </c>
-      <c r="N15" t="s">
-        <v>170</v>
-      </c>
-      <c r="O15" t="s">
-        <v>164</v>
-      </c>
-      <c r="P15" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>164</v>
-      </c>
-      <c r="R15" t="s">
-        <v>164</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7029,60 +7218,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -7090,7 +7279,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -7105,11 +7294,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <pane xSplit="18280" topLeftCell="R1" activePane="topLeft"/>
-      <selection activeCell="P3" sqref="P3:R3"/>
+      <selection activeCell="R13" sqref="R13"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -7128,10 +7317,11 @@
     <col min="14" max="15" width="40.2727272727273" customWidth="1"/>
     <col min="16" max="16" width="37.5454545454545" customWidth="1"/>
     <col min="17" max="17" width="34.4545454545455" customWidth="1"/>
-    <col min="18" max="18" width="34.8181818181818" customWidth="1"/>
+    <col min="18" max="18" width="43.6363636363636" customWidth="1"/>
+    <col min="19" max="19" width="34.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7185,6 +7375,9 @@
       </c>
       <c r="R1" t="s">
         <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -7195,111 +7388,114 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="R2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" ht="43.5" spans="1:18">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:19">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7371,188 +7567,201 @@
         <f>COUNTIFS($A$8:$A$20,"*$*",R8:R20,"")</f>
         <v>0</v>
       </c>
+      <c r="S4">
+        <f>COUNTIFS($A$8:$A$20,"*$*",S8:S20,"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" ht="29" spans="1:19">
       <c r="A8" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>155</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="O9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="R9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>269</v>
+      </c>
+      <c r="S9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R10" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="S10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -7605,66 +7814,72 @@
       <c r="R12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>163</v>
+      </c>
+      <c r="S13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -7717,71 +7932,77 @@
       <c r="R14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" t="s">
         <v>166</v>
       </c>
-      <c r="E15" t="s">
+      <c r="M15" t="s">
         <v>167</v>
       </c>
-      <c r="F15" t="s">
+      <c r="N15" t="s">
         <v>168</v>
       </c>
-      <c r="G15" t="s">
+      <c r="O15" t="s">
         <v>169</v>
       </c>
-      <c r="H15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" t="s">
-        <v>227</v>
-      </c>
-      <c r="L15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" t="s">
-        <v>165</v>
-      </c>
-      <c r="N15" t="s">
-        <v>166</v>
-      </c>
-      <c r="O15" t="s">
-        <v>167</v>
-      </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R15" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="S15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7789,60 +8010,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -7850,7 +8071,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -7868,7 +8089,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -7950,10 +8171,10 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
         <v>78</v>
@@ -7965,28 +8186,28 @@
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M2" t="s">
         <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:17">
@@ -7994,49 +8215,49 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>141</v>
@@ -8113,118 +8334,118 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="29" spans="1:17">
       <c r="A8" s="11" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" ht="29" spans="1:17">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="O9" s="3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
         <v>121</v>
@@ -8272,70 +8493,70 @@
         <v>121</v>
       </c>
       <c r="Q10" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -8388,60 +8609,60 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -8494,65 +8715,65 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="s">
+        <v>174</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q16" t="s">
         <v>169</v>
-      </c>
-      <c r="H16" t="s">
-        <v>170</v>
-      </c>
-      <c r="I16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M16" t="s">
-        <v>172</v>
-      </c>
-      <c r="N16" t="s">
-        <v>172</v>
-      </c>
-      <c r="O16" t="s">
-        <v>172</v>
-      </c>
-      <c r="P16" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -8560,60 +8781,60 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -8621,7 +8842,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -8636,10 +8857,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane xSplit="18280" topLeftCell="T1" activePane="topLeft"/>
+      <selection activeCell="S9" sqref="S9"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -8660,9 +8883,10 @@
     <col min="14" max="15" width="40.0909090909091" customWidth="1"/>
     <col min="16" max="16" width="43.7272727272727" customWidth="1"/>
     <col min="17" max="17" width="34.5454545454545" customWidth="1"/>
+    <col min="18" max="18" width="30.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8712,6 +8936,9 @@
         <v>2</v>
       </c>
       <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8723,7 +8950,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -8753,72 +8980,75 @@
         <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N2" t="s">
         <v>78</v>
       </c>
       <c r="O2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" ht="43.5" spans="1:17">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" spans="1:18">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -8886,179 +9116,192 @@
         <f>COUNTIFS($A$8:$A$20,"*$*",Q8:Q20,"")</f>
         <v>0</v>
       </c>
+      <c r="R4">
+        <f>COUNTIFS($A$8:$A$21,"*$*",R8:R21,"")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" ht="29" spans="1:17">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" ht="29" spans="1:18">
       <c r="A8" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>155</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="O9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>269</v>
+      </c>
+      <c r="R9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q10" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="R10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -9108,63 +9351,69 @@
       <c r="Q12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>163</v>
+      </c>
+      <c r="R13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -9214,68 +9463,74 @@
       <c r="Q14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O15" t="s">
+        <v>174</v>
+      </c>
+      <c r="P15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q15" t="s">
         <v>169</v>
       </c>
-      <c r="H15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" t="s">
-        <v>171</v>
-      </c>
-      <c r="M15" t="s">
-        <v>172</v>
-      </c>
-      <c r="N15" t="s">
-        <v>171</v>
-      </c>
-      <c r="O15" t="s">
-        <v>172</v>
-      </c>
-      <c r="P15" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>167</v>
+      <c r="R15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -9283,60 +9538,60 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -9344,7 +9599,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>

--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,29 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="4" activeTab="8"/>
+    <workbookView activeTab="12" firstSheet="8" windowHeight="7070" windowWidth="18530"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit Profile" sheetId="2" r:id="rId2"/>
-    <sheet name="API KEY" sheetId="3" r:id="rId3"/>
-    <sheet name="Dokumentasi API" sheetId="4" r:id="rId4"/>
-    <sheet name="OCR KTP" sheetId="5" r:id="rId5"/>
-    <sheet name="OCR KK" sheetId="6" r:id="rId6"/>
-    <sheet name="OCR STNK" sheetId="7" r:id="rId7"/>
-    <sheet name="OCR BPKB" sheetId="8" r:id="rId8"/>
-    <sheet name="OCR NPWP" sheetId="9" r:id="rId9"/>
-    <sheet name="OCR RK Mandiri" sheetId="10" r:id="rId10"/>
-    <sheet name="OCR RK BCA" sheetId="11" r:id="rId11"/>
-    <sheet name="Dukcapil(NonBiom)" sheetId="12" r:id="rId12"/>
-    <sheet name="APIAAS-Saldo" sheetId="13" r:id="rId13"/>
+    <sheet name="Register" r:id="rId1" sheetId="1"/>
+    <sheet name="Edit Profile" r:id="rId2" sheetId="2"/>
+    <sheet name="API KEY" r:id="rId3" sheetId="3"/>
+    <sheet name="Dokumentasi API" r:id="rId4" sheetId="4"/>
+    <sheet name="OCR KTP" r:id="rId5" sheetId="5"/>
+    <sheet name="OCR KK" r:id="rId6" sheetId="6"/>
+    <sheet name="OCR STNK" r:id="rId7" sheetId="7"/>
+    <sheet name="OCR BPKB" r:id="rId8" sheetId="8"/>
+    <sheet name="OCR NPWP" r:id="rId9" sheetId="9"/>
+    <sheet name="OCR RK Mandiri" r:id="rId10" sheetId="10"/>
+    <sheet name="OCR RK BCA" r:id="rId11" sheetId="11"/>
+    <sheet name="Dukcapil(NonBiom)" r:id="rId12" sheetId="12"/>
+    <sheet name="APIAAS-Saldo" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="431">
   <si>
     <t>Status</t>
   </si>
@@ -1280,7 +1280,16 @@
     <t>1980-01-01</t>
   </si>
   <si>
-    <t>Success tambah saldo</t>
+    <t>Success tambah saldo IDR</t>
+  </si>
+  <si>
+    <t>Success tambah saldo OCR KTP</t>
+  </si>
+  <si>
+    <t>Success tambah saldo OCR KK</t>
+  </si>
+  <si>
+    <t>Gagal topup karena tipe saldo kosong</t>
   </si>
   <si>
     <t>$Username Billing</t>
@@ -1320,6 +1329,9 @@
   </si>
   <si>
     <t>2023-04-19</t>
+  </si>
+  <si>
+    <t>Filter Saldo</t>
   </si>
 </sst>
 </file>
@@ -1328,10 +1340,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1355,16 +1367,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1378,7 +1389,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,15 +1421,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,23 +1451,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1441,7 +1459,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1455,20 +1473,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1477,8 +1481,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1514,7 +1526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,7 +1538,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,7 +1598,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,7 +1646,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,61 +1676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,37 +1688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,31 +1700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,32 +1735,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1777,6 +1768,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1801,11 +1807,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1822,238 +1834,238 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="12" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="14" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="25" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="27" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="27" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="18">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="178" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
+    <cellStyle builtinId="10" name="Note" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2067,10 +2079,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2234,21 +2246,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2265,7 +2277,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2318,9 +2330,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -2328,11 +2340,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="21.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.8181818181818" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.4545454545455" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.5454545454545" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" width="21.9090909090909" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2374,7 +2386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:7">
+    <row ht="43.5" r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2402,31 +2414,31 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:G4" si="0">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f ref="B4:G4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="12" s="1" spans="1:1">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -2615,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="17" s="1" spans="1:1">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -2660,19 +2672,19 @@
       <c r="C21" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F14:G14 C14:D14" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="F14:G14 C14:D14"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -2680,20 +2692,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="47.9090909090909" customWidth="1"/>
-    <col min="4" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="34.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="34.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="33.0909090909091" customWidth="1"/>
-    <col min="9" max="9" width="34.1818181818182" customWidth="1"/>
-    <col min="10" max="10" width="36.5454545454545" customWidth="1"/>
-    <col min="11" max="11" width="35.7272727272727" customWidth="1"/>
-    <col min="12" max="13" width="57.1818181818182" customWidth="1"/>
-    <col min="14" max="14" width="37.2727272727273" customWidth="1"/>
-    <col min="15" max="15" width="36.5454545454545" customWidth="1"/>
-    <col min="16" max="16" width="35.7272727272727" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.3636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="47.9090909090909" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.2727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.3636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.0909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="34.1818181818182" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="36.5454545454545" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="35.7272727272727" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="57.1818181818182" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="37.2727272727273" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="36.5454545454545" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="35.7272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2781,7 +2793,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:15">
+    <row ht="29" r="3" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2845,31 +2857,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:K4" si="0">COUNTIFS($A$8:$A$21,"*$*",E8:E21,"")</f>
+        <f ref="E4:K4" si="0" t="shared">COUNTIFS($A$8:$A$21,"*$*",E8:E21,"")</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4">
@@ -2889,12 +2901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" ht="29" spans="1:15">
+    <row ht="29" r="8" spans="1:15">
       <c r="A8" s="11" t="s">
         <v>144</v>
       </c>
@@ -3035,7 +3047,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="11" s="1" spans="1:1">
       <c r="A11" s="4" t="s">
         <v>160</v>
       </c>
@@ -3228,7 +3240,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="16" s="1" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>231</v>
       </c>
@@ -3326,15 +3338,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -3342,18 +3354,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="35.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="6" width="34.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="34.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="33.0909090909091" customWidth="1"/>
-    <col min="9" max="9" width="34.1818181818182" customWidth="1"/>
-    <col min="10" max="10" width="36.5454545454545" customWidth="1"/>
-    <col min="11" max="13" width="35.7272727272727" customWidth="1"/>
-    <col min="14" max="14" width="35.3636363636364" customWidth="1"/>
-    <col min="15" max="15" width="34.6363636363636" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.3636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.8181818181818" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="34.2727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.3636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.0909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="34.1818181818182" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="36.5454545454545" collapsed="true"/>
+    <col min="11" max="13" customWidth="true" width="35.7272727272727" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="35.3636363636364" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="34.6363636363636" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3408,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:15">
+    <row ht="43.5" r="3" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3476,27 +3488,27 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:K4" si="0">COUNTIFS($A$8:$A$21,"*$*",F8:F21,"")</f>
+        <f ref="F4:K4" si="0" t="shared">COUNTIFS($A$8:$A$21,"*$*",F8:F21,"")</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4">
@@ -3516,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>143</v>
       </c>
@@ -3662,7 +3674,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="11" s="1" spans="1:1">
       <c r="A11" s="4" t="s">
         <v>160</v>
       </c>
@@ -3855,7 +3867,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="16" s="1" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>231</v>
       </c>
@@ -3916,7 +3928,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="24" s="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>189</v>
       </c>
@@ -3938,15 +3950,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
@@ -3954,20 +3966,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="35.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="35.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="34.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="34.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="75.9090909090909" customWidth="1"/>
-    <col min="11" max="11" width="35.7272727272727" customWidth="1"/>
-    <col min="12" max="12" width="45.1818181818182" customWidth="1"/>
-    <col min="13" max="16" width="35.7272727272727" customWidth="1"/>
-    <col min="17" max="17" width="35.1818181818182" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.3636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.8181818181818" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="34.2727272727273" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.3636363636364" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.0909090909091" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.1818181818182" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="36.5454545454545" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="75.9090909090909" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="35.7272727272727" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="45.1818181818182" collapsed="true"/>
+    <col min="13" max="16" customWidth="true" width="35.7272727272727" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="35.1818181818182" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4028,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:17">
+    <row ht="43.5" r="3" spans="1:17">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4094,55 +4106,55 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:P4" si="0">COUNTIFS($A$8:$A$38,"*$*",D8:D38,"")</f>
+        <f ref="D4:P4" si="0" t="shared">COUNTIFS($A$8:$A$38,"*$*",D8:D38,"")</f>
         <v>4</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="Q4">
@@ -4150,12 +4162,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" ht="29" spans="1:17">
+    <row ht="29" r="8" spans="1:17">
       <c r="A8" s="11" t="s">
         <v>405</v>
       </c>
@@ -4361,7 +4373,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="16" s="1" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>160</v>
       </c>
@@ -4578,7 +4590,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="21" s="1" spans="1:1">
       <c r="A21" s="4" t="s">
         <v>175</v>
       </c>
@@ -4615,7 +4627,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="26" s="1" spans="1:1">
       <c r="A26" s="4" t="s">
         <v>189</v>
       </c>
@@ -4637,28 +4649,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B9" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="B9"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="5" width="27" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7272727272727" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4678,7 +4690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4686,7 +4698,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:5">
+    <row ht="29" r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4694,13 +4706,13 @@
         <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>414</v>
+      </c>
+      <c r="D3" t="s">
+        <v>415</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4713,54 +4725,54 @@
       </c>
       <c r="C4">
         <f>COUNTIFS($A$10:$A$22,"*$*",C10:C22,"")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>COUNTIFS($A$10:$A$22,"*$*",D10:D22,"")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>COUNTIFS($A$10:$A$22,"*$*",E10:E22,"")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:5">
+    <row customFormat="1" r="8" s="2" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row customFormat="1" r="9" s="2" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4797,85 +4809,176 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>422</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B15">
         <v>100</v>
       </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B16" s="7">
         <v>1111</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="7">
+        <v>1112</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1113</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B17" s="6" t="str">
         <f>CONCATENATE("Isiulang ",B14)</f>
         <v>Isiulang IDR</v>
       </c>
-    </row>
-    <row r="18" ht="29" spans="1:5">
+      <c r="C17" s="6" t="str">
+        <f>CONCATENATE("Isiulang ",C14)</f>
+        <v>Isiulang OCR KTP</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>CONCATENATE("Isiulang ",D14)</f>
+        <v>Isiulang OCR KK</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f>CONCATENATE("Isiulang ",E14)</f>
+        <v>Isiulang </v>
+      </c>
+    </row>
+    <row ht="29" r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+        <v>429</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row customFormat="1" r="19" s="1" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f>B14</f>
+        <v>IDR</v>
+      </c>
+      <c r="C20" s="10" t="str">
+        <f>C14</f>
+        <v>OCR KTP</v>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f>D14</f>
+        <v>OCR KK</v>
+      </c>
       <c r="E20" s="10"/>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="str">
+        <f>CONCATENATE("Top Up ",B20)</f>
+        <v>Top Up IDR</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE("Top Up ",C20)</f>
+        <v>Top Up OCR KTP</v>
+      </c>
+      <c r="D21" t="str">
+        <f>CONCATENATE("Top Up ",D20)</f>
+        <v>Top Up OCR KK</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E18"/>
@@ -4883,10 +4986,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="40.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.3636363636364" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="40.6363636363636" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.4545454545455" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4914,7 +5017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:5">
+    <row ht="29" r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4952,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -5136,18 +5239,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C16" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C16"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B9"/>
@@ -5155,16 +5258,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="27.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="40.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.1818181818182" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="27.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7272727272727" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.6363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.1818181818182" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="40.6363636363636" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="31.8181818181818" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5196,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="29" spans="1:9">
+    <row ht="29" r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5225,7 +5328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:9">
+    <row ht="29" r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5259,39 +5362,39 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:I4" si="0">COUNTIFS($A$8:$A$22,"*$*",B8:B22,"")</f>
+        <f ref="B4:I4" si="0" t="shared">COUNTIFS($A$8:$A$22,"*$*",B8:B22,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -5525,7 +5628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="16" s="1" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>111</v>
       </c>
@@ -5648,7 +5751,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:K21">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B21:K21" type="list">
       <formula1>"OCR BPKB,OCR REK KORAN MANDIRI,LIVENESS + FACECOMPARE,OCR KK,
 OCR REK KORAN BCA
 ,OCR STNK,
@@ -5659,15 +5762,15 @@
 "</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -5675,16 +5778,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7272727272727" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="11.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.4545454545455" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.7272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.3636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.7272727272727" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="11.6363636363636" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5742,7 +5845,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:11">
+    <row ht="43.5" r="3" spans="1:11">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5782,35 +5885,35 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:I4" si="0">COUNTIFS($A$8:$A$22,"*$*",C8:C22,"")</f>
+        <f ref="C4:I4" si="0" t="shared">COUNTIFS($A$8:$A$22,"*$*",C8:C22,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>119</v>
       </c>
@@ -5875,19 +5978,19 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:L8">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8:L8" type="list">
       <formula1>"OCR BPKB,OCR REK KORAN MANDIRI,LIVENESS + FACECOMPARE,OCR KK,OCR REK KORAN BCA,OCR STNK,FACECOMPARE,OCR KTP,OCR NPWP,LIVENESS"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
@@ -5895,14 +5998,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="3" width="45.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="52.8181818181818" customWidth="1"/>
-    <col min="5" max="10" width="49.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="51.5454545454545" customWidth="1"/>
-    <col min="12" max="12" width="43.7272727272727" customWidth="1"/>
-    <col min="13" max="13" width="35.2727272727273" customWidth="1"/>
-    <col min="14" max="14" width="36.8181818181818" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="45.1818181818182" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="52.8181818181818" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" width="49.1818181818182" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="51.5454545454545" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="43.7272727272727" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="35.2727272727273" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="36.8181818181818" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5963,7 +6066,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:14">
+    <row ht="29" r="3" spans="1:14">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -6016,35 +6119,35 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f ref="C4:J4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4">
@@ -6064,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>143</v>
       </c>
@@ -6201,7 +6304,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="11" s="1" spans="1:1">
       <c r="A11" s="4" t="s">
         <v>160</v>
       </c>
@@ -6382,7 +6485,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="16" s="1" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>175</v>
       </c>
@@ -6443,7 +6546,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="24" s="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>189</v>
       </c>
@@ -6465,15 +6568,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
@@ -6481,21 +6584,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="45.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="49.8181818181818" customWidth="1"/>
-    <col min="7" max="10" width="45.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="42.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="48.9090909090909" customWidth="1"/>
-    <col min="13" max="13" width="46.4545454545455" customWidth="1"/>
-    <col min="14" max="15" width="49.2727272727273" customWidth="1"/>
-    <col min="16" max="16" width="46.8181818181818" customWidth="1"/>
-    <col min="17" max="17" width="51.4545454545455" customWidth="1"/>
-    <col min="18" max="18" width="53.3636363636364" customWidth="1"/>
-    <col min="19" max="19" width="34.8181818181818" customWidth="1"/>
-    <col min="20" max="20" width="31.4545454545455" customWidth="1"/>
-    <col min="21" max="21" width="29.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.3636363636364" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="45.1818181818182" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.8181818181818" collapsed="true"/>
+    <col min="7" max="10" customWidth="true" width="45.1818181818182" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="42.3636363636364" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="48.9090909090909" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="46.4545454545455" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="49.2727272727273" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="46.8181818181818" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="51.4545454545455" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="53.3636363636364" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="34.8181818181818" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="31.4545454545455" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="29.9090909090909" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -6616,7 +6719,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:20">
+    <row ht="29" r="3" spans="1:20">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6683,67 +6786,67 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:Q4" si="0">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
+        <f ref="B4:Q4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",B8:B20,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="R4">
@@ -6759,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>143</v>
       </c>
@@ -6950,7 +7053,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="11" s="1" spans="1:1">
       <c r="A11" s="4" t="s">
         <v>160</v>
       </c>
@@ -7203,7 +7306,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="16" s="1" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>231</v>
       </c>
@@ -7264,7 +7367,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="24" s="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>189</v>
       </c>
@@ -7286,39 +7389,39 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
-      <pane xSplit="18280" topLeftCell="R1" activePane="topLeft"/>
+      <pane activePane="topLeft" topLeftCell="R1" xSplit="18280"/>
       <selection activeCell="R13" sqref="R13"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="37.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="42.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="41.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="38.4545454545455" customWidth="1"/>
-    <col min="10" max="13" width="39.1818181818182" customWidth="1"/>
-    <col min="14" max="15" width="40.2727272727273" customWidth="1"/>
-    <col min="16" max="16" width="37.5454545454545" customWidth="1"/>
-    <col min="17" max="17" width="34.4545454545455" customWidth="1"/>
-    <col min="18" max="18" width="43.6363636363636" customWidth="1"/>
-    <col min="19" max="19" width="34.1818181818182" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.1818181818182" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.0909090909091" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="41.6363636363636" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.5454545454545" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.6363636363636" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.3636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.4545454545455" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="38.4545454545455" collapsed="true"/>
+    <col min="10" max="13" customWidth="true" width="39.1818181818182" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="40.2727272727273" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="37.5454545454545" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="34.4545454545455" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="43.6363636363636" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="34.1818181818182" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -7436,7 +7539,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:19">
+    <row ht="43.5" r="3" spans="1:19">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7504,59 +7607,59 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:J4" si="0">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
+        <f ref="C4:J4" si="0" t="shared">COUNTIFS($A$8:$A$20,"*$*",C8:C20,"")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:P4" si="1">COUNTIFS($A$8:$A$20,"*$*",K8:K20,"")</f>
+        <f ref="K4:P4" si="1" t="shared">COUNTIFS($A$8:$A$20,"*$*",K8:K20,"")</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4">
@@ -7572,12 +7675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" ht="29" spans="1:19">
+    <row ht="29" r="8" spans="1:19">
       <c r="A8" s="11" t="s">
         <v>144</v>
       </c>
@@ -7754,7 +7857,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="11" s="1" spans="1:1">
       <c r="A11" s="4" t="s">
         <v>160</v>
       </c>
@@ -7995,7 +8098,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="16" s="1" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>231</v>
       </c>
@@ -8056,7 +8159,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="24" s="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>189</v>
       </c>
@@ -8078,15 +8181,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -8094,20 +8197,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="40.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="52.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="54.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="6" max="6" width="51.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="33.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="34.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="36.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="35.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="31.6363636363636" customWidth="1"/>
-    <col min="12" max="15" width="39.1818181818182" customWidth="1"/>
-    <col min="16" max="16" width="43" customWidth="1"/>
-    <col min="17" max="17" width="34.1818181818182" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.8181818181818" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="52.6363636363636" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="54.6363636363636" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="51.6363636363636" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.0909090909091" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.1818181818182" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="36.5454545454545" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="35.7272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="31.6363636363636" collapsed="true"/>
+    <col min="12" max="15" customWidth="true" width="39.1818181818182" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="34.1818181818182" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -8210,7 +8313,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:17">
+    <row ht="43.5" r="3" spans="1:17">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8276,55 +8379,55 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:J4" si="0">COUNTIFS($A$8:$A$37,"*$*",D8:D37,"")</f>
+        <f ref="D4:J4" si="0" t="shared">COUNTIFS($A$8:$A$37,"*$*",D8:D37,"")</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:P4" si="1">COUNTIFS($A$8:$A$37,"*$*",K8:K37,"")</f>
+        <f ref="K4:P4" si="1" t="shared">COUNTIFS($A$8:$A$37,"*$*",K8:K37,"")</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4">
@@ -8332,12 +8435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" ht="29" spans="1:17">
+    <row ht="29" r="8" spans="1:17">
       <c r="A8" s="11" t="s">
         <v>288</v>
       </c>
@@ -8390,7 +8493,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" ht="29" spans="1:17">
+    <row ht="29" r="9" spans="1:17">
       <c r="A9" t="s">
         <v>300</v>
       </c>
@@ -8549,7 +8652,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="12" s="1" spans="1:1">
       <c r="A12" s="4" t="s">
         <v>160</v>
       </c>
@@ -8766,7 +8869,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="17" s="1" spans="1:1">
       <c r="A17" s="4" t="s">
         <v>175</v>
       </c>
@@ -8827,7 +8930,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="25" s="1" spans="1:1">
       <c r="A25" s="4" t="s">
         <v>189</v>
       </c>
@@ -8849,41 +8952,41 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane xSplit="18280" topLeftCell="T1" activePane="topLeft"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <pane activePane="topLeft" topLeftCell="T1" xSplit="18280"/>
       <selection activeCell="S9" sqref="S9"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="36.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="34.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="35.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="37.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="37.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="36.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="37.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="40.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="39.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="37.4545454545455" customWidth="1"/>
-    <col min="12" max="12" width="40.0909090909091" customWidth="1"/>
-    <col min="13" max="13" width="39.1818181818182" customWidth="1"/>
-    <col min="14" max="15" width="40.0909090909091" customWidth="1"/>
-    <col min="16" max="16" width="43.7272727272727" customWidth="1"/>
-    <col min="17" max="17" width="34.5454545454545" customWidth="1"/>
-    <col min="18" max="18" width="30.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.3636363636364" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.2727272727273" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.1818181818182" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.5454545454545" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.5454545454545" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.6363636363636" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.3636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.4545454545455" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="40.0909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="39.1818181818182" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="37.4545454545455" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="40.0909090909091" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="39.1818181818182" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="40.0909090909091" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="43.7272727272727" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="34.5454545454545" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="30.9090909090909" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -8992,7 +9095,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" ht="43.5" spans="1:18">
+    <row ht="43.5" r="3" spans="1:18">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9053,59 +9156,59 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
+        <f ref="B4:O4" si="0" t="shared">COUNTIFS($A$8:$A$21,"*$*",B8:B21,"")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4">
@@ -9121,12 +9224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="7" s="1" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" ht="29" spans="1:18">
+    <row ht="29" r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>144</v>
       </c>
@@ -9294,7 +9397,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="11" s="1" spans="1:1">
       <c r="A11" s="4" t="s">
         <v>160</v>
       </c>
@@ -9523,7 +9626,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="16" s="1" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>231</v>
       </c>
@@ -9584,7 +9687,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row customFormat="1" r="24" s="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>189</v>
       </c>
@@ -9606,7 +9709,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/2. APIAAS.xlsx
+++ b/Excel/2. APIAAS.xlsx
@@ -4,29 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="8" windowHeight="7070" windowWidth="18530"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" r:id="rId1" sheetId="1"/>
-    <sheet name="Edit Profile" r:id="rId2" sheetId="2"/>
-    <sheet name="API KEY" r:id="rId3" sheetId="3"/>
-    <sheet name="Dokumentasi API" r:id="rId4" sheetId="4"/>
-    <sheet name="OCR KTP" r:id="rId5" sheetId="5"/>
-    <sheet name="OCR KK" r:id="rId6" sheetId="6"/>
-    <sheet name="OCR STNK" r:id="rId7" sheetId="7"/>
-    <sheet name="OCR BPKB" r:id="rId8" sheetId="8"/>
-    <sheet name="OCR NPWP" r:id="rId9" sheetId="9"/>
-    <sheet name="OCR RK Mandiri" r:id="rId10" sheetId="10"/>
-    <sheet name="OCR RK BCA" r:id="rId11" sheetId="11"/>
-    <sheet name="Dukcapil(NonBiom)" r:id="rId12" sheetId="12"/>
-    <sheet name="APIAAS-Saldo" r:id="rId13" sheetId="13"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
+    <sheet name="Edit Profile" sheetId="2" r:id="rId2"/>
+    <sheet name="API KEY" sheetId="3" r:id="rId3"/>
+    <sheet name="Dokumentasi API" sheetId="4" r:id="rId4"/>
+    <sheet name="OCR KTP" sheetId="5" r:id="rId5"/>
+    <sheet name="OCR KK" sheetId="6" r:id="rId6"/>
+    <sheet name="OCR STNK" sheetId="7" r:id="rId7"/>
+    <sheet name="OCR BPKB" sheetId="8" r:id="rId8"/>
+    <sheet name="OCR NPWP" sheetId="9" r:id="rId9"/>
+    <sheet name="OCR RK Mandiri" sheetId="10" r:id="rId10"/>
+    <sheet name="OCR RK BCA" sheetId="11" r:id="rId11"/>
+    <sheet name="Dukcapil(NonBiom)" sheetId="12" r:id="rId12"/>
+    <sheet name="APIAAS-Saldo" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="433">
   <si>
     <t>Status</t>
   </si>
@@ -1217,6 +1217,9 @@
     <t>OCR Rek. Koran BCA</t>
   </si>
   <si>
+    <t>;Insufficient balance</t>
+  </si>
+  <si>
     <t>Success, karena bpkb halaman 2 dan 3 sesuai requirement</t>
   </si>
   <si>
@@ -1326,6 +1329,9 @@
   </si>
   <si>
     <t>$Tanggal Pembelian (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
   </si>
   <si>
     <t>2023-04-19</t>
@@ -1339,9 +1345,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -1368,16 +1374,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1388,18 +1395,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1427,14 +1435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1450,16 +1450,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1473,7 +1473,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1483,14 +1496,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1526,37 +1532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,19 +1550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,7 +1580,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,13 +1622,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,79 +1706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,8 +1744,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1755,15 +1776,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1807,17 +1819,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,238 +1840,238 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="12" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="14" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="25" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="27" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="27" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="4" numFmtId="0">
+    <xf num